--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2075541.495847108</v>
+        <v>2051834.568814045</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7468483.559539755</v>
+        <v>7468483.55953975</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4652905.83552232</v>
+        <v>4652905.835522321</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8552551.226751387</v>
+        <v>8552551.226751389</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>243.5282011375626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>129.863150639597</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U11" t="n">
         <v>251.0677569773601</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>149.8604030773901</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.4849242744168</v>
       </c>
       <c r="H12" t="n">
-        <v>94.28534975788277</v>
+        <v>94.28534975788284</v>
       </c>
       <c r="I12" t="n">
-        <v>25.40560575917303</v>
+        <v>25.40560575917296</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>137.8230430673489</v>
+        <v>174.8371603966348</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U13" t="n">
         <v>286.2340376195573</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>290.5529663863826</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.8290383841796</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I14" t="n">
-        <v>76.55610382424419</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>271.1592378008448</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I15" t="n">
-        <v>25.40560575917296</v>
+        <v>25.40560575917304</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T16" t="n">
         <v>221.2879033684809</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>264.4984206465465</v>
       </c>
       <c r="X16" t="n">
-        <v>116.1916486639302</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>73.39852763883739</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>411.8290383841796</v>
       </c>
       <c r="H17" t="n">
-        <v>303.8997808908692</v>
+        <v>225.6933440374448</v>
       </c>
       <c r="I17" t="n">
-        <v>76.55610382424419</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I18" t="n">
-        <v>25.40560575917303</v>
+        <v>25.40560575917304</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>15.48711938335785</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>38.11128387286533</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>196.8617380866793</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T20" t="n">
         <v>207.8897316183737</v>
@@ -2140,16 +2140,16 @@
         <v>251.0677569773601</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>15.78391223969306</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>182.6440328179305</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646386</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2216,7 +2216,7 @@
         <v>192.6732950772712</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8191062330279</v>
+        <v>225.8191062330277</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>103.0111284027581</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T22" t="n">
-        <v>221.2879033684809</v>
+        <v>199.2633256784364</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I23" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424425</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>207.8897316183737</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0677569773601</v>
+        <v>251.0677569773602</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>156.0131831582916</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>61.64791174028041</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.2879033684809</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I26" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424425</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>28.92493739480856</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>7.590339298006938</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2340376195573</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I29" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424425</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>129.863150639597</v>
       </c>
       <c r="T29" t="n">
-        <v>207.8897316183737</v>
+        <v>207.8897316183739</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0677569773601</v>
+        <v>251.0677569773602</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.6382945843783</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.8617380866793</v>
+        <v>174.8371603966348</v>
       </c>
       <c r="T31" t="n">
         <v>221.2879033684809</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I32" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424425</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>129.863150639597</v>
       </c>
       <c r="T32" t="n">
-        <v>207.8897316183737</v>
+        <v>207.8897316183739</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0677569773601</v>
+        <v>251.0677569773602</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U34" t="n">
         <v>286.2340376195573</v>
       </c>
       <c r="V34" t="n">
-        <v>159.6934348271085</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>60.91345076587182</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>193.9873431336325</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.55610382424422</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T35" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>31.43791988302625</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I36" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917296</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2695916934275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>160.5513770143814</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.8290383841796</v>
+        <v>253.6871066507942</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>76.55610382424425</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>129.863150639597</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>150.6638014665915</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I39" t="n">
-        <v>25.40560575917296</v>
+        <v>25.40560575917304</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>115.9812779493423</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.7782132155363</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>196.8617380866793</v>
       </c>
       <c r="T40" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>156.842861615162</v>
       </c>
       <c r="E41" t="n">
-        <v>67.38768999823223</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.8290383841796</v>
       </c>
       <c r="H41" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>75.51289573918991</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>166.4327975146757</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>107.2318695648853</v>
+        <v>86.25410903988991</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.7888679057181</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>156.8428616151617</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.4202570103727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.3735193872588</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>183.6302434286442</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1071.699752067412</v>
+        <v>769.4124242796902</v>
       </c>
       <c r="C11" t="n">
-        <v>825.711670110278</v>
+        <v>769.4124242796902</v>
       </c>
       <c r="D11" t="n">
-        <v>467.4459715035275</v>
+        <v>769.4124242796902</v>
       </c>
       <c r="E11" t="n">
-        <v>467.4459715035275</v>
+        <v>769.4124242796902</v>
       </c>
       <c r="F11" t="n">
-        <v>467.4459715035275</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="G11" t="n">
-        <v>51.45704384274001</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="H11" t="n">
         <v>51.45704384274001</v>
@@ -5041,28 +5041,28 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J11" t="n">
-        <v>164.0992112610952</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K11" t="n">
-        <v>383.6591389975516</v>
+        <v>551.0647880179043</v>
       </c>
       <c r="L11" t="n">
-        <v>778.4523912259718</v>
+        <v>860.3500550497935</v>
       </c>
       <c r="M11" t="n">
-        <v>1415.23330877988</v>
+        <v>1236.158944957898</v>
       </c>
       <c r="N11" t="n">
-        <v>1801.736987801629</v>
+        <v>1622.662623979647</v>
       </c>
       <c r="O11" t="n">
-        <v>2153.366190700428</v>
+        <v>1974.291826878447</v>
       </c>
       <c r="P11" t="n">
-        <v>2418.972579286472</v>
+        <v>2239.89821546449</v>
       </c>
       <c r="Q11" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R11" t="n">
         <v>2572.852192137001</v>
@@ -5071,22 +5071,22 @@
         <v>2441.677292501044</v>
       </c>
       <c r="T11" t="n">
-        <v>2441.677292501044</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="U11" t="n">
-        <v>2188.073497574418</v>
+        <v>1978.083869677071</v>
       </c>
       <c r="V11" t="n">
-        <v>2188.073497574418</v>
+        <v>1647.0209823335</v>
       </c>
       <c r="W11" t="n">
-        <v>1835.304842304304</v>
+        <v>1294.252327063386</v>
       </c>
       <c r="X11" t="n">
-        <v>1461.839084043224</v>
+        <v>920.7865688023064</v>
       </c>
       <c r="Y11" t="n">
-        <v>1071.699752067412</v>
+        <v>769.4124242796902</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>172.3569989104732</v>
       </c>
       <c r="H12" t="n">
-        <v>77.11927188230874</v>
+        <v>77.11927188230867</v>
       </c>
       <c r="I12" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J12" t="n">
-        <v>224.5582251110245</v>
+        <v>166.6886543532072</v>
       </c>
       <c r="K12" t="n">
-        <v>647.0365581638332</v>
+        <v>327.346402763563</v>
       </c>
       <c r="L12" t="n">
-        <v>909.3832684542964</v>
+        <v>956.8250549044506</v>
       </c>
       <c r="M12" t="n">
-        <v>1234.886373440624</v>
+        <v>1282.328159890778</v>
       </c>
       <c r="N12" t="n">
-        <v>1738.156634512169</v>
+        <v>1630.855008417122</v>
       </c>
       <c r="O12" t="n">
-        <v>2034.770815468363</v>
+        <v>1927.469189373317</v>
       </c>
       <c r="P12" t="n">
-        <v>2253.496779410548</v>
+        <v>2461.473294269038</v>
       </c>
       <c r="Q12" t="n">
         <v>2557.766612314665</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.2600849230435</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="C13" t="n">
-        <v>346.2600849230435</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="D13" t="n">
-        <v>346.2600849230435</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="E13" t="n">
-        <v>198.3469913406504</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="F13" t="n">
         <v>51.45704384274001</v>
@@ -5199,25 +5199,25 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J13" t="n">
-        <v>68.09327731914516</v>
+        <v>68.09327731914513</v>
       </c>
       <c r="K13" t="n">
-        <v>225.2685560834544</v>
+        <v>225.2685560834543</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9252339502282</v>
+        <v>481.9252339502279</v>
       </c>
       <c r="M13" t="n">
-        <v>762.9228379336198</v>
+        <v>762.9228379336195</v>
       </c>
       <c r="N13" t="n">
         <v>1042.673563376666</v>
       </c>
       <c r="O13" t="n">
-        <v>1285.052341775824</v>
+        <v>1285.052341775823</v>
       </c>
       <c r="P13" t="n">
-        <v>1468.928576695283</v>
+        <v>1468.928576695282</v>
       </c>
       <c r="Q13" t="n">
         <v>1512.799870543881</v>
@@ -5226,25 +5226,25 @@
         <v>1512.799870543881</v>
       </c>
       <c r="S13" t="n">
-        <v>1373.584675526357</v>
+        <v>1336.196678224047</v>
       </c>
       <c r="T13" t="n">
-        <v>1373.584675526357</v>
+        <v>1112.67354350841</v>
       </c>
       <c r="U13" t="n">
-        <v>1084.459385001551</v>
+        <v>823.5482529836048</v>
       </c>
       <c r="V13" t="n">
-        <v>1084.459385001551</v>
+        <v>568.863764777718</v>
       </c>
       <c r="W13" t="n">
-        <v>795.0422149645909</v>
+        <v>279.4465947407573</v>
       </c>
       <c r="X13" t="n">
-        <v>567.0526640665736</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="Y13" t="n">
-        <v>346.2600849230435</v>
+        <v>51.45704384274001</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1593.01398367918</v>
+        <v>1571.189604538722</v>
       </c>
       <c r="C14" t="n">
-        <v>1224.051466738769</v>
+        <v>1571.189604538722</v>
       </c>
       <c r="D14" t="n">
-        <v>1224.051466738769</v>
+        <v>1571.189604538722</v>
       </c>
       <c r="E14" t="n">
-        <v>838.2632141405243</v>
+        <v>1185.401351940478</v>
       </c>
       <c r="F14" t="n">
-        <v>544.7753693057944</v>
+        <v>774.4154471508701</v>
       </c>
       <c r="G14" t="n">
-        <v>128.7864416450069</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="H14" t="n">
-        <v>128.7864416450069</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I14" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J14" t="n">
-        <v>164.0992112610952</v>
+        <v>164.0992112610951</v>
       </c>
       <c r="K14" t="n">
-        <v>704.5630974430047</v>
+        <v>383.6591389975513</v>
       </c>
       <c r="L14" t="n">
-        <v>1013.848364474894</v>
+        <v>764.1733224442166</v>
       </c>
       <c r="M14" t="n">
-        <v>1389.657254382999</v>
+        <v>1139.982212352322</v>
       </c>
       <c r="N14" t="n">
-        <v>1776.160933404748</v>
+        <v>1526.48589137407</v>
       </c>
       <c r="O14" t="n">
-        <v>2127.790136303548</v>
+        <v>1878.11509427287</v>
       </c>
       <c r="P14" t="n">
-        <v>2393.396524889592</v>
+        <v>2143.721482858914</v>
       </c>
       <c r="Q14" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R14" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S14" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="T14" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="U14" t="n">
-        <v>2319.248397210374</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="V14" t="n">
-        <v>2319.248397210374</v>
+        <v>1957.789444602844</v>
       </c>
       <c r="W14" t="n">
-        <v>1966.47974194026</v>
+        <v>1957.789444602844</v>
       </c>
       <c r="X14" t="n">
-        <v>1593.01398367918</v>
+        <v>1957.789444602844</v>
       </c>
       <c r="Y14" t="n">
-        <v>1593.01398367918</v>
+        <v>1957.789444602844</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>763.9168804133423</v>
       </c>
       <c r="D15" t="n">
-        <v>614.982470752091</v>
+        <v>614.9824707520911</v>
       </c>
       <c r="E15" t="n">
         <v>455.7450157466355</v>
       </c>
       <c r="F15" t="n">
-        <v>309.2104577735205</v>
+        <v>309.2104577735206</v>
       </c>
       <c r="G15" t="n">
         <v>172.3569989104732</v>
       </c>
       <c r="H15" t="n">
-        <v>77.11927188230867</v>
+        <v>77.11927188230874</v>
       </c>
       <c r="I15" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J15" t="n">
-        <v>224.5582251110245</v>
+        <v>224.5582251110244</v>
       </c>
       <c r="K15" t="n">
-        <v>647.0365581638332</v>
+        <v>647.036558163833</v>
       </c>
       <c r="L15" t="n">
-        <v>909.3832684542964</v>
+        <v>909.3832684542961</v>
       </c>
       <c r="M15" t="n">
-        <v>1404.71536580816</v>
+        <v>1234.886373440623</v>
       </c>
       <c r="N15" t="n">
-        <v>1753.242214334505</v>
+        <v>1583.413221966968</v>
       </c>
       <c r="O15" t="n">
-        <v>2049.856395290699</v>
+        <v>1880.027402923162</v>
       </c>
       <c r="P15" t="n">
-        <v>2268.582359232883</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q15" t="n">
-        <v>2572.852192137001</v>
+        <v>2557.766612314665</v>
       </c>
       <c r="R15" t="n">
         <v>2572.852192137001</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>774.179244348035</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="C16" t="n">
-        <v>774.179244348035</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="D16" t="n">
-        <v>624.0626049356993</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="E16" t="n">
-        <v>476.1495113533061</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="F16" t="n">
-        <v>329.2595638553958</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="G16" t="n">
-        <v>161.145626971885</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H16" t="n">
-        <v>161.145626971885</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I16" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J16" t="n">
-        <v>68.09327731914516</v>
+        <v>68.09327731914513</v>
       </c>
       <c r="K16" t="n">
-        <v>225.2685560834544</v>
+        <v>225.2685560834543</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9252339502282</v>
+        <v>481.9252339502279</v>
       </c>
       <c r="M16" t="n">
-        <v>762.9228379336198</v>
+        <v>762.9228379336195</v>
       </c>
       <c r="N16" t="n">
         <v>1042.673563376666</v>
       </c>
       <c r="O16" t="n">
-        <v>1285.052341775824</v>
+        <v>1285.052341775823</v>
       </c>
       <c r="P16" t="n">
-        <v>1468.928576695283</v>
+        <v>1468.928576695282</v>
       </c>
       <c r="Q16" t="n">
         <v>1512.799870543881</v>
       </c>
       <c r="R16" t="n">
-        <v>1404.484850781371</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S16" t="n">
-        <v>1404.484850781371</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="T16" t="n">
-        <v>1180.961716065733</v>
+        <v>1090.426495336648</v>
       </c>
       <c r="U16" t="n">
-        <v>1180.961716065733</v>
+        <v>801.3012048118427</v>
       </c>
       <c r="V16" t="n">
-        <v>1180.961716065733</v>
+        <v>546.6167166059558</v>
       </c>
       <c r="W16" t="n">
-        <v>891.5445460287726</v>
+        <v>279.4465947407573</v>
       </c>
       <c r="X16" t="n">
-        <v>774.179244348035</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="Y16" t="n">
-        <v>774.179244348035</v>
+        <v>51.45704384274001</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1722.658929248905</v>
+        <v>1422.647261835987</v>
       </c>
       <c r="C17" t="n">
-        <v>1648.519002340989</v>
+        <v>1053.684744895576</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.519002340989</v>
+        <v>695.4190462888253</v>
       </c>
       <c r="E17" t="n">
-        <v>1262.730749742745</v>
+        <v>695.4190462888253</v>
       </c>
       <c r="F17" t="n">
-        <v>851.744844953137</v>
+        <v>695.4190462888253</v>
       </c>
       <c r="G17" t="n">
-        <v>435.7559172923495</v>
+        <v>279.4301186280378</v>
       </c>
       <c r="H17" t="n">
-        <v>128.7864416450069</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I17" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J17" t="n">
-        <v>164.0992112610952</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K17" t="n">
-        <v>383.6591389975516</v>
+        <v>665.0798961656333</v>
       </c>
       <c r="L17" t="n">
-        <v>692.9444060294409</v>
+        <v>974.3651631975224</v>
       </c>
       <c r="M17" t="n">
-        <v>1068.753295937546</v>
+        <v>1350.174053105627</v>
       </c>
       <c r="N17" t="n">
-        <v>1516.585273146521</v>
+        <v>1736.677732127376</v>
       </c>
       <c r="O17" t="n">
-        <v>2153.366190700428</v>
+        <v>2088.306935026176</v>
       </c>
       <c r="P17" t="n">
-        <v>2418.972579286472</v>
+        <v>2353.913323612219</v>
       </c>
       <c r="Q17" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R17" t="n">
         <v>2572.852192137001</v>
@@ -5545,22 +5545,22 @@
         <v>2572.852192137001</v>
       </c>
       <c r="T17" t="n">
-        <v>2362.862564239654</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U17" t="n">
-        <v>2109.258769313027</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="V17" t="n">
-        <v>2109.258769313027</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="W17" t="n">
-        <v>2109.258769313027</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="X17" t="n">
-        <v>2109.258769313027</v>
+        <v>2199.386433875921</v>
       </c>
       <c r="Y17" t="n">
-        <v>2109.258769313027</v>
+        <v>1809.247101900109</v>
       </c>
     </row>
     <row r="18">
@@ -5570,58 +5570,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>938.3699096944688</v>
+        <v>938.3699096944694</v>
       </c>
       <c r="C18" t="n">
-        <v>763.9168804133418</v>
+        <v>763.9168804133424</v>
       </c>
       <c r="D18" t="n">
-        <v>614.9824707520906</v>
+        <v>614.9824707520911</v>
       </c>
       <c r="E18" t="n">
-        <v>455.7450157466351</v>
+        <v>455.7450157466357</v>
       </c>
       <c r="F18" t="n">
-        <v>309.2104577735201</v>
+        <v>309.2104577735206</v>
       </c>
       <c r="G18" t="n">
-        <v>172.3569989104731</v>
+        <v>172.3569989104732</v>
       </c>
       <c r="H18" t="n">
-        <v>77.11927188230857</v>
+        <v>77.11927188230874</v>
       </c>
       <c r="I18" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J18" t="n">
-        <v>99.72810012401975</v>
+        <v>224.5582251110244</v>
       </c>
       <c r="K18" t="n">
-        <v>260.3858485343756</v>
+        <v>647.036558163833</v>
       </c>
       <c r="L18" t="n">
-        <v>889.8645006752633</v>
+        <v>909.3832684542961</v>
       </c>
       <c r="M18" t="n">
-        <v>1215.36760566159</v>
+        <v>1234.886373440623</v>
       </c>
       <c r="N18" t="n">
-        <v>1563.894454187935</v>
+        <v>1583.413221966968</v>
       </c>
       <c r="O18" t="n">
-        <v>2200.675371741843</v>
+        <v>1880.027402923162</v>
       </c>
       <c r="P18" t="n">
-        <v>2476.558874091374</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q18" t="n">
-        <v>2572.852192137001</v>
+        <v>2557.766612314665</v>
       </c>
       <c r="R18" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.306107928098</v>
+        <v>2434.306107928099</v>
       </c>
       <c r="T18" t="n">
         <v>2239.686617951057</v>
@@ -5630,7 +5630,7 @@
         <v>2011.586510644968</v>
       </c>
       <c r="V18" t="n">
-        <v>1776.434402413225</v>
+        <v>1776.434402413226</v>
       </c>
       <c r="W18" t="n">
         <v>1522.197045685024</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>217.2172381877604</v>
+        <v>386.9598770892137</v>
       </c>
       <c r="C19" t="n">
-        <v>217.2172381877604</v>
+        <v>386.9598770892137</v>
       </c>
       <c r="D19" t="n">
-        <v>67.10059877542471</v>
+        <v>236.843237676878</v>
       </c>
       <c r="E19" t="n">
-        <v>67.10059877542471</v>
+        <v>236.843237676878</v>
       </c>
       <c r="F19" t="n">
-        <v>67.10059877542471</v>
+        <v>89.95329017896762</v>
       </c>
       <c r="G19" t="n">
-        <v>51.45704384274001</v>
+        <v>89.95329017896762</v>
       </c>
       <c r="H19" t="n">
-        <v>51.45704384274001</v>
+        <v>89.95329017896762</v>
       </c>
       <c r="I19" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J19" t="n">
-        <v>68.09327731914516</v>
+        <v>68.09327731914513</v>
       </c>
       <c r="K19" t="n">
-        <v>225.2685560834544</v>
+        <v>225.2685560834543</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9252339502282</v>
+        <v>481.9252339502279</v>
       </c>
       <c r="M19" t="n">
-        <v>762.9228379336198</v>
+        <v>762.9228379336195</v>
       </c>
       <c r="N19" t="n">
         <v>1042.673563376666</v>
       </c>
       <c r="O19" t="n">
-        <v>1285.052341775824</v>
+        <v>1285.052341775823</v>
       </c>
       <c r="P19" t="n">
-        <v>1468.928576695283</v>
+        <v>1468.928576695282</v>
       </c>
       <c r="Q19" t="n">
         <v>1512.799870543881</v>
       </c>
       <c r="R19" t="n">
-        <v>1404.484850781371</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S19" t="n">
-        <v>1205.634610289775</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="T19" t="n">
-        <v>982.111475574138</v>
+        <v>1090.426495336648</v>
       </c>
       <c r="U19" t="n">
-        <v>982.111475574138</v>
+        <v>1090.426495336648</v>
       </c>
       <c r="V19" t="n">
-        <v>727.4269873682512</v>
+        <v>835.7420071307612</v>
       </c>
       <c r="W19" t="n">
-        <v>438.0098173312905</v>
+        <v>835.7420071307612</v>
       </c>
       <c r="X19" t="n">
-        <v>438.0098173312905</v>
+        <v>607.7524562327438</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.2172381877604</v>
+        <v>386.9598770892137</v>
       </c>
     </row>
     <row r="20">
@@ -5752,49 +5752,49 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J20" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K20" t="n">
-        <v>383.6591389975515</v>
+        <v>551.0647880179043</v>
       </c>
       <c r="L20" t="n">
-        <v>692.9444060294406</v>
+        <v>860.3500550497935</v>
       </c>
       <c r="M20" t="n">
-        <v>1068.753295937546</v>
+        <v>1236.158944957898</v>
       </c>
       <c r="N20" t="n">
-        <v>1455.256974959294</v>
+        <v>1622.662623979647</v>
       </c>
       <c r="O20" t="n">
-        <v>1806.886177858094</v>
+        <v>1974.291826878447</v>
       </c>
       <c r="P20" t="n">
-        <v>2391.073287533906</v>
+        <v>2239.89821546449</v>
       </c>
       <c r="Q20" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R20" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S20" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="T20" t="n">
-        <v>2362.862564239654</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.258769313027</v>
+        <v>1978.083869677071</v>
       </c>
       <c r="V20" t="n">
-        <v>2109.258769313027</v>
+        <v>1962.140523980411</v>
       </c>
       <c r="W20" t="n">
-        <v>1756.490114042913</v>
+        <v>1962.140523980411</v>
       </c>
       <c r="X20" t="n">
-        <v>1756.490114042913</v>
+        <v>1962.140523980411</v>
       </c>
       <c r="Y20" t="n">
         <v>1572.001192004599</v>
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>938.3699096944692</v>
+        <v>938.3699096944695</v>
       </c>
       <c r="C21" t="n">
-        <v>763.9168804133423</v>
+        <v>763.9168804133425</v>
       </c>
       <c r="D21" t="n">
         <v>614.9824707520911</v>
@@ -5831,28 +5831,28 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J21" t="n">
-        <v>99.72810012401972</v>
+        <v>224.5582251110244</v>
       </c>
       <c r="K21" t="n">
-        <v>260.3858485343756</v>
+        <v>647.036558163833</v>
       </c>
       <c r="L21" t="n">
-        <v>763.9341198682953</v>
+        <v>1064.126680999498</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.437224854622</v>
+        <v>1389.629785985825</v>
       </c>
       <c r="N21" t="n">
-        <v>1437.964073380967</v>
+        <v>1738.15663451217</v>
       </c>
       <c r="O21" t="n">
-        <v>1734.578254337162</v>
+        <v>2034.770815468364</v>
       </c>
       <c r="P21" t="n">
-        <v>2268.582359232883</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q21" t="n">
-        <v>2572.852192137001</v>
+        <v>2557.766612314665</v>
       </c>
       <c r="R21" t="n">
         <v>2572.852192137001</v>
@@ -5876,7 +5876,7 @@
         <v>1314.345545479491</v>
       </c>
       <c r="Y21" t="n">
-        <v>1106.585246714537</v>
+        <v>1106.585246714538</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>771.3237003374758</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="C22" t="n">
-        <v>602.3875174095689</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="D22" t="n">
-        <v>452.2708779972331</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="E22" t="n">
-        <v>452.2708779972331</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="F22" t="n">
-        <v>305.3809304993227</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="G22" t="n">
-        <v>201.329285648052</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H22" t="n">
         <v>51.45704384274001</v>
@@ -5910,16 +5910,16 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J22" t="n">
-        <v>68.09327731914514</v>
+        <v>68.09327731914513</v>
       </c>
       <c r="K22" t="n">
         <v>225.2685560834543</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502279</v>
       </c>
       <c r="M22" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336195</v>
       </c>
       <c r="N22" t="n">
         <v>1042.673563376666</v>
@@ -5934,28 +5934,28 @@
         <v>1512.799870543881</v>
       </c>
       <c r="R22" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S22" t="n">
-        <v>1404.48485078137</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="T22" t="n">
-        <v>1180.961716065733</v>
+        <v>1112.67354350841</v>
       </c>
       <c r="U22" t="n">
-        <v>1180.961716065733</v>
+        <v>823.5482529836048</v>
       </c>
       <c r="V22" t="n">
-        <v>1180.961716065733</v>
+        <v>568.863764777718</v>
       </c>
       <c r="W22" t="n">
-        <v>1180.961716065733</v>
+        <v>279.4465947407573</v>
       </c>
       <c r="X22" t="n">
-        <v>952.9721651677155</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="Y22" t="n">
-        <v>952.9721651677155</v>
+        <v>51.45704384274001</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2421.29211219684</v>
+        <v>2421.292112196841</v>
       </c>
       <c r="C23" t="n">
         <v>2052.329595256429</v>
       </c>
       <c r="D23" t="n">
-        <v>1694.063896649679</v>
+        <v>1694.063896649678</v>
       </c>
       <c r="E23" t="n">
         <v>1308.275644051434</v>
       </c>
       <c r="F23" t="n">
-        <v>897.289739261827</v>
+        <v>897.2897392618264</v>
       </c>
       <c r="G23" t="n">
-        <v>481.3008116010389</v>
+        <v>481.300811601039</v>
       </c>
       <c r="H23" t="n">
         <v>174.3313359536963</v>
@@ -5992,40 +5992,40 @@
         <v>377.0497545901375</v>
       </c>
       <c r="K23" t="n">
-        <v>917.513640772047</v>
+        <v>917.5136407720469</v>
       </c>
       <c r="L23" t="n">
-        <v>1532.912539687284</v>
+        <v>1640.283510208882</v>
       </c>
       <c r="M23" t="n">
-        <v>2353.739827753293</v>
+        <v>2288.680572079041</v>
       </c>
       <c r="N23" t="n">
-        <v>3173.216961942906</v>
+        <v>3108.157706268654</v>
       </c>
       <c r="O23" t="n">
-        <v>3901.838344291824</v>
+        <v>3836.779088617572</v>
       </c>
       <c r="P23" t="n">
-        <v>4486.025453967635</v>
+        <v>4420.966198293383</v>
       </c>
       <c r="Q23" t="n">
-        <v>4847.503884502926</v>
+        <v>4782.444628828674</v>
       </c>
       <c r="R23" t="n">
         <v>4850.096907571469</v>
       </c>
       <c r="S23" t="n">
-        <v>4718.922007935513</v>
+        <v>4718.922007935514</v>
       </c>
       <c r="T23" t="n">
-        <v>4508.932380038165</v>
+        <v>4508.932380038166</v>
       </c>
       <c r="U23" t="n">
-        <v>4255.328585111539</v>
+        <v>4255.32858511154</v>
       </c>
       <c r="V23" t="n">
-        <v>3924.265697767968</v>
+        <v>3924.265697767969</v>
       </c>
       <c r="W23" t="n">
         <v>3571.497042497854</v>
@@ -6034,7 +6034,7 @@
         <v>3198.031284236774</v>
       </c>
       <c r="Y23" t="n">
-        <v>2807.891952260962</v>
+        <v>2807.891952260963</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3215.614625128937</v>
+        <v>983.9148040031588</v>
       </c>
       <c r="C24" t="n">
-        <v>3041.161595847811</v>
+        <v>809.4617747220318</v>
       </c>
       <c r="D24" t="n">
-        <v>2892.227186186559</v>
+        <v>660.5273650607805</v>
       </c>
       <c r="E24" t="n">
-        <v>2732.989731181104</v>
+        <v>501.289910055325</v>
       </c>
       <c r="F24" t="n">
-        <v>2586.455173207989</v>
+        <v>354.7553520822099</v>
       </c>
       <c r="G24" t="n">
-        <v>2449.601714344941</v>
+        <v>217.9018932191626</v>
       </c>
       <c r="H24" t="n">
-        <v>2354.363987316777</v>
+        <v>122.6641661909981</v>
       </c>
       <c r="I24" t="n">
-        <v>2328.701759277208</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="J24" t="n">
-        <v>2501.802940545493</v>
+        <v>145.2729944327091</v>
       </c>
       <c r="K24" t="n">
-        <v>2662.460688955849</v>
+        <v>567.7513274855177</v>
       </c>
       <c r="L24" t="n">
-        <v>2924.807399246312</v>
+        <v>830.0980377759807</v>
       </c>
       <c r="M24" t="n">
-        <v>3711.358517345139</v>
+        <v>1155.601142762308</v>
       </c>
       <c r="N24" t="n">
-        <v>4238.463444627464</v>
+        <v>1504.127991288653</v>
       </c>
       <c r="O24" t="n">
-        <v>4535.077625583658</v>
+        <v>1800.742172244847</v>
       </c>
       <c r="P24" t="n">
-        <v>4753.803589525843</v>
+        <v>2334.746277140569</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.096907571469</v>
+        <v>2618.39708644569</v>
       </c>
       <c r="R24" t="n">
-        <v>4850.096907571469</v>
+        <v>2618.39708644569</v>
       </c>
       <c r="S24" t="n">
-        <v>4711.550823362567</v>
+        <v>2479.851002236788</v>
       </c>
       <c r="T24" t="n">
-        <v>4516.931333385525</v>
+        <v>2285.231512259747</v>
       </c>
       <c r="U24" t="n">
-        <v>4288.831226079436</v>
+        <v>2057.131404953658</v>
       </c>
       <c r="V24" t="n">
-        <v>4053.679117847694</v>
+        <v>1821.979296721915</v>
       </c>
       <c r="W24" t="n">
-        <v>3799.441761119492</v>
+        <v>1567.741939993713</v>
       </c>
       <c r="X24" t="n">
-        <v>3591.590260913959</v>
+        <v>1359.890439788181</v>
       </c>
       <c r="Y24" t="n">
-        <v>3383.829962149005</v>
+        <v>1152.130141023227</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3916.967468627956</v>
+        <v>580.9420054607574</v>
       </c>
       <c r="C25" t="n">
-        <v>3748.031285700049</v>
+        <v>412.0058225328505</v>
       </c>
       <c r="D25" t="n">
-        <v>3597.914646287714</v>
+        <v>412.0058225328505</v>
       </c>
       <c r="E25" t="n">
-        <v>3597.914646287714</v>
+        <v>412.0058225328505</v>
       </c>
       <c r="F25" t="n">
-        <v>3451.024698789804</v>
+        <v>265.1158750349401</v>
       </c>
       <c r="G25" t="n">
-        <v>3388.754080870328</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="H25" t="n">
-        <v>3388.754080870328</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="I25" t="n">
-        <v>3388.754080870328</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="J25" t="n">
-        <v>3405.390314346734</v>
+        <v>113.6381716278345</v>
       </c>
       <c r="K25" t="n">
-        <v>3562.565593111043</v>
+        <v>270.8134503921436</v>
       </c>
       <c r="L25" t="n">
-        <v>3819.222270977817</v>
+        <v>527.4701282589174</v>
       </c>
       <c r="M25" t="n">
-        <v>4100.219874961208</v>
+        <v>808.4677322423089</v>
       </c>
       <c r="N25" t="n">
-        <v>4379.970600404255</v>
+        <v>1088.218457685355</v>
       </c>
       <c r="O25" t="n">
-        <v>4622.349378803412</v>
+        <v>1330.597236084513</v>
       </c>
       <c r="P25" t="n">
-        <v>4806.225613722871</v>
+        <v>1514.473471003972</v>
       </c>
       <c r="Q25" t="n">
-        <v>4850.096907571469</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="R25" t="n">
-        <v>4741.781887808959</v>
+        <v>1450.02974509006</v>
       </c>
       <c r="S25" t="n">
-        <v>4542.931647317364</v>
+        <v>1251.179504598464</v>
       </c>
       <c r="T25" t="n">
-        <v>4319.408512601726</v>
+        <v>1027.656369882827</v>
       </c>
       <c r="U25" t="n">
-        <v>4319.408512601726</v>
+        <v>738.5310793580217</v>
       </c>
       <c r="V25" t="n">
-        <v>4319.408512601726</v>
+        <v>738.5310793580217</v>
       </c>
       <c r="W25" t="n">
-        <v>4319.408512601726</v>
+        <v>738.5310793580217</v>
       </c>
       <c r="X25" t="n">
-        <v>4319.408512601726</v>
+        <v>738.5310793580217</v>
       </c>
       <c r="Y25" t="n">
-        <v>4098.615933458196</v>
+        <v>738.5310793580217</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2421.29211219684</v>
+        <v>2421.292112196841</v>
       </c>
       <c r="C26" t="n">
         <v>2052.329595256429</v>
       </c>
       <c r="D26" t="n">
-        <v>1694.063896649679</v>
+        <v>1694.063896649678</v>
       </c>
       <c r="E26" t="n">
         <v>1308.275644051434</v>
       </c>
       <c r="F26" t="n">
-        <v>897.289739261827</v>
+        <v>897.2897392618264</v>
       </c>
       <c r="G26" t="n">
-        <v>481.3008116010396</v>
+        <v>481.300811601039</v>
       </c>
       <c r="H26" t="n">
         <v>174.3313359536963</v>
@@ -6226,28 +6226,28 @@
         <v>97.00193815142939</v>
       </c>
       <c r="J26" t="n">
-        <v>209.6441055697845</v>
+        <v>377.0497545901375</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1079917516938</v>
+        <v>917.5136407720469</v>
       </c>
       <c r="L26" t="n">
-        <v>1472.877861188529</v>
+        <v>1640.283510208882</v>
       </c>
       <c r="M26" t="n">
-        <v>2293.705149254538</v>
+        <v>2461.110798274891</v>
       </c>
       <c r="N26" t="n">
-        <v>3113.182283444151</v>
+        <v>3280.587932464504</v>
       </c>
       <c r="O26" t="n">
-        <v>3836.779088617572</v>
+        <v>3901.838344291824</v>
       </c>
       <c r="P26" t="n">
-        <v>4420.966198293383</v>
+        <v>4486.025453967635</v>
       </c>
       <c r="Q26" t="n">
-        <v>4782.444628828674</v>
+        <v>4847.503884502926</v>
       </c>
       <c r="R26" t="n">
         <v>4850.096907571469</v>
@@ -6262,7 +6262,7 @@
         <v>4255.328585111539</v>
       </c>
       <c r="V26" t="n">
-        <v>3924.265697767968</v>
+        <v>3924.265697767969</v>
       </c>
       <c r="W26" t="n">
         <v>3571.497042497854</v>
@@ -6271,7 +6271,7 @@
         <v>3198.031284236774</v>
       </c>
       <c r="Y26" t="n">
-        <v>2807.891952260962</v>
+        <v>2807.891952260963</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>270.1031194197138</v>
       </c>
       <c r="K27" t="n">
-        <v>430.7608678300696</v>
+        <v>692.5814524725224</v>
       </c>
       <c r="L27" t="n">
-        <v>809.4790141769847</v>
+        <v>1109.671575308187</v>
       </c>
       <c r="M27" t="n">
-        <v>1134.982119163312</v>
+        <v>1435.174680294514</v>
       </c>
       <c r="N27" t="n">
-        <v>1483.508967689657</v>
+        <v>1783.701528820859</v>
       </c>
       <c r="O27" t="n">
-        <v>1780.123148645851</v>
+        <v>2080.315709777053</v>
       </c>
       <c r="P27" t="n">
-        <v>2314.127253541573</v>
+        <v>2299.041673719237</v>
       </c>
       <c r="Q27" t="n">
-        <v>2618.39708644569</v>
+        <v>2603.311506623354</v>
       </c>
       <c r="R27" t="n">
         <v>2618.39708644569</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>273.6051304712625</v>
+        <v>276.3356860433697</v>
       </c>
       <c r="C28" t="n">
-        <v>104.6689475433556</v>
+        <v>276.3356860433697</v>
       </c>
       <c r="D28" t="n">
-        <v>104.6689475433556</v>
+        <v>126.219046631034</v>
       </c>
       <c r="E28" t="n">
-        <v>104.6689475433556</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="F28" t="n">
-        <v>104.6689475433556</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="G28" t="n">
         <v>97.00193815142939</v>
@@ -6387,13 +6387,13 @@
         <v>113.6381716278345</v>
       </c>
       <c r="K28" t="n">
-        <v>270.8134503921437</v>
+        <v>270.8134503921436</v>
       </c>
       <c r="L28" t="n">
         <v>527.4701282589174</v>
       </c>
       <c r="M28" t="n">
-        <v>808.467732242309</v>
+        <v>808.4677322423089</v>
       </c>
       <c r="N28" t="n">
         <v>1088.218457685355</v>
@@ -6414,22 +6414,22 @@
         <v>1558.34476485257</v>
       </c>
       <c r="T28" t="n">
-        <v>1334.821630136933</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="U28" t="n">
-        <v>1045.696339612127</v>
+        <v>1269.219474327765</v>
       </c>
       <c r="V28" t="n">
-        <v>791.0118514062405</v>
+        <v>1014.534986121878</v>
       </c>
       <c r="W28" t="n">
-        <v>501.5946813692798</v>
+        <v>725.1178160849172</v>
       </c>
       <c r="X28" t="n">
-        <v>273.6051304712625</v>
+        <v>497.1282651868999</v>
       </c>
       <c r="Y28" t="n">
-        <v>273.6051304712625</v>
+        <v>276.3356860433697</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>2052.329595256429</v>
       </c>
       <c r="D29" t="n">
-        <v>1694.063896649679</v>
+        <v>1694.063896649678</v>
       </c>
       <c r="E29" t="n">
         <v>1308.275644051434</v>
       </c>
       <c r="F29" t="n">
-        <v>897.289739261827</v>
+        <v>897.2897392618264</v>
       </c>
       <c r="G29" t="n">
-        <v>481.3008116010396</v>
+        <v>481.300811601039</v>
       </c>
       <c r="H29" t="n">
         <v>174.3313359536963</v>
@@ -6463,28 +6463,28 @@
         <v>97.00193815142939</v>
       </c>
       <c r="J29" t="n">
-        <v>377.0497545901375</v>
+        <v>269.6787840685399</v>
       </c>
       <c r="K29" t="n">
-        <v>917.513640772047</v>
+        <v>810.1426702504493</v>
       </c>
       <c r="L29" t="n">
-        <v>1640.283510208882</v>
+        <v>1532.912539687284</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.110798274891</v>
+        <v>2353.739827753293</v>
       </c>
       <c r="N29" t="n">
-        <v>3280.587932464504</v>
+        <v>3173.216961942906</v>
       </c>
       <c r="O29" t="n">
-        <v>4009.209314813422</v>
+        <v>3901.838344291824</v>
       </c>
       <c r="P29" t="n">
-        <v>4593.396424489233</v>
+        <v>4486.025453967635</v>
       </c>
       <c r="Q29" t="n">
-        <v>4782.444628828674</v>
+        <v>4847.503884502926</v>
       </c>
       <c r="R29" t="n">
         <v>4850.096907571469</v>
@@ -6542,28 +6542,28 @@
         <v>97.00193815142939</v>
       </c>
       <c r="J30" t="n">
-        <v>145.2729944327091</v>
+        <v>270.1031194197138</v>
       </c>
       <c r="K30" t="n">
-        <v>305.9307428430649</v>
+        <v>692.5814524725224</v>
       </c>
       <c r="L30" t="n">
-        <v>568.2774531335281</v>
+        <v>954.9281627629855</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.313078891378</v>
+        <v>1280.431267749313</v>
       </c>
       <c r="N30" t="n">
-        <v>1616.839927417723</v>
+        <v>1628.958116275657</v>
       </c>
       <c r="O30" t="n">
-        <v>2303.377804457879</v>
+        <v>1925.572297231852</v>
       </c>
       <c r="P30" t="n">
-        <v>2522.103768400063</v>
+        <v>2299.041673719237</v>
       </c>
       <c r="Q30" t="n">
-        <v>2618.39708644569</v>
+        <v>2603.311506623354</v>
       </c>
       <c r="R30" t="n">
         <v>2618.39708644569</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>544.9823307789228</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="C31" t="n">
-        <v>376.0461478510159</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="D31" t="n">
-        <v>225.9295084386802</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="E31" t="n">
-        <v>225.9295084386802</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="F31" t="n">
         <v>97.00193815142939</v>
@@ -6624,13 +6624,13 @@
         <v>113.6381716278345</v>
       </c>
       <c r="K31" t="n">
-        <v>270.8134503921437</v>
+        <v>270.8134503921436</v>
       </c>
       <c r="L31" t="n">
         <v>527.4701282589174</v>
       </c>
       <c r="M31" t="n">
-        <v>808.467732242309</v>
+        <v>808.4677322423089</v>
       </c>
       <c r="N31" t="n">
         <v>1088.218457685355</v>
@@ -6645,28 +6645,28 @@
         <v>1558.34476485257</v>
       </c>
       <c r="R31" t="n">
-        <v>1450.02974509006</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="S31" t="n">
-        <v>1251.179504598464</v>
+        <v>1381.741572532737</v>
       </c>
       <c r="T31" t="n">
-        <v>1027.656369882827</v>
+        <v>1158.2184378171</v>
       </c>
       <c r="U31" t="n">
-        <v>1027.656369882827</v>
+        <v>869.0931472922942</v>
       </c>
       <c r="V31" t="n">
-        <v>772.9718816769401</v>
+        <v>614.4086590864074</v>
       </c>
       <c r="W31" t="n">
-        <v>772.9718816769401</v>
+        <v>324.9914890494467</v>
       </c>
       <c r="X31" t="n">
-        <v>544.9823307789228</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="Y31" t="n">
-        <v>544.9823307789228</v>
+        <v>97.00193815142939</v>
       </c>
     </row>
     <row r="32">
@@ -6682,61 +6682,61 @@
         <v>2052.329595256429</v>
       </c>
       <c r="D32" t="n">
-        <v>1694.063896649679</v>
+        <v>1694.063896649678</v>
       </c>
       <c r="E32" t="n">
         <v>1308.275644051434</v>
       </c>
       <c r="F32" t="n">
-        <v>897.289739261827</v>
+        <v>897.2897392618264</v>
       </c>
       <c r="G32" t="n">
-        <v>481.3008116010396</v>
+        <v>481.300811601039</v>
       </c>
       <c r="H32" t="n">
-        <v>174.3313359536969</v>
+        <v>174.3313359536963</v>
       </c>
       <c r="I32" t="n">
-        <v>97.00193815142939</v>
+        <v>97.0019381514294</v>
       </c>
       <c r="J32" t="n">
-        <v>377.0497545901375</v>
+        <v>209.6441055697844</v>
       </c>
       <c r="K32" t="n">
-        <v>917.513640772047</v>
+        <v>750.1079917516938</v>
       </c>
       <c r="L32" t="n">
-        <v>1640.283510208882</v>
+        <v>1472.877861188529</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.110798274891</v>
+        <v>2293.705149254538</v>
       </c>
       <c r="N32" t="n">
-        <v>3280.587932464504</v>
+        <v>3108.157706268655</v>
       </c>
       <c r="O32" t="n">
-        <v>4009.209314813422</v>
+        <v>3836.779088617573</v>
       </c>
       <c r="P32" t="n">
-        <v>4420.966198293383</v>
+        <v>4420.966198293384</v>
       </c>
       <c r="Q32" t="n">
         <v>4782.444628828674</v>
       </c>
       <c r="R32" t="n">
-        <v>4850.096907571469</v>
+        <v>4850.09690757147</v>
       </c>
       <c r="S32" t="n">
-        <v>4718.922007935513</v>
+        <v>4718.922007935514</v>
       </c>
       <c r="T32" t="n">
-        <v>4508.932380038165</v>
+        <v>4508.932380038166</v>
       </c>
       <c r="U32" t="n">
-        <v>4255.328585111539</v>
+        <v>4255.32858511154</v>
       </c>
       <c r="V32" t="n">
-        <v>3924.265697767968</v>
+        <v>3924.265697767969</v>
       </c>
       <c r="W32" t="n">
         <v>3571.497042497854</v>
@@ -6776,31 +6776,31 @@
         <v>122.6641661909981</v>
       </c>
       <c r="I33" t="n">
-        <v>97.00193815142939</v>
+        <v>97.0019381514294</v>
       </c>
       <c r="J33" t="n">
-        <v>145.2729944327091</v>
+        <v>270.1031194197138</v>
       </c>
       <c r="K33" t="n">
-        <v>567.7513274855178</v>
+        <v>692.5814524725224</v>
       </c>
       <c r="L33" t="n">
-        <v>830.0980377759809</v>
+        <v>954.9281627629855</v>
       </c>
       <c r="M33" t="n">
-        <v>1155.601142762308</v>
+        <v>1280.431267749313</v>
       </c>
       <c r="N33" t="n">
-        <v>1504.127991288653</v>
+        <v>1628.958116275657</v>
       </c>
       <c r="O33" t="n">
-        <v>1800.742172244847</v>
+        <v>1925.572297231852</v>
       </c>
       <c r="P33" t="n">
-        <v>2334.746277140569</v>
+        <v>2299.041673719237</v>
       </c>
       <c r="Q33" t="n">
-        <v>2618.39708644569</v>
+        <v>2603.311506623354</v>
       </c>
       <c r="R33" t="n">
         <v>2618.39708644569</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.054760491672</v>
+        <v>501.4935623608778</v>
       </c>
       <c r="C34" t="n">
-        <v>247.1185775637651</v>
+        <v>501.4935623608778</v>
       </c>
       <c r="D34" t="n">
-        <v>97.00193815142939</v>
+        <v>501.4935623608778</v>
       </c>
       <c r="E34" t="n">
-        <v>97.00193815142939</v>
+        <v>353.5804687784847</v>
       </c>
       <c r="F34" t="n">
-        <v>97.00193815142939</v>
+        <v>206.6905212805744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.00193815142939</v>
+        <v>206.6905212805744</v>
       </c>
       <c r="H34" t="n">
-        <v>97.00193815142939</v>
+        <v>206.6905212805744</v>
       </c>
       <c r="I34" t="n">
-        <v>97.00193815142939</v>
+        <v>97.0019381514294</v>
       </c>
       <c r="J34" t="n">
         <v>113.6381716278345</v>
@@ -6867,7 +6867,7 @@
         <v>527.4701282589174</v>
       </c>
       <c r="M34" t="n">
-        <v>808.467732242309</v>
+        <v>808.4677322423089</v>
       </c>
       <c r="N34" t="n">
         <v>1088.218457685355</v>
@@ -6888,22 +6888,22 @@
         <v>1558.34476485257</v>
       </c>
       <c r="T34" t="n">
-        <v>1558.34476485257</v>
+        <v>1334.821630136933</v>
       </c>
       <c r="U34" t="n">
-        <v>1269.219474327765</v>
+        <v>1045.696339612127</v>
       </c>
       <c r="V34" t="n">
-        <v>1107.912974502402</v>
+        <v>791.0118514062405</v>
       </c>
       <c r="W34" t="n">
-        <v>818.4958044654419</v>
+        <v>729.4831132588952</v>
       </c>
       <c r="X34" t="n">
-        <v>818.4958044654419</v>
+        <v>501.4935623608778</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.7032253219118</v>
+        <v>501.4935623608778</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1051.961468438263</v>
+        <v>1633.182645831791</v>
       </c>
       <c r="C35" t="n">
-        <v>682.9989514978508</v>
+        <v>1264.220128891379</v>
       </c>
       <c r="D35" t="n">
-        <v>324.7332528911003</v>
+        <v>1264.220128891379</v>
       </c>
       <c r="E35" t="n">
-        <v>128.7864416450069</v>
+        <v>878.431876293135</v>
       </c>
       <c r="F35" t="n">
-        <v>128.7864416450069</v>
+        <v>467.4459715035275</v>
       </c>
       <c r="G35" t="n">
-        <v>128.7864416450069</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H35" t="n">
-        <v>128.7864416450069</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I35" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J35" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K35" t="n">
-        <v>383.6591389975515</v>
+        <v>665.0798961656333</v>
       </c>
       <c r="L35" t="n">
-        <v>754.2727042166669</v>
+        <v>974.3651631975224</v>
       </c>
       <c r="M35" t="n">
-        <v>1130.081594124772</v>
+        <v>1350.174053105627</v>
       </c>
       <c r="N35" t="n">
-        <v>1516.585273146521</v>
+        <v>1736.677732127376</v>
       </c>
       <c r="O35" t="n">
-        <v>2153.366190700428</v>
+        <v>2088.306935026176</v>
       </c>
       <c r="P35" t="n">
-        <v>2418.972579286472</v>
+        <v>2353.913323612219</v>
       </c>
       <c r="Q35" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R35" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S35" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="T35" t="n">
-        <v>2362.862564239654</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="U35" t="n">
-        <v>2109.258769313027</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="V35" t="n">
-        <v>1778.195881969456</v>
+        <v>2441.677292501044</v>
       </c>
       <c r="W35" t="n">
-        <v>1425.427226699342</v>
+        <v>2409.921817871725</v>
       </c>
       <c r="X35" t="n">
-        <v>1051.961468438263</v>
+        <v>2409.921817871725</v>
       </c>
       <c r="Y35" t="n">
-        <v>1051.961468438263</v>
+        <v>2019.782485895913</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>938.3699096944688</v>
+        <v>938.3699096944692</v>
       </c>
       <c r="C36" t="n">
-        <v>763.9168804133418</v>
+        <v>763.9168804133423</v>
       </c>
       <c r="D36" t="n">
-        <v>614.9824707520906</v>
+        <v>614.982470752091</v>
       </c>
       <c r="E36" t="n">
-        <v>455.7450157466351</v>
+        <v>455.7450157466355</v>
       </c>
       <c r="F36" t="n">
-        <v>309.2104577735201</v>
+        <v>309.2104577735205</v>
       </c>
       <c r="G36" t="n">
-        <v>172.3569989104731</v>
+        <v>172.3569989104732</v>
       </c>
       <c r="H36" t="n">
-        <v>77.11927188230857</v>
+        <v>77.11927188230867</v>
       </c>
       <c r="I36" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J36" t="n">
-        <v>99.72810012401972</v>
+        <v>99.72810012401969</v>
       </c>
       <c r="K36" t="n">
-        <v>260.3858485343756</v>
+        <v>522.2064331768282</v>
       </c>
       <c r="L36" t="n">
-        <v>645.5472423368698</v>
+        <v>784.5531434672913</v>
       </c>
       <c r="M36" t="n">
-        <v>1282.328159890777</v>
+        <v>1110.056248453618</v>
       </c>
       <c r="N36" t="n">
-        <v>1630.855008417122</v>
+        <v>1458.583096979963</v>
       </c>
       <c r="O36" t="n">
-        <v>1927.469189373317</v>
+        <v>1755.197277936157</v>
       </c>
       <c r="P36" t="n">
-        <v>2461.473294269038</v>
+        <v>2289.201382831879</v>
       </c>
       <c r="Q36" t="n">
         <v>2557.766612314665</v>
@@ -7043,7 +7043,7 @@
         <v>2572.852192137001</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.306107928098</v>
+        <v>2434.306107928099</v>
       </c>
       <c r="T36" t="n">
         <v>2239.686617951057</v>
@@ -7052,7 +7052,7 @@
         <v>2011.586510644968</v>
       </c>
       <c r="V36" t="n">
-        <v>1776.434402413225</v>
+        <v>1776.434402413226</v>
       </c>
       <c r="W36" t="n">
         <v>1522.197045685024</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>450.7451768102654</v>
+        <v>517.399813680893</v>
       </c>
       <c r="C37" t="n">
-        <v>450.7451768102654</v>
+        <v>348.4636307529861</v>
       </c>
       <c r="D37" t="n">
-        <v>450.7451768102654</v>
+        <v>198.3469913406504</v>
       </c>
       <c r="E37" t="n">
-        <v>302.8320832278723</v>
+        <v>198.3469913406504</v>
       </c>
       <c r="F37" t="n">
-        <v>302.8320832278723</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="G37" t="n">
-        <v>302.8320832278723</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H37" t="n">
-        <v>161.145626971885</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="I37" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J37" t="n">
-        <v>68.09327731914514</v>
+        <v>68.09327731914513</v>
       </c>
       <c r="K37" t="n">
         <v>225.2685560834543</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502279</v>
       </c>
       <c r="M37" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336195</v>
       </c>
       <c r="N37" t="n">
         <v>1042.673563376666</v>
@@ -7119,28 +7119,28 @@
         <v>1512.799870543881</v>
       </c>
       <c r="R37" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S37" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="T37" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="U37" t="n">
-        <v>1404.48485078137</v>
+        <v>1223.674580019075</v>
       </c>
       <c r="V37" t="n">
-        <v>1149.800362575483</v>
+        <v>968.9900918131883</v>
       </c>
       <c r="W37" t="n">
-        <v>860.3831925385225</v>
+        <v>679.5729217762278</v>
       </c>
       <c r="X37" t="n">
-        <v>632.3936416405052</v>
+        <v>679.5729217762278</v>
       </c>
       <c r="Y37" t="n">
-        <v>632.3936416405052</v>
+        <v>517.399813680893</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1605.660091840297</v>
+        <v>1488.779677357771</v>
       </c>
       <c r="C38" t="n">
-        <v>1236.697574899885</v>
+        <v>1488.779677357771</v>
       </c>
       <c r="D38" t="n">
-        <v>878.431876293135</v>
+        <v>1488.779677357771</v>
       </c>
       <c r="E38" t="n">
-        <v>878.431876293135</v>
+        <v>1102.991424759527</v>
       </c>
       <c r="F38" t="n">
-        <v>467.4459715035275</v>
+        <v>692.0055199699195</v>
       </c>
       <c r="G38" t="n">
-        <v>51.45704384274001</v>
+        <v>435.7559172923496</v>
       </c>
       <c r="H38" t="n">
-        <v>51.45704384274001</v>
+        <v>128.7864416450069</v>
       </c>
       <c r="I38" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J38" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K38" t="n">
-        <v>383.6591389975515</v>
+        <v>665.0798961656333</v>
       </c>
       <c r="L38" t="n">
-        <v>692.9444060294406</v>
+        <v>974.3651631975224</v>
       </c>
       <c r="M38" t="n">
-        <v>1329.725323583348</v>
+        <v>1350.174053105627</v>
       </c>
       <c r="N38" t="n">
-        <v>1801.736987801629</v>
+        <v>1736.677732127376</v>
       </c>
       <c r="O38" t="n">
-        <v>2153.366190700428</v>
+        <v>2088.306935026176</v>
       </c>
       <c r="P38" t="n">
-        <v>2418.972579286472</v>
+        <v>2353.913323612219</v>
       </c>
       <c r="Q38" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R38" t="n">
         <v>2572.852192137001</v>
@@ -7204,22 +7204,22 @@
         <v>2441.677292501044</v>
       </c>
       <c r="T38" t="n">
-        <v>2441.677292501044</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="U38" t="n">
-        <v>2441.677292501044</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="V38" t="n">
-        <v>2110.614405157473</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="W38" t="n">
-        <v>1757.845749887359</v>
+        <v>1878.919009333583</v>
       </c>
       <c r="X38" t="n">
-        <v>1605.660091840297</v>
+        <v>1878.919009333583</v>
       </c>
       <c r="Y38" t="n">
-        <v>1605.660091840297</v>
+        <v>1488.779677357771</v>
       </c>
     </row>
     <row r="39">
@@ -7235,46 +7235,46 @@
         <v>763.9168804133423</v>
       </c>
       <c r="D39" t="n">
-        <v>614.982470752091</v>
+        <v>614.9824707520911</v>
       </c>
       <c r="E39" t="n">
         <v>455.7450157466355</v>
       </c>
       <c r="F39" t="n">
-        <v>309.2104577735205</v>
+        <v>309.2104577735206</v>
       </c>
       <c r="G39" t="n">
-        <v>172.3569989104732</v>
+        <v>172.3569989104735</v>
       </c>
       <c r="H39" t="n">
-        <v>77.11927188230867</v>
+        <v>77.11927188230874</v>
       </c>
       <c r="I39" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J39" t="n">
-        <v>99.72810012401972</v>
+        <v>224.5582251110244</v>
       </c>
       <c r="K39" t="n">
-        <v>260.3858485343756</v>
+        <v>647.036558163833</v>
       </c>
       <c r="L39" t="n">
-        <v>522.7325588248386</v>
+        <v>1064.126680999498</v>
       </c>
       <c r="M39" t="n">
-        <v>848.2356638111658</v>
+        <v>1389.629785985825</v>
       </c>
       <c r="N39" t="n">
-        <v>1485.016581365073</v>
+        <v>1738.15663451217</v>
       </c>
       <c r="O39" t="n">
-        <v>2121.797498918981</v>
+        <v>2034.770815468364</v>
       </c>
       <c r="P39" t="n">
-        <v>2340.523462861165</v>
+        <v>2253.496779410548</v>
       </c>
       <c r="Q39" t="n">
-        <v>2572.852192137001</v>
+        <v>2557.766612314665</v>
       </c>
       <c r="R39" t="n">
         <v>2572.852192137001</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.4630107438978</v>
+        <v>769.3016572536483</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5268278159909</v>
+        <v>600.3654743257414</v>
       </c>
       <c r="D40" t="n">
-        <v>514.3740218065543</v>
+        <v>450.2488349134056</v>
       </c>
       <c r="E40" t="n">
-        <v>366.4609282241611</v>
+        <v>302.3357413310125</v>
       </c>
       <c r="F40" t="n">
-        <v>219.5709807262508</v>
+        <v>302.3357413310125</v>
       </c>
       <c r="G40" t="n">
-        <v>51.45704384274001</v>
+        <v>302.3357413310125</v>
       </c>
       <c r="H40" t="n">
-        <v>51.45704384274001</v>
+        <v>161.145626971885</v>
       </c>
       <c r="I40" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J40" t="n">
-        <v>68.09327731914514</v>
+        <v>68.09327731914513</v>
       </c>
       <c r="K40" t="n">
         <v>225.2685560834543</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502279</v>
       </c>
       <c r="M40" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336195</v>
       </c>
       <c r="N40" t="n">
         <v>1042.673563376666</v>
@@ -7362,22 +7362,22 @@
         <v>1205.634610289775</v>
       </c>
       <c r="T40" t="n">
-        <v>982.1114755741376</v>
+        <v>1205.634610289775</v>
       </c>
       <c r="U40" t="n">
-        <v>982.1114755741376</v>
+        <v>1205.634610289775</v>
       </c>
       <c r="V40" t="n">
-        <v>982.1114755741376</v>
+        <v>950.950122083888</v>
       </c>
       <c r="W40" t="n">
-        <v>982.1114755741376</v>
+        <v>950.950122083888</v>
       </c>
       <c r="X40" t="n">
-        <v>982.1114755741376</v>
+        <v>950.950122083888</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1114755741376</v>
+        <v>950.950122083888</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1211.44633782687</v>
+        <v>1422.647261835987</v>
       </c>
       <c r="C41" t="n">
-        <v>842.4838208864583</v>
+        <v>1422.647261835987</v>
       </c>
       <c r="D41" t="n">
-        <v>842.4838208864583</v>
+        <v>1264.220128891379</v>
       </c>
       <c r="E41" t="n">
-        <v>774.4154471508701</v>
+        <v>878.431876293135</v>
       </c>
       <c r="F41" t="n">
-        <v>774.4154471508701</v>
+        <v>467.4459715035275</v>
       </c>
       <c r="G41" t="n">
-        <v>358.4265194900827</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H41" t="n">
         <v>51.45704384274001</v>
@@ -7411,28 +7411,28 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J41" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K41" t="n">
-        <v>383.6591389975515</v>
+        <v>665.0798961656333</v>
       </c>
       <c r="L41" t="n">
-        <v>692.9444060294406</v>
+        <v>974.3651631975224</v>
       </c>
       <c r="M41" t="n">
-        <v>1205.041468026574</v>
+        <v>1350.174053105627</v>
       </c>
       <c r="N41" t="n">
-        <v>1591.545147048323</v>
+        <v>1736.677732127376</v>
       </c>
       <c r="O41" t="n">
-        <v>1943.174349947123</v>
+        <v>2088.306935026176</v>
       </c>
       <c r="P41" t="n">
-        <v>2208.780738533166</v>
+        <v>2353.913323612219</v>
       </c>
       <c r="Q41" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394204</v>
       </c>
       <c r="R41" t="n">
         <v>2572.852192137001</v>
@@ -7444,19 +7444,19 @@
         <v>2572.852192137001</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.248397210374</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="V41" t="n">
-        <v>1988.185509866803</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="W41" t="n">
-        <v>1988.185509866803</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="X41" t="n">
-        <v>1988.185509866803</v>
+        <v>2199.386433875921</v>
       </c>
       <c r="Y41" t="n">
-        <v>1598.046177890992</v>
+        <v>1809.247101900109</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J42" t="n">
-        <v>224.5582251110245</v>
+        <v>224.5582251110244</v>
       </c>
       <c r="K42" t="n">
-        <v>385.2159735213803</v>
+        <v>647.036558163833</v>
       </c>
       <c r="L42" t="n">
-        <v>647.5626838118435</v>
+        <v>909.3832684542961</v>
       </c>
       <c r="M42" t="n">
-        <v>1049.463049388111</v>
+        <v>1234.886373440623</v>
       </c>
       <c r="N42" t="n">
-        <v>1397.989897914456</v>
+        <v>1583.413221966968</v>
       </c>
       <c r="O42" t="n">
-        <v>2034.770815468364</v>
+        <v>1880.027402923162</v>
       </c>
       <c r="P42" t="n">
         <v>2253.496779410548</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>295.8466329880588</v>
+        <v>479.1318056607076</v>
       </c>
       <c r="C43" t="n">
-        <v>295.8466329880588</v>
+        <v>479.1318056607076</v>
       </c>
       <c r="D43" t="n">
-        <v>295.8466329880588</v>
+        <v>479.1318056607076</v>
       </c>
       <c r="E43" t="n">
-        <v>219.5709807262508</v>
+        <v>479.1318056607076</v>
       </c>
       <c r="F43" t="n">
-        <v>219.5709807262508</v>
+        <v>479.1318056607076</v>
       </c>
       <c r="G43" t="n">
-        <v>51.45704384274001</v>
+        <v>311.0178687771969</v>
       </c>
       <c r="H43" t="n">
-        <v>51.45704384274001</v>
+        <v>161.145626971885</v>
       </c>
       <c r="I43" t="n">
         <v>51.45704384274001</v>
       </c>
       <c r="J43" t="n">
-        <v>68.09327731914514</v>
+        <v>68.09327731914513</v>
       </c>
       <c r="K43" t="n">
         <v>225.2685560834543</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502279</v>
       </c>
       <c r="M43" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336195</v>
       </c>
       <c r="N43" t="n">
         <v>1042.673563376666</v>
@@ -7593,28 +7593,28 @@
         <v>1512.799870543881</v>
       </c>
       <c r="R43" t="n">
-        <v>1404.48485078137</v>
+        <v>1425.674507877325</v>
       </c>
       <c r="S43" t="n">
-        <v>1404.48485078137</v>
+        <v>1425.674507877325</v>
       </c>
       <c r="T43" t="n">
-        <v>1180.961716065733</v>
+        <v>1425.674507877325</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.961716065733</v>
+        <v>1425.674507877325</v>
       </c>
       <c r="V43" t="n">
-        <v>926.277227859846</v>
+        <v>1170.990019671438</v>
       </c>
       <c r="W43" t="n">
-        <v>926.277227859846</v>
+        <v>881.5728496344775</v>
       </c>
       <c r="X43" t="n">
-        <v>698.2876769618287</v>
+        <v>881.5728496344775</v>
       </c>
       <c r="Y43" t="n">
-        <v>477.4950978182985</v>
+        <v>660.7802704909474</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1633.182645831791</v>
+        <v>1264.220128891379</v>
       </c>
       <c r="C44" t="n">
         <v>1264.220128891379</v>
@@ -7648,25 +7648,25 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J44" t="n">
-        <v>164.0992112610951</v>
+        <v>331.5048602814481</v>
       </c>
       <c r="K44" t="n">
-        <v>411.5584307501179</v>
+        <v>551.0647880179043</v>
       </c>
       <c r="L44" t="n">
-        <v>720.843697782007</v>
+        <v>860.3500550497935</v>
       </c>
       <c r="M44" t="n">
-        <v>1096.652587690112</v>
+        <v>1236.158944957898</v>
       </c>
       <c r="N44" t="n">
-        <v>1483.156266711861</v>
+        <v>1622.662623979647</v>
       </c>
       <c r="O44" t="n">
-        <v>1834.785469610661</v>
+        <v>1974.291826878447</v>
       </c>
       <c r="P44" t="n">
-        <v>2418.972579286472</v>
+        <v>2239.89821546449</v>
       </c>
       <c r="Q44" t="n">
         <v>2570.259169068457</v>
@@ -7675,25 +7675,25 @@
         <v>2572.852192137001</v>
       </c>
       <c r="S44" t="n">
-        <v>2441.677292501044</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="T44" t="n">
-        <v>2231.687664603697</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U44" t="n">
-        <v>2231.687664603697</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="V44" t="n">
-        <v>2231.687664603697</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="W44" t="n">
-        <v>2231.687664603697</v>
+        <v>2414.425059192393</v>
       </c>
       <c r="X44" t="n">
-        <v>1858.221906342617</v>
+        <v>2040.959300931313</v>
       </c>
       <c r="Y44" t="n">
-        <v>1858.221906342617</v>
+        <v>1650.819968955501</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J45" t="n">
-        <v>99.72810012401972</v>
+        <v>224.5582251110244</v>
       </c>
       <c r="K45" t="n">
-        <v>522.2064331768283</v>
+        <v>647.036558163833</v>
       </c>
       <c r="L45" t="n">
-        <v>784.5531434672914</v>
+        <v>956.8250549044506</v>
       </c>
       <c r="M45" t="n">
-        <v>1110.056248453619</v>
+        <v>1282.328159890778</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.583096979963</v>
+        <v>1630.855008417122</v>
       </c>
       <c r="O45" t="n">
-        <v>1755.197277936158</v>
+        <v>1927.469189373317</v>
       </c>
       <c r="P45" t="n">
-        <v>2268.582359232883</v>
+        <v>2461.473294269038</v>
       </c>
       <c r="Q45" t="n">
-        <v>2572.852192137001</v>
+        <v>2557.766612314665</v>
       </c>
       <c r="R45" t="n">
         <v>2572.852192137001</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>627.0448992431008</v>
+        <v>924.873732197743</v>
       </c>
       <c r="C46" t="n">
-        <v>627.0448992431008</v>
+        <v>755.9375492698362</v>
       </c>
       <c r="D46" t="n">
-        <v>627.0448992431008</v>
+        <v>605.8209098575004</v>
       </c>
       <c r="E46" t="n">
-        <v>479.1318056607076</v>
+        <v>457.9078162751073</v>
       </c>
       <c r="F46" t="n">
-        <v>479.1318056607076</v>
+        <v>311.0178687771969</v>
       </c>
       <c r="G46" t="n">
         <v>311.0178687771969</v>
@@ -7806,16 +7806,16 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J46" t="n">
-        <v>68.09327731914514</v>
+        <v>68.09327731914513</v>
       </c>
       <c r="K46" t="n">
         <v>225.2685560834543</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9252339502281</v>
+        <v>481.9252339502279</v>
       </c>
       <c r="M46" t="n">
-        <v>762.9228379336196</v>
+        <v>762.9228379336195</v>
       </c>
       <c r="N46" t="n">
         <v>1042.673563376666</v>
@@ -7830,28 +7830,28 @@
         <v>1512.799870543881</v>
       </c>
       <c r="R46" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="S46" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="T46" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.799870543881</v>
       </c>
       <c r="U46" t="n">
-        <v>1404.48485078137</v>
+        <v>1327.314776171513</v>
       </c>
       <c r="V46" t="n">
-        <v>1149.800362575483</v>
+        <v>1327.314776171513</v>
       </c>
       <c r="W46" t="n">
-        <v>860.3831925385225</v>
+        <v>1327.314776171513</v>
       </c>
       <c r="X46" t="n">
-        <v>860.3831925385225</v>
+        <v>1327.314776171513</v>
       </c>
       <c r="Y46" t="n">
-        <v>639.5906133949924</v>
+        <v>1106.522197027983</v>
       </c>
     </row>
   </sheetData>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>86.37170221871821</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>263.608108733134</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>115.1667759067967</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>67.6369234638258</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>156.3064773183845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>71.94840041896583</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>25.83439838068705</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>171.5444367348855</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>156.3064773183852</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>30.28371039482018</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>115.1667759067969</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>61.94777594669273</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>288.0320350051594</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>343.6027642401145</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>57.73488728014803</v>
+        <v>156.3064773183852</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>30.28371039482018</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>28.18110278036966</v>
+        <v>115.1667759067967</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>243.637940447936</v>
+        <v>156.3064773183855</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,10 +9643,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>309.2056887710584</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>275.3415878404589</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>180.3818977333135</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>189.2499911712069</v>
       </c>
       <c r="R24" t="n">
-        <v>30.28371039482019</v>
+        <v>30.2837103948202</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>375.7248507824455</v>
+        <v>272.3446554833539</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>117.5469051075273</v>
+        <v>156.3064773183855</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>60.64108939268232</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10132,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.14304500753036</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>378.3156775469928</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>156.3064773183852</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10360,13 +10360,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>432.2715939316852</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>147.6267625191087</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>156.3064773183852</v>
       </c>
       <c r="Q33" t="n">
-        <v>189.2499911712064</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>115.1667759067969</v>
       </c>
       <c r="L35" t="n">
-        <v>61.94777594669324</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>288.0320350051595</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,13 +10667,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>124.0552358707385</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>314.4220328965461</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>174.0120317547063</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>115.1667759067969</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>263.6081087331341</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>86.37170221871867</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>156.3064773183855</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>291.1657262904675</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>343.6027642401145</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>137.4095062931401</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>115.1667759067969</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>137.664820291948</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>77.16895009084902</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>343.6027642401145</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>156.3064773183852</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>28.18110278037011</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>180.8831957797792</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>47.92099641429752</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>297.6354720752944</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.28371039482019</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>121.7446906334449</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H11" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.55610382424419</v>
+        <v>76.55610382424425</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>236.3775355786635</v>
       </c>
     </row>
     <row r="12">
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4327975146757</v>
@@ -23466,16 +23466,16 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S13" t="n">
-        <v>59.03869501933045</v>
+        <v>22.02457769004451</v>
       </c>
       <c r="T13" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116.3230793553288</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>76.55610382424425</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>56.59302066929007</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H16" t="n">
         <v>148.3735193872588</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S16" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>22.02457769004451</v>
       </c>
       <c r="X16" t="n">
-        <v>109.5180067251069</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.8743641321702</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>78.20643685342444</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>76.55610382424425</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>129.863150639597</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>150.9456781313178</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H19" t="n">
         <v>148.3735193872588</v>
       </c>
       <c r="I19" t="n">
-        <v>108.5916972978535</v>
+        <v>70.48041342498817</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424425</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>311.9683462304419</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>203.5939058381231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>63.42166911191758</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I22" t="n">
         <v>108.5916972978535</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S22" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>22.02457769004451</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>23.81879702364569</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>104.7848857743952</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.3735193872588</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>117.5090252517606</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>158.8424582166687</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H28" t="n">
         <v>148.3735193872588</v>
@@ -24654,7 +24654,7 @@
         <v>196.8617380866793</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>17.78275343855296</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4327975146757</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>22.02457769004451</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4327975146757</v>
@@ -25095,7 +25095,7 @@
         <v>148.3735193872588</v>
       </c>
       <c r="I34" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>196.8617380866793</v>
       </c>
       <c r="T34" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>92.44420849671948</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>225.6095475707192</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>187.9430269386293</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>303.8997808908692</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.55610382424425</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>317.8030488343867</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4327975146757</v>
       </c>
       <c r="H37" t="n">
-        <v>8.103927693831338</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S37" t="n">
         <v>196.8617380866793</v>
@@ -25368,7 +25368,7 @@
         <v>221.2879033684809</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>58.03327633771337</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>158.1419317333854</v>
       </c>
       <c r="H38" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.55610382424422</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.0677569773601</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>219.0672992118775</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>32.6341950688701</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H40" t="n">
-        <v>148.3735193872588</v>
+        <v>8.595306171722569</v>
       </c>
       <c r="I40" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U40" t="n">
         <v>286.2340376195573</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>197.840180005521</v>
       </c>
       <c r="E41" t="n">
-        <v>314.5426800740295</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I41" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424425</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>207.8897316183737</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>70.92106690737926</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.3735193872588</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.97776052499542</v>
       </c>
       <c r="S43" t="n">
         <v>196.8617380866793</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U43" t="n">
         <v>286.2340376195573</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>159.9449737577625</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25885,7 +25885,7 @@
         <v>303.8997808908692</v>
       </c>
       <c r="I44" t="n">
-        <v>76.55610382424422</v>
+        <v>76.55610382424425</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>129.863150639597</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U44" t="n">
         <v>251.0677569773601</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>192.3981071022513</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>167.4117231715646</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S46" t="n">
         <v>196.8617380866793</v>
@@ -26079,13 +26079,13 @@
         <v>221.2879033684809</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2340376195573</v>
+        <v>102.603794190913</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620750.5805522068</v>
+        <v>620750.580552207</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620750.5805522068</v>
+        <v>620750.580552207</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620750.5805522068</v>
+        <v>620750.580552207</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>850538.0282795363</v>
+        <v>850538.0282795364</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>850538.0282795362</v>
+        <v>850538.0282795363</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620750.580552207</v>
+        <v>620750.5805522067</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>620750.5805522068</v>
+        <v>620750.5805522067</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620750.5805522068</v>
+        <v>620750.580552207</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.162505705</v>
+        <v>634939.1625057048</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="E2" t="n">
-        <v>471017.0810634061</v>
+        <v>471017.0810634064</v>
       </c>
       <c r="F2" t="n">
-        <v>471017.0810634061</v>
+        <v>471017.0810634062</v>
       </c>
       <c r="G2" t="n">
         <v>471017.0810634061</v>
       </c>
       <c r="H2" t="n">
-        <v>471017.0810634063</v>
+        <v>471017.0810634062</v>
       </c>
       <c r="I2" t="n">
+        <v>607313.9074090031</v>
+      </c>
+      <c r="J2" t="n">
         <v>607313.9074090025</v>
       </c>
-      <c r="J2" t="n">
-        <v>607313.907409003</v>
-      </c>
       <c r="K2" t="n">
-        <v>607313.907409003</v>
+        <v>607313.9074090028</v>
       </c>
       <c r="L2" t="n">
-        <v>607313.9074090029</v>
+        <v>607313.9074090028</v>
       </c>
       <c r="M2" t="n">
         <v>471017.081063406</v>
       </c>
       <c r="N2" t="n">
-        <v>471017.0810634061</v>
+        <v>471017.0810634063</v>
       </c>
       <c r="O2" t="n">
         <v>471017.0810634061</v>
       </c>
       <c r="P2" t="n">
-        <v>471017.0810634061</v>
+        <v>471017.081063406</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>886255.8658040958</v>
+        <v>886255.8658040955</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151391.7979932622</v>
+        <v>151391.7979932623</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18416.64140604448</v>
+        <v>18416.64140604439</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>28699.92018768271</v>
+        <v>28699.92018768274</v>
       </c>
       <c r="F4" t="n">
-        <v>28699.9201876827</v>
+        <v>28699.92018768274</v>
       </c>
       <c r="G4" t="n">
-        <v>28699.92018768271</v>
+        <v>28699.92018768274</v>
       </c>
       <c r="H4" t="n">
-        <v>28699.92018768272</v>
+        <v>28699.92018768274</v>
       </c>
       <c r="I4" t="n">
-        <v>87286.32355249721</v>
+        <v>87286.32355249724</v>
       </c>
       <c r="J4" t="n">
         <v>87286.32355249723</v>
       </c>
       <c r="K4" t="n">
-        <v>87286.32355249721</v>
+        <v>87286.32355249723</v>
       </c>
       <c r="L4" t="n">
-        <v>87286.32355249723</v>
+        <v>87286.32355249726</v>
       </c>
       <c r="M4" t="n">
-        <v>28699.92018768273</v>
+        <v>28699.92018768275</v>
       </c>
       <c r="N4" t="n">
-        <v>28699.92018768273</v>
+        <v>28699.92018768275</v>
       </c>
       <c r="O4" t="n">
-        <v>28699.92018768272</v>
+        <v>28699.92018768274</v>
       </c>
       <c r="P4" t="n">
-        <v>28699.92018768273</v>
+        <v>28699.92018768274</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186539.1638927461</v>
+        <v>186495.0281140648</v>
       </c>
       <c r="C6" t="n">
-        <v>186539.1638927457</v>
+        <v>186495.0281140648</v>
       </c>
       <c r="D6" t="n">
-        <v>186539.1638927459</v>
+        <v>186495.0281140649</v>
       </c>
       <c r="E6" t="n">
-        <v>-501883.0602112437</v>
+        <v>-507215.0050687081</v>
       </c>
       <c r="F6" t="n">
-        <v>384372.8055928521</v>
+        <v>379040.8607353873</v>
       </c>
       <c r="G6" t="n">
-        <v>384372.8055928521</v>
+        <v>379040.8607353871</v>
       </c>
       <c r="H6" t="n">
-        <v>384372.8055928522</v>
+        <v>379040.8607353873</v>
       </c>
       <c r="I6" t="n">
-        <v>276077.310905768</v>
+        <v>275142.0378659032</v>
       </c>
       <c r="J6" t="n">
-        <v>427469.1088990306</v>
+        <v>426533.8358591651</v>
       </c>
       <c r="K6" t="n">
-        <v>427469.1088990306</v>
+        <v>426533.8358591653</v>
       </c>
       <c r="L6" t="n">
-        <v>427469.1088990305</v>
+        <v>426533.8358591652</v>
       </c>
       <c r="M6" t="n">
-        <v>365956.1641868075</v>
+        <v>360624.2193293427</v>
       </c>
       <c r="N6" t="n">
-        <v>384372.8055928521</v>
+        <v>379040.8607353873</v>
       </c>
       <c r="O6" t="n">
-        <v>384372.8055928521</v>
+        <v>379040.8607353872</v>
       </c>
       <c r="P6" t="n">
-        <v>384372.8055928521</v>
+        <v>379040.8607353871</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>864.0826588251791</v>
+        <v>864.0826588251789</v>
       </c>
       <c r="F3" t="n">
-        <v>864.0826588251791</v>
+        <v>864.0826588251789</v>
       </c>
       <c r="G3" t="n">
-        <v>864.0826588251791</v>
+        <v>864.0826588251789</v>
       </c>
       <c r="H3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251789</v>
       </c>
       <c r="I3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251789</v>
       </c>
       <c r="J3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251789</v>
       </c>
       <c r="K3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251789</v>
       </c>
       <c r="L3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251789</v>
       </c>
       <c r="M3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251789</v>
       </c>
       <c r="N3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251789</v>
       </c>
       <c r="O3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251789</v>
       </c>
       <c r="P3" t="n">
-        <v>864.082658825179</v>
+        <v>864.0826588251789</v>
       </c>
     </row>
     <row r="4">
@@ -26819,7 +26819,7 @@
         <v>1212.524226892867</v>
       </c>
       <c r="L4" t="n">
-        <v>1212.524226892867</v>
+        <v>1212.524226892868</v>
       </c>
       <c r="M4" t="n">
         <v>643.2130480342502</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>864.0826588251791</v>
+        <v>864.0826588251789</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>569.3111788586165</v>
+        <v>569.3111788586172</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>73.90186917563312</v>
+        <v>73.90186917563278</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.473699130955491</v>
+        <v>3.47369913095549</v>
       </c>
       <c r="H11" t="n">
-        <v>35.57502122489794</v>
+        <v>35.57502122489792</v>
       </c>
       <c r="I11" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J11" t="n">
-        <v>294.8258716159339</v>
+        <v>294.8258716159338</v>
       </c>
       <c r="K11" t="n">
-        <v>441.8675558292799</v>
+        <v>441.8675558292798</v>
       </c>
       <c r="L11" t="n">
-        <v>548.1757756082592</v>
+        <v>548.1757756082591</v>
       </c>
       <c r="M11" t="n">
-        <v>609.9511725283888</v>
+        <v>609.9511725283887</v>
       </c>
       <c r="N11" t="n">
-        <v>619.8208201842162</v>
+        <v>619.820820184216</v>
       </c>
       <c r="O11" t="n">
-        <v>585.2792244507775</v>
+        <v>585.2792244507773</v>
       </c>
       <c r="P11" t="n">
-        <v>499.5222771553137</v>
+        <v>499.5222771553136</v>
       </c>
       <c r="Q11" t="n">
-        <v>375.1204270279701</v>
+        <v>375.12042702797</v>
       </c>
       <c r="R11" t="n">
-        <v>218.2047530348831</v>
+        <v>218.204753034883</v>
       </c>
       <c r="S11" t="n">
-        <v>79.15691894664833</v>
+        <v>79.15691894664832</v>
       </c>
       <c r="T11" t="n">
         <v>15.20611794575767</v>
@@ -31837,43 +31837,43 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I12" t="n">
-        <v>63.99102709224205</v>
+        <v>63.99102709224204</v>
       </c>
       <c r="J12" t="n">
-        <v>175.5962693750301</v>
+        <v>175.59626937503</v>
       </c>
       <c r="K12" t="n">
-        <v>300.1219929242134</v>
+        <v>300.1219929242133</v>
       </c>
       <c r="L12" t="n">
-        <v>403.5510568409481</v>
+        <v>403.551056840948</v>
       </c>
       <c r="M12" t="n">
-        <v>470.9250490597225</v>
+        <v>470.9250490597224</v>
       </c>
       <c r="N12" t="n">
-        <v>483.389033827116</v>
+        <v>483.3890338271159</v>
       </c>
       <c r="O12" t="n">
-        <v>442.2065282385801</v>
+        <v>442.20652823858</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9097245276477</v>
+        <v>354.9097245276476</v>
       </c>
       <c r="Q12" t="n">
         <v>237.2477519098869</v>
       </c>
       <c r="R12" t="n">
-        <v>115.3957935691438</v>
+        <v>115.3957935691437</v>
       </c>
       <c r="S12" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T12" t="n">
-        <v>7.491433617550372</v>
+        <v>7.491433617550369</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1222758479469594</v>
+        <v>0.1222758479469593</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.55818184378311</v>
+        <v>1.558181843783109</v>
       </c>
       <c r="H13" t="n">
-        <v>13.85365312018075</v>
+        <v>13.85365312018074</v>
       </c>
       <c r="I13" t="n">
-        <v>46.85877762940481</v>
+        <v>46.85877762940479</v>
       </c>
       <c r="J13" t="n">
-        <v>110.1634563554659</v>
+        <v>110.1634563554658</v>
       </c>
       <c r="K13" t="n">
         <v>181.0323996686194</v>
@@ -31928,31 +31928,31 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M13" t="n">
-        <v>244.2520866577469</v>
+        <v>244.2520866577468</v>
       </c>
       <c r="N13" t="n">
-        <v>238.4443179672828</v>
+        <v>238.4443179672827</v>
       </c>
       <c r="O13" t="n">
-        <v>220.2419209739982</v>
+        <v>220.2419209739981</v>
       </c>
       <c r="P13" t="n">
-        <v>188.4550113608226</v>
+        <v>188.4550113608225</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.4764814826021</v>
+        <v>130.476481482602</v>
       </c>
       <c r="R13" t="n">
-        <v>70.06152181228417</v>
+        <v>70.06152181228416</v>
       </c>
       <c r="S13" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T13" t="n">
-        <v>6.657686059800558</v>
+        <v>6.657686059800556</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08499173693362426</v>
+        <v>0.08499173693362425</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.473699130955491</v>
+        <v>3.47369913095549</v>
       </c>
       <c r="H14" t="n">
-        <v>35.57502122489794</v>
+        <v>35.57502122489792</v>
       </c>
       <c r="I14" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J14" t="n">
-        <v>294.8258716159339</v>
+        <v>294.8258716159338</v>
       </c>
       <c r="K14" t="n">
-        <v>441.8675558292799</v>
+        <v>441.8675558292798</v>
       </c>
       <c r="L14" t="n">
-        <v>548.1757756082592</v>
+        <v>548.1757756082591</v>
       </c>
       <c r="M14" t="n">
-        <v>609.9511725283888</v>
+        <v>609.9511725283887</v>
       </c>
       <c r="N14" t="n">
-        <v>619.8208201842162</v>
+        <v>619.820820184216</v>
       </c>
       <c r="O14" t="n">
-        <v>585.2792244507775</v>
+        <v>585.2792244507773</v>
       </c>
       <c r="P14" t="n">
-        <v>499.5222771553137</v>
+        <v>499.5222771553136</v>
       </c>
       <c r="Q14" t="n">
-        <v>375.1204270279701</v>
+        <v>375.12042702797</v>
       </c>
       <c r="R14" t="n">
-        <v>218.2047530348831</v>
+        <v>218.204753034883</v>
       </c>
       <c r="S14" t="n">
-        <v>79.15691894664833</v>
+        <v>79.15691894664832</v>
       </c>
       <c r="T14" t="n">
         <v>15.20611794575767</v>
@@ -32074,43 +32074,43 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I15" t="n">
-        <v>63.99102709224205</v>
+        <v>63.99102709224204</v>
       </c>
       <c r="J15" t="n">
-        <v>175.5962693750301</v>
+        <v>175.59626937503</v>
       </c>
       <c r="K15" t="n">
-        <v>300.1219929242134</v>
+        <v>300.1219929242133</v>
       </c>
       <c r="L15" t="n">
-        <v>403.5510568409481</v>
+        <v>403.551056840948</v>
       </c>
       <c r="M15" t="n">
-        <v>470.9250490597225</v>
+        <v>470.9250490597224</v>
       </c>
       <c r="N15" t="n">
-        <v>483.389033827116</v>
+        <v>483.3890338271159</v>
       </c>
       <c r="O15" t="n">
-        <v>442.2065282385801</v>
+        <v>442.20652823858</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9097245276477</v>
+        <v>354.9097245276476</v>
       </c>
       <c r="Q15" t="n">
         <v>237.2477519098869</v>
       </c>
       <c r="R15" t="n">
-        <v>115.3957935691438</v>
+        <v>115.3957935691437</v>
       </c>
       <c r="S15" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T15" t="n">
-        <v>7.491433617550372</v>
+        <v>7.491433617550369</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1222758479469594</v>
+        <v>0.1222758479469593</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.55818184378311</v>
+        <v>1.558181843783109</v>
       </c>
       <c r="H16" t="n">
-        <v>13.85365312018075</v>
+        <v>13.85365312018074</v>
       </c>
       <c r="I16" t="n">
-        <v>46.85877762940481</v>
+        <v>46.85877762940479</v>
       </c>
       <c r="J16" t="n">
-        <v>110.1634563554659</v>
+        <v>110.1634563554658</v>
       </c>
       <c r="K16" t="n">
         <v>181.0323996686194</v>
@@ -32165,31 +32165,31 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M16" t="n">
-        <v>244.2520866577469</v>
+        <v>244.2520866577468</v>
       </c>
       <c r="N16" t="n">
-        <v>238.4443179672828</v>
+        <v>238.4443179672827</v>
       </c>
       <c r="O16" t="n">
-        <v>220.2419209739982</v>
+        <v>220.2419209739981</v>
       </c>
       <c r="P16" t="n">
-        <v>188.4550113608226</v>
+        <v>188.4550113608225</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.4764814826021</v>
+        <v>130.476481482602</v>
       </c>
       <c r="R16" t="n">
-        <v>70.06152181228417</v>
+        <v>70.06152181228416</v>
       </c>
       <c r="S16" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T16" t="n">
-        <v>6.657686059800558</v>
+        <v>6.657686059800556</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08499173693362426</v>
+        <v>0.08499173693362425</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.473699130955491</v>
+        <v>3.47369913095549</v>
       </c>
       <c r="H17" t="n">
-        <v>35.57502122489794</v>
+        <v>35.57502122489792</v>
       </c>
       <c r="I17" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J17" t="n">
-        <v>294.8258716159339</v>
+        <v>294.8258716159338</v>
       </c>
       <c r="K17" t="n">
-        <v>441.8675558292799</v>
+        <v>441.8675558292798</v>
       </c>
       <c r="L17" t="n">
-        <v>548.1757756082592</v>
+        <v>548.1757756082591</v>
       </c>
       <c r="M17" t="n">
-        <v>609.9511725283888</v>
+        <v>609.9511725283887</v>
       </c>
       <c r="N17" t="n">
-        <v>619.8208201842162</v>
+        <v>619.820820184216</v>
       </c>
       <c r="O17" t="n">
-        <v>585.2792244507775</v>
+        <v>585.2792244507773</v>
       </c>
       <c r="P17" t="n">
-        <v>499.5222771553137</v>
+        <v>499.5222771553136</v>
       </c>
       <c r="Q17" t="n">
-        <v>375.1204270279701</v>
+        <v>375.12042702797</v>
       </c>
       <c r="R17" t="n">
-        <v>218.2047530348831</v>
+        <v>218.204753034883</v>
       </c>
       <c r="S17" t="n">
-        <v>79.15691894664833</v>
+        <v>79.15691894664832</v>
       </c>
       <c r="T17" t="n">
         <v>15.20611794575767</v>
@@ -32311,43 +32311,43 @@
         <v>17.95009447861363</v>
       </c>
       <c r="I18" t="n">
-        <v>63.99102709224205</v>
+        <v>63.99102709224204</v>
       </c>
       <c r="J18" t="n">
-        <v>175.5962693750301</v>
+        <v>175.59626937503</v>
       </c>
       <c r="K18" t="n">
-        <v>300.1219929242134</v>
+        <v>300.1219929242133</v>
       </c>
       <c r="L18" t="n">
-        <v>403.5510568409481</v>
+        <v>403.551056840948</v>
       </c>
       <c r="M18" t="n">
-        <v>470.9250490597225</v>
+        <v>470.9250490597224</v>
       </c>
       <c r="N18" t="n">
-        <v>483.389033827116</v>
+        <v>483.3890338271159</v>
       </c>
       <c r="O18" t="n">
-        <v>442.2065282385801</v>
+        <v>442.20652823858</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9097245276477</v>
+        <v>354.9097245276476</v>
       </c>
       <c r="Q18" t="n">
         <v>237.2477519098869</v>
       </c>
       <c r="R18" t="n">
-        <v>115.3957935691438</v>
+        <v>115.3957935691437</v>
       </c>
       <c r="S18" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T18" t="n">
-        <v>7.491433617550372</v>
+        <v>7.491433617550369</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1222758479469594</v>
+        <v>0.1222758479469593</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.55818184378311</v>
+        <v>1.558181843783109</v>
       </c>
       <c r="H19" t="n">
-        <v>13.85365312018075</v>
+        <v>13.85365312018074</v>
       </c>
       <c r="I19" t="n">
-        <v>46.85877762940481</v>
+        <v>46.85877762940479</v>
       </c>
       <c r="J19" t="n">
-        <v>110.1634563554659</v>
+        <v>110.1634563554658</v>
       </c>
       <c r="K19" t="n">
         <v>181.0323996686194</v>
@@ -32402,31 +32402,31 @@
         <v>231.6591443020816</v>
       </c>
       <c r="M19" t="n">
-        <v>244.2520866577469</v>
+        <v>244.2520866577468</v>
       </c>
       <c r="N19" t="n">
-        <v>238.4443179672828</v>
+        <v>238.4443179672827</v>
       </c>
       <c r="O19" t="n">
-        <v>220.2419209739982</v>
+        <v>220.2419209739981</v>
       </c>
       <c r="P19" t="n">
-        <v>188.4550113608226</v>
+        <v>188.4550113608225</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.4764814826021</v>
+        <v>130.476481482602</v>
       </c>
       <c r="R19" t="n">
-        <v>70.06152181228417</v>
+        <v>70.06152181228416</v>
       </c>
       <c r="S19" t="n">
         <v>27.15485995029291</v>
       </c>
       <c r="T19" t="n">
-        <v>6.657686059800558</v>
+        <v>6.657686059800556</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08499173693362426</v>
+        <v>0.08499173693362425</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,19 +32463,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.473699130955491</v>
+        <v>3.47369913095549</v>
       </c>
       <c r="H20" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489792</v>
       </c>
       <c r="I20" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J20" t="n">
-        <v>294.8258716159339</v>
+        <v>294.8258716159338</v>
       </c>
       <c r="K20" t="n">
-        <v>441.8675558292799</v>
+        <v>441.8675558292798</v>
       </c>
       <c r="L20" t="n">
         <v>548.1757756082591</v>
@@ -32484,10 +32484,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N20" t="n">
-        <v>619.8208201842161</v>
+        <v>619.820820184216</v>
       </c>
       <c r="O20" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507773</v>
       </c>
       <c r="P20" t="n">
         <v>499.5222771553136</v>
@@ -32496,10 +32496,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R20" t="n">
-        <v>218.2047530348831</v>
+        <v>218.204753034883</v>
       </c>
       <c r="S20" t="n">
-        <v>79.15691894664833</v>
+        <v>79.15691894664832</v>
       </c>
       <c r="T20" t="n">
         <v>15.20611794575767</v>
@@ -32554,19 +32554,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K21" t="n">
-        <v>300.1219929242134</v>
+        <v>300.1219929242133</v>
       </c>
       <c r="L21" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M21" t="n">
-        <v>470.9250490597225</v>
+        <v>470.9250490597224</v>
       </c>
       <c r="N21" t="n">
-        <v>483.389033827116</v>
+        <v>483.3890338271159</v>
       </c>
       <c r="O21" t="n">
-        <v>442.2065282385801</v>
+        <v>442.20652823858</v>
       </c>
       <c r="P21" t="n">
         <v>354.9097245276476</v>
@@ -32575,16 +32575,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R21" t="n">
-        <v>115.3957935691438</v>
+        <v>115.3957935691437</v>
       </c>
       <c r="S21" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T21" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550369</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1222758479469594</v>
+        <v>0.1222758479469593</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,10 +32624,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H22" t="n">
-        <v>13.85365312018075</v>
+        <v>13.85365312018074</v>
       </c>
       <c r="I22" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940479</v>
       </c>
       <c r="J22" t="n">
         <v>110.1634563554658</v>
@@ -32660,10 +32660,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T22" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800556</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08499173693362426</v>
+        <v>0.08499173693362425</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,19 +32700,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.473699130955491</v>
+        <v>3.47369913095549</v>
       </c>
       <c r="H23" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489792</v>
       </c>
       <c r="I23" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J23" t="n">
-        <v>294.8258716159339</v>
+        <v>294.8258716159338</v>
       </c>
       <c r="K23" t="n">
-        <v>441.8675558292799</v>
+        <v>441.8675558292798</v>
       </c>
       <c r="L23" t="n">
         <v>548.1757756082591</v>
@@ -32721,10 +32721,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N23" t="n">
-        <v>619.8208201842161</v>
+        <v>619.820820184216</v>
       </c>
       <c r="O23" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507773</v>
       </c>
       <c r="P23" t="n">
         <v>499.5222771553136</v>
@@ -32733,10 +32733,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R23" t="n">
-        <v>218.2047530348831</v>
+        <v>218.204753034883</v>
       </c>
       <c r="S23" t="n">
-        <v>79.15691894664833</v>
+        <v>79.15691894664832</v>
       </c>
       <c r="T23" t="n">
         <v>15.20611794575767</v>
@@ -32791,19 +32791,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K24" t="n">
-        <v>300.1219929242134</v>
+        <v>300.1219929242133</v>
       </c>
       <c r="L24" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M24" t="n">
-        <v>470.9250490597225</v>
+        <v>470.9250490597224</v>
       </c>
       <c r="N24" t="n">
-        <v>483.389033827116</v>
+        <v>483.3890338271159</v>
       </c>
       <c r="O24" t="n">
-        <v>442.2065282385801</v>
+        <v>442.20652823858</v>
       </c>
       <c r="P24" t="n">
         <v>354.9097245276476</v>
@@ -32812,16 +32812,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R24" t="n">
-        <v>115.3957935691438</v>
+        <v>115.3957935691437</v>
       </c>
       <c r="S24" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T24" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550369</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1222758479469594</v>
+        <v>0.1222758479469593</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,10 +32861,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H25" t="n">
-        <v>13.85365312018075</v>
+        <v>13.85365312018074</v>
       </c>
       <c r="I25" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940479</v>
       </c>
       <c r="J25" t="n">
         <v>110.1634563554658</v>
@@ -32897,10 +32897,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T25" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800556</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08499173693362426</v>
+        <v>0.08499173693362425</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.473699130955491</v>
+        <v>3.47369913095549</v>
       </c>
       <c r="H26" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489792</v>
       </c>
       <c r="I26" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J26" t="n">
-        <v>294.8258716159339</v>
+        <v>294.8258716159338</v>
       </c>
       <c r="K26" t="n">
-        <v>441.8675558292799</v>
+        <v>441.8675558292798</v>
       </c>
       <c r="L26" t="n">
         <v>548.1757756082591</v>
@@ -32958,10 +32958,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N26" t="n">
-        <v>619.8208201842161</v>
+        <v>619.820820184216</v>
       </c>
       <c r="O26" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507773</v>
       </c>
       <c r="P26" t="n">
         <v>499.5222771553136</v>
@@ -32970,10 +32970,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R26" t="n">
-        <v>218.2047530348831</v>
+        <v>218.204753034883</v>
       </c>
       <c r="S26" t="n">
-        <v>79.15691894664833</v>
+        <v>79.15691894664832</v>
       </c>
       <c r="T26" t="n">
         <v>15.20611794575767</v>
@@ -33028,19 +33028,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K27" t="n">
-        <v>300.1219929242134</v>
+        <v>300.1219929242133</v>
       </c>
       <c r="L27" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M27" t="n">
-        <v>470.9250490597225</v>
+        <v>470.9250490597224</v>
       </c>
       <c r="N27" t="n">
-        <v>483.389033827116</v>
+        <v>483.3890338271159</v>
       </c>
       <c r="O27" t="n">
-        <v>442.2065282385801</v>
+        <v>442.20652823858</v>
       </c>
       <c r="P27" t="n">
         <v>354.9097245276476</v>
@@ -33049,16 +33049,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R27" t="n">
-        <v>115.3957935691438</v>
+        <v>115.3957935691437</v>
       </c>
       <c r="S27" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T27" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550369</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1222758479469594</v>
+        <v>0.1222758479469593</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,10 +33098,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H28" t="n">
-        <v>13.85365312018075</v>
+        <v>13.85365312018074</v>
       </c>
       <c r="I28" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940479</v>
       </c>
       <c r="J28" t="n">
         <v>110.1634563554658</v>
@@ -33134,10 +33134,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T28" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800556</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08499173693362426</v>
+        <v>0.08499173693362425</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.473699130955491</v>
+        <v>3.47369913095549</v>
       </c>
       <c r="H29" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489792</v>
       </c>
       <c r="I29" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J29" t="n">
-        <v>294.8258716159339</v>
+        <v>294.8258716159338</v>
       </c>
       <c r="K29" t="n">
-        <v>441.8675558292799</v>
+        <v>441.8675558292798</v>
       </c>
       <c r="L29" t="n">
         <v>548.1757756082591</v>
@@ -33195,10 +33195,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N29" t="n">
-        <v>619.8208201842161</v>
+        <v>619.820820184216</v>
       </c>
       <c r="O29" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507773</v>
       </c>
       <c r="P29" t="n">
         <v>499.5222771553136</v>
@@ -33207,10 +33207,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R29" t="n">
-        <v>218.2047530348831</v>
+        <v>218.204753034883</v>
       </c>
       <c r="S29" t="n">
-        <v>79.15691894664833</v>
+        <v>79.15691894664832</v>
       </c>
       <c r="T29" t="n">
         <v>15.20611794575767</v>
@@ -33265,19 +33265,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K30" t="n">
-        <v>300.1219929242134</v>
+        <v>300.1219929242133</v>
       </c>
       <c r="L30" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M30" t="n">
-        <v>470.9250490597225</v>
+        <v>470.9250490597224</v>
       </c>
       <c r="N30" t="n">
-        <v>483.389033827116</v>
+        <v>483.3890338271159</v>
       </c>
       <c r="O30" t="n">
-        <v>442.2065282385801</v>
+        <v>442.20652823858</v>
       </c>
       <c r="P30" t="n">
         <v>354.9097245276476</v>
@@ -33286,16 +33286,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R30" t="n">
-        <v>115.3957935691438</v>
+        <v>115.3957935691437</v>
       </c>
       <c r="S30" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T30" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550369</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1222758479469594</v>
+        <v>0.1222758479469593</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,10 +33335,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H31" t="n">
-        <v>13.85365312018075</v>
+        <v>13.85365312018074</v>
       </c>
       <c r="I31" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940479</v>
       </c>
       <c r="J31" t="n">
         <v>110.1634563554658</v>
@@ -33371,10 +33371,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T31" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800556</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08499173693362426</v>
+        <v>0.08499173693362425</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.473699130955491</v>
+        <v>3.47369913095549</v>
       </c>
       <c r="H32" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489792</v>
       </c>
       <c r="I32" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J32" t="n">
-        <v>294.8258716159339</v>
+        <v>294.8258716159338</v>
       </c>
       <c r="K32" t="n">
-        <v>441.8675558292799</v>
+        <v>441.8675558292798</v>
       </c>
       <c r="L32" t="n">
         <v>548.1757756082591</v>
@@ -33432,10 +33432,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N32" t="n">
-        <v>619.8208201842161</v>
+        <v>619.820820184216</v>
       </c>
       <c r="O32" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507773</v>
       </c>
       <c r="P32" t="n">
         <v>499.5222771553136</v>
@@ -33444,10 +33444,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R32" t="n">
-        <v>218.2047530348831</v>
+        <v>218.204753034883</v>
       </c>
       <c r="S32" t="n">
-        <v>79.15691894664833</v>
+        <v>79.15691894664832</v>
       </c>
       <c r="T32" t="n">
         <v>15.20611794575767</v>
@@ -33502,19 +33502,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K33" t="n">
-        <v>300.1219929242134</v>
+        <v>300.1219929242133</v>
       </c>
       <c r="L33" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M33" t="n">
-        <v>470.9250490597225</v>
+        <v>470.9250490597224</v>
       </c>
       <c r="N33" t="n">
-        <v>483.389033827116</v>
+        <v>483.3890338271159</v>
       </c>
       <c r="O33" t="n">
-        <v>442.2065282385801</v>
+        <v>442.20652823858</v>
       </c>
       <c r="P33" t="n">
         <v>354.9097245276476</v>
@@ -33523,16 +33523,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R33" t="n">
-        <v>115.3957935691438</v>
+        <v>115.3957935691437</v>
       </c>
       <c r="S33" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T33" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550369</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1222758479469594</v>
+        <v>0.1222758479469593</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,10 +33572,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H34" t="n">
-        <v>13.85365312018075</v>
+        <v>13.85365312018074</v>
       </c>
       <c r="I34" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940479</v>
       </c>
       <c r="J34" t="n">
         <v>110.1634563554658</v>
@@ -33608,10 +33608,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T34" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800556</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08499173693362426</v>
+        <v>0.08499173693362425</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.473699130955491</v>
+        <v>3.47369913095549</v>
       </c>
       <c r="H35" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489792</v>
       </c>
       <c r="I35" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J35" t="n">
-        <v>294.8258716159339</v>
+        <v>294.8258716159338</v>
       </c>
       <c r="K35" t="n">
-        <v>441.8675558292799</v>
+        <v>441.8675558292798</v>
       </c>
       <c r="L35" t="n">
         <v>548.1757756082591</v>
@@ -33669,10 +33669,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N35" t="n">
-        <v>619.8208201842161</v>
+        <v>619.820820184216</v>
       </c>
       <c r="O35" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507773</v>
       </c>
       <c r="P35" t="n">
         <v>499.5222771553136</v>
@@ -33681,10 +33681,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R35" t="n">
-        <v>218.2047530348831</v>
+        <v>218.204753034883</v>
       </c>
       <c r="S35" t="n">
-        <v>79.15691894664833</v>
+        <v>79.15691894664832</v>
       </c>
       <c r="T35" t="n">
         <v>15.20611794575767</v>
@@ -33739,19 +33739,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K36" t="n">
-        <v>300.1219929242134</v>
+        <v>300.1219929242133</v>
       </c>
       <c r="L36" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M36" t="n">
-        <v>470.9250490597225</v>
+        <v>470.9250490597224</v>
       </c>
       <c r="N36" t="n">
-        <v>483.389033827116</v>
+        <v>483.3890338271159</v>
       </c>
       <c r="O36" t="n">
-        <v>442.2065282385801</v>
+        <v>442.20652823858</v>
       </c>
       <c r="P36" t="n">
         <v>354.9097245276476</v>
@@ -33760,16 +33760,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R36" t="n">
-        <v>115.3957935691438</v>
+        <v>115.3957935691437</v>
       </c>
       <c r="S36" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T36" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550369</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1222758479469594</v>
+        <v>0.1222758479469593</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,10 +33809,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H37" t="n">
-        <v>13.85365312018075</v>
+        <v>13.85365312018074</v>
       </c>
       <c r="I37" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940479</v>
       </c>
       <c r="J37" t="n">
         <v>110.1634563554658</v>
@@ -33845,10 +33845,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T37" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800556</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08499173693362426</v>
+        <v>0.08499173693362425</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.473699130955491</v>
+        <v>3.47369913095549</v>
       </c>
       <c r="H38" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489792</v>
       </c>
       <c r="I38" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J38" t="n">
-        <v>294.8258716159339</v>
+        <v>294.8258716159338</v>
       </c>
       <c r="K38" t="n">
-        <v>441.8675558292799</v>
+        <v>441.8675558292798</v>
       </c>
       <c r="L38" t="n">
         <v>548.1757756082591</v>
@@ -33906,10 +33906,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N38" t="n">
-        <v>619.8208201842161</v>
+        <v>619.820820184216</v>
       </c>
       <c r="O38" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507773</v>
       </c>
       <c r="P38" t="n">
         <v>499.5222771553136</v>
@@ -33918,10 +33918,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R38" t="n">
-        <v>218.2047530348831</v>
+        <v>218.204753034883</v>
       </c>
       <c r="S38" t="n">
-        <v>79.15691894664833</v>
+        <v>79.15691894664832</v>
       </c>
       <c r="T38" t="n">
         <v>15.20611794575767</v>
@@ -33976,19 +33976,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K39" t="n">
-        <v>300.1219929242134</v>
+        <v>300.1219929242133</v>
       </c>
       <c r="L39" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M39" t="n">
-        <v>470.9250490597225</v>
+        <v>470.9250490597224</v>
       </c>
       <c r="N39" t="n">
-        <v>483.389033827116</v>
+        <v>483.3890338271159</v>
       </c>
       <c r="O39" t="n">
-        <v>442.2065282385801</v>
+        <v>442.20652823858</v>
       </c>
       <c r="P39" t="n">
         <v>354.9097245276476</v>
@@ -33997,16 +33997,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R39" t="n">
-        <v>115.3957935691438</v>
+        <v>115.3957935691437</v>
       </c>
       <c r="S39" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T39" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550369</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1222758479469594</v>
+        <v>0.1222758479469593</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,10 +34046,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H40" t="n">
-        <v>13.85365312018075</v>
+        <v>13.85365312018074</v>
       </c>
       <c r="I40" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940479</v>
       </c>
       <c r="J40" t="n">
         <v>110.1634563554658</v>
@@ -34082,10 +34082,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T40" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800556</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08499173693362426</v>
+        <v>0.08499173693362425</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,19 +34122,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.473699130955491</v>
+        <v>3.47369913095549</v>
       </c>
       <c r="H41" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489792</v>
       </c>
       <c r="I41" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J41" t="n">
-        <v>294.8258716159339</v>
+        <v>294.8258716159338</v>
       </c>
       <c r="K41" t="n">
-        <v>441.8675558292799</v>
+        <v>441.8675558292798</v>
       </c>
       <c r="L41" t="n">
         <v>548.1757756082591</v>
@@ -34143,10 +34143,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N41" t="n">
-        <v>619.8208201842161</v>
+        <v>619.820820184216</v>
       </c>
       <c r="O41" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507773</v>
       </c>
       <c r="P41" t="n">
         <v>499.5222771553136</v>
@@ -34155,10 +34155,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R41" t="n">
-        <v>218.2047530348831</v>
+        <v>218.204753034883</v>
       </c>
       <c r="S41" t="n">
-        <v>79.15691894664833</v>
+        <v>79.15691894664832</v>
       </c>
       <c r="T41" t="n">
         <v>15.20611794575767</v>
@@ -34213,19 +34213,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K42" t="n">
-        <v>300.1219929242134</v>
+        <v>300.1219929242133</v>
       </c>
       <c r="L42" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M42" t="n">
-        <v>470.9250490597225</v>
+        <v>470.9250490597224</v>
       </c>
       <c r="N42" t="n">
-        <v>483.389033827116</v>
+        <v>483.3890338271159</v>
       </c>
       <c r="O42" t="n">
-        <v>442.2065282385801</v>
+        <v>442.20652823858</v>
       </c>
       <c r="P42" t="n">
         <v>354.9097245276476</v>
@@ -34234,16 +34234,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R42" t="n">
-        <v>115.3957935691438</v>
+        <v>115.3957935691437</v>
       </c>
       <c r="S42" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T42" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550369</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1222758479469594</v>
+        <v>0.1222758479469593</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,10 +34283,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H43" t="n">
-        <v>13.85365312018075</v>
+        <v>13.85365312018074</v>
       </c>
       <c r="I43" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940479</v>
       </c>
       <c r="J43" t="n">
         <v>110.1634563554658</v>
@@ -34319,10 +34319,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T43" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800556</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08499173693362426</v>
+        <v>0.08499173693362425</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,19 +34359,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.473699130955491</v>
+        <v>3.47369913095549</v>
       </c>
       <c r="H44" t="n">
-        <v>35.57502122489793</v>
+        <v>35.57502122489792</v>
       </c>
       <c r="I44" t="n">
         <v>133.9197857461617</v>
       </c>
       <c r="J44" t="n">
-        <v>294.8258716159339</v>
+        <v>294.8258716159338</v>
       </c>
       <c r="K44" t="n">
-        <v>441.8675558292799</v>
+        <v>441.8675558292798</v>
       </c>
       <c r="L44" t="n">
         <v>548.1757756082591</v>
@@ -34380,10 +34380,10 @@
         <v>609.9511725283887</v>
       </c>
       <c r="N44" t="n">
-        <v>619.8208201842161</v>
+        <v>619.820820184216</v>
       </c>
       <c r="O44" t="n">
-        <v>585.2792244507774</v>
+        <v>585.2792244507773</v>
       </c>
       <c r="P44" t="n">
         <v>499.5222771553136</v>
@@ -34392,10 +34392,10 @@
         <v>375.12042702797</v>
       </c>
       <c r="R44" t="n">
-        <v>218.2047530348831</v>
+        <v>218.204753034883</v>
       </c>
       <c r="S44" t="n">
-        <v>79.15691894664833</v>
+        <v>79.15691894664832</v>
       </c>
       <c r="T44" t="n">
         <v>15.20611794575767</v>
@@ -34450,19 +34450,19 @@
         <v>175.59626937503</v>
       </c>
       <c r="K45" t="n">
-        <v>300.1219929242134</v>
+        <v>300.1219929242133</v>
       </c>
       <c r="L45" t="n">
         <v>403.551056840948</v>
       </c>
       <c r="M45" t="n">
-        <v>470.9250490597225</v>
+        <v>470.9250490597224</v>
       </c>
       <c r="N45" t="n">
-        <v>483.389033827116</v>
+        <v>483.3890338271159</v>
       </c>
       <c r="O45" t="n">
-        <v>442.2065282385801</v>
+        <v>442.20652823858</v>
       </c>
       <c r="P45" t="n">
         <v>354.9097245276476</v>
@@ -34471,16 +34471,16 @@
         <v>237.2477519098869</v>
       </c>
       <c r="R45" t="n">
-        <v>115.3957935691438</v>
+        <v>115.3957935691437</v>
       </c>
       <c r="S45" t="n">
         <v>34.52254773702482</v>
       </c>
       <c r="T45" t="n">
-        <v>7.49143361755037</v>
+        <v>7.491433617550369</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1222758479469594</v>
+        <v>0.1222758479469593</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,10 +34520,10 @@
         <v>1.558181843783109</v>
       </c>
       <c r="H46" t="n">
-        <v>13.85365312018075</v>
+        <v>13.85365312018074</v>
       </c>
       <c r="I46" t="n">
-        <v>46.8587776294048</v>
+        <v>46.85877762940479</v>
       </c>
       <c r="J46" t="n">
         <v>110.1634563554658</v>
@@ -34556,10 +34556,10 @@
         <v>27.15485995029291</v>
       </c>
       <c r="T46" t="n">
-        <v>6.657686059800557</v>
+        <v>6.657686059800556</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08499173693362426</v>
+        <v>0.08499173693362425</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K11" t="n">
-        <v>221.7777047842994</v>
+        <v>221.7777047842993</v>
       </c>
       <c r="L11" t="n">
-        <v>398.7810628569902</v>
+        <v>312.4093606382718</v>
       </c>
       <c r="M11" t="n">
-        <v>643.2130480342502</v>
+        <v>379.604939301116</v>
       </c>
       <c r="N11" t="n">
-        <v>390.4077565876253</v>
+        <v>390.4077565876251</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1810130290908</v>
+        <v>355.1810130290905</v>
       </c>
       <c r="P11" t="n">
-        <v>268.2892814000442</v>
+        <v>268.289281400044</v>
       </c>
       <c r="Q11" t="n">
-        <v>152.8147371535206</v>
+        <v>267.9815130603172</v>
       </c>
       <c r="R11" t="n">
-        <v>2.619215220750959</v>
+        <v>68.33563509373334</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>174.8496780487722</v>
+        <v>116.3955661721891</v>
       </c>
       <c r="K12" t="n">
-        <v>426.745790962433</v>
+        <v>162.2805539498543</v>
       </c>
       <c r="L12" t="n">
-        <v>264.9966770610739</v>
+        <v>635.8370223645329</v>
       </c>
       <c r="M12" t="n">
-        <v>328.7910151377042</v>
+        <v>328.7910151377041</v>
       </c>
       <c r="N12" t="n">
-        <v>508.3537990621672</v>
+        <v>352.0473217437826</v>
       </c>
       <c r="O12" t="n">
-        <v>299.6102837941357</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P12" t="n">
-        <v>220.9353171133174</v>
+        <v>539.3980857532545</v>
       </c>
       <c r="Q12" t="n">
-        <v>307.3432655597145</v>
+        <v>97.26597782386537</v>
       </c>
       <c r="R12" t="n">
-        <v>15.23795941650064</v>
+        <v>15.23795941650062</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.80427623879308</v>
+        <v>16.80427623879305</v>
       </c>
       <c r="K13" t="n">
-        <v>158.7629078427366</v>
+        <v>158.7629078427365</v>
       </c>
       <c r="L13" t="n">
-        <v>259.2491695623978</v>
+        <v>259.2491695623977</v>
       </c>
       <c r="M13" t="n">
-        <v>283.8359636195875</v>
+        <v>283.8359636195874</v>
       </c>
       <c r="N13" t="n">
-        <v>282.5764903465114</v>
+        <v>282.5764903465113</v>
       </c>
       <c r="O13" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P13" t="n">
-        <v>185.7335706257161</v>
+        <v>185.733570625716</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.31443823090767</v>
+        <v>44.31443823090761</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>113.7799670892476</v>
+        <v>113.7799670892475</v>
       </c>
       <c r="K14" t="n">
-        <v>545.9231173554641</v>
+        <v>221.7777047842993</v>
       </c>
       <c r="L14" t="n">
-        <v>312.4093606382719</v>
+        <v>384.3577610572377</v>
       </c>
       <c r="M14" t="n">
-        <v>379.6049393011161</v>
+        <v>379.604939301116</v>
       </c>
       <c r="N14" t="n">
-        <v>390.4077565876253</v>
+        <v>390.4077565876251</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1810130290908</v>
+        <v>355.1810130290905</v>
       </c>
       <c r="P14" t="n">
-        <v>268.2892814000442</v>
+        <v>268.289281400044</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.6491355342077</v>
+        <v>365.1297278134252</v>
       </c>
       <c r="R14" t="n">
-        <v>2.619215220750959</v>
+        <v>68.33563509373334</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>174.8496780487722</v>
+        <v>174.8496780487721</v>
       </c>
       <c r="K15" t="n">
-        <v>426.745790962433</v>
+        <v>426.7457909624329</v>
       </c>
       <c r="L15" t="n">
-        <v>264.9966770610739</v>
+        <v>264.9966770610738</v>
       </c>
       <c r="M15" t="n">
-        <v>500.3354518725897</v>
+        <v>328.7910151377041</v>
       </c>
       <c r="N15" t="n">
-        <v>352.0473217437827</v>
+        <v>352.0473217437826</v>
       </c>
       <c r="O15" t="n">
-        <v>299.6102837941357</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P15" t="n">
-        <v>220.9353171133174</v>
+        <v>377.2417944317025</v>
       </c>
       <c r="Q15" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>15.23795941650062</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.80427623879308</v>
+        <v>16.80427623879305</v>
       </c>
       <c r="K16" t="n">
-        <v>158.7629078427366</v>
+        <v>158.7629078427365</v>
       </c>
       <c r="L16" t="n">
-        <v>259.2491695623978</v>
+        <v>259.2491695623977</v>
       </c>
       <c r="M16" t="n">
-        <v>283.8359636195875</v>
+        <v>283.8359636195874</v>
       </c>
       <c r="N16" t="n">
-        <v>282.5764903465114</v>
+        <v>282.5764903465113</v>
       </c>
       <c r="O16" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P16" t="n">
-        <v>185.7335706257161</v>
+        <v>185.733570625716</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.31443823090767</v>
+        <v>44.31443823090761</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K17" t="n">
-        <v>221.7777047842994</v>
+        <v>336.9444806910961</v>
       </c>
       <c r="L17" t="n">
-        <v>312.4093606382719</v>
+        <v>312.4093606382718</v>
       </c>
       <c r="M17" t="n">
-        <v>379.6049393011161</v>
+        <v>379.604939301116</v>
       </c>
       <c r="N17" t="n">
-        <v>452.3555325343181</v>
+        <v>390.4077565876251</v>
       </c>
       <c r="O17" t="n">
-        <v>643.2130480342502</v>
+        <v>355.1810130290905</v>
       </c>
       <c r="P17" t="n">
-        <v>268.2892814000442</v>
+        <v>268.289281400044</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.8147371535206</v>
+        <v>152.8147371535205</v>
       </c>
       <c r="R17" t="n">
-        <v>2.619215220750959</v>
+        <v>68.33563509373334</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>48.75864270836337</v>
+        <v>174.8496780487721</v>
       </c>
       <c r="K18" t="n">
-        <v>162.2805539498544</v>
+        <v>426.7457909624329</v>
       </c>
       <c r="L18" t="n">
-        <v>635.8370223645331</v>
+        <v>264.9966770610738</v>
       </c>
       <c r="M18" t="n">
-        <v>328.7910151377042</v>
+        <v>328.7910151377041</v>
       </c>
       <c r="N18" t="n">
-        <v>352.0473217437827</v>
+        <v>352.0473217437826</v>
       </c>
       <c r="O18" t="n">
-        <v>643.2130480342502</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P18" t="n">
-        <v>278.6702043934654</v>
+        <v>377.2417944317025</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.26597782386543</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>15.23795941650062</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.80427623879308</v>
+        <v>16.80427623879305</v>
       </c>
       <c r="K19" t="n">
-        <v>158.7629078427366</v>
+        <v>158.7629078427365</v>
       </c>
       <c r="L19" t="n">
-        <v>259.2491695623978</v>
+        <v>259.2491695623977</v>
       </c>
       <c r="M19" t="n">
-        <v>283.8359636195875</v>
+        <v>283.8359636195874</v>
       </c>
       <c r="N19" t="n">
-        <v>282.5764903465114</v>
+        <v>282.5764903465113</v>
       </c>
       <c r="O19" t="n">
         <v>244.8270488880378</v>
       </c>
       <c r="P19" t="n">
-        <v>185.7335706257161</v>
+        <v>185.733570625716</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.31443823090767</v>
+        <v>44.31443823090761</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K20" t="n">
         <v>221.7777047842993</v>
@@ -36132,19 +36132,19 @@
         <v>379.604939301116</v>
       </c>
       <c r="N20" t="n">
-        <v>390.4077565876252</v>
+        <v>390.4077565876251</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1810130290906</v>
+        <v>355.1810130290905</v>
       </c>
       <c r="P20" t="n">
-        <v>590.0879895715268</v>
+        <v>268.289281400044</v>
       </c>
       <c r="Q20" t="n">
-        <v>180.9958399338902</v>
+        <v>267.9815130603172</v>
       </c>
       <c r="R20" t="n">
-        <v>2.619215220750931</v>
+        <v>68.33563509373334</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487721</v>
       </c>
       <c r="K21" t="n">
-        <v>162.2805539498544</v>
+        <v>426.7457909624329</v>
       </c>
       <c r="L21" t="n">
-        <v>508.6346175090098</v>
+        <v>421.3031543794593</v>
       </c>
       <c r="M21" t="n">
-        <v>328.7910151377042</v>
+        <v>328.7910151377041</v>
       </c>
       <c r="N21" t="n">
         <v>352.0473217437826</v>
@@ -36217,13 +36217,13 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P21" t="n">
-        <v>539.3980857532545</v>
+        <v>220.9353171133174</v>
       </c>
       <c r="Q21" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>15.23795941650062</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879305</v>
       </c>
       <c r="K22" t="n">
-        <v>158.7629078427366</v>
+        <v>158.7629078427365</v>
       </c>
       <c r="L22" t="n">
-        <v>259.2491695623978</v>
+        <v>259.2491695623977</v>
       </c>
       <c r="M22" t="n">
-        <v>283.8359636195875</v>
+        <v>283.8359636195874</v>
       </c>
       <c r="N22" t="n">
         <v>282.5764903465113</v>
@@ -36299,7 +36299,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090761</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>545.923117355464</v>
       </c>
       <c r="L23" t="n">
-        <v>621.6150494093303</v>
+        <v>730.0705751887223</v>
       </c>
       <c r="M23" t="n">
-        <v>829.1184727939485</v>
+        <v>654.946527141575</v>
       </c>
       <c r="N23" t="n">
-        <v>827.7546809996094</v>
+        <v>827.7546809996093</v>
       </c>
       <c r="O23" t="n">
-        <v>735.981194291836</v>
+        <v>735.9811942918359</v>
       </c>
       <c r="P23" t="n">
-        <v>590.0879895715268</v>
+        <v>590.0879895715267</v>
       </c>
       <c r="Q23" t="n">
         <v>365.1297278134252</v>
       </c>
       <c r="R23" t="n">
-        <v>2.619215220750931</v>
+        <v>68.33563509373334</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8496780487722</v>
+        <v>48.75864270836331</v>
       </c>
       <c r="K24" t="n">
-        <v>162.2805539498544</v>
+        <v>426.7457909624329</v>
       </c>
       <c r="L24" t="n">
-        <v>264.9966770610739</v>
+        <v>264.9966770610738</v>
       </c>
       <c r="M24" t="n">
-        <v>794.496078887704</v>
+        <v>328.7910151377041</v>
       </c>
       <c r="N24" t="n">
-        <v>532.4292194770961</v>
+        <v>352.0473217437826</v>
       </c>
       <c r="O24" t="n">
         <v>299.6102837941356</v>
       </c>
       <c r="P24" t="n">
-        <v>220.9353171133174</v>
+        <v>539.3980857532545</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.2659778238654</v>
+        <v>286.5159689950723</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879305</v>
       </c>
       <c r="K25" t="n">
-        <v>158.7629078427366</v>
+        <v>158.7629078427365</v>
       </c>
       <c r="L25" t="n">
-        <v>259.2491695623978</v>
+        <v>259.2491695623977</v>
       </c>
       <c r="M25" t="n">
-        <v>283.8359636195875</v>
+        <v>283.8359636195874</v>
       </c>
       <c r="N25" t="n">
         <v>282.5764903465113</v>
@@ -36536,7 +36536,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090761</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K26" t="n">
         <v>545.923117355464</v>
@@ -36606,19 +36606,19 @@
         <v>829.1184727939485</v>
       </c>
       <c r="N26" t="n">
-        <v>827.7546809996094</v>
+        <v>827.7546809996093</v>
       </c>
       <c r="O26" t="n">
-        <v>730.9058638115362</v>
+        <v>627.5256685124444</v>
       </c>
       <c r="P26" t="n">
-        <v>590.0879895715268</v>
+        <v>590.0879895715267</v>
       </c>
       <c r="Q26" t="n">
         <v>365.1297278134252</v>
       </c>
       <c r="R26" t="n">
-        <v>68.33563509373337</v>
+        <v>2.619215220750903</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8496780487722</v>
+        <v>174.8496780487721</v>
       </c>
       <c r="K27" t="n">
-        <v>162.2805539498544</v>
+        <v>426.7457909624329</v>
       </c>
       <c r="L27" t="n">
-        <v>382.5435821686011</v>
+        <v>421.3031543794593</v>
       </c>
       <c r="M27" t="n">
-        <v>328.7910151377042</v>
+        <v>328.7910151377041</v>
       </c>
       <c r="N27" t="n">
         <v>352.0473217437826</v>
@@ -36691,13 +36691,13 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P27" t="n">
-        <v>539.3980857532545</v>
+        <v>220.9353171133174</v>
       </c>
       <c r="Q27" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>15.23795941650062</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879305</v>
       </c>
       <c r="K28" t="n">
-        <v>158.7629078427366</v>
+        <v>158.7629078427365</v>
       </c>
       <c r="L28" t="n">
-        <v>259.2491695623978</v>
+        <v>259.2491695623977</v>
       </c>
       <c r="M28" t="n">
-        <v>283.8359636195875</v>
+        <v>283.8359636195874</v>
       </c>
       <c r="N28" t="n">
         <v>282.5764903465113</v>
@@ -36773,7 +36773,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090761</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.8765822613213</v>
+        <v>174.4210564819298</v>
       </c>
       <c r="K29" t="n">
         <v>545.923117355464</v>
@@ -36843,19 +36843,19 @@
         <v>829.1184727939485</v>
       </c>
       <c r="N29" t="n">
-        <v>827.7546809996094</v>
+        <v>827.7546809996093</v>
       </c>
       <c r="O29" t="n">
-        <v>735.981194291836</v>
+        <v>735.9811942918359</v>
       </c>
       <c r="P29" t="n">
-        <v>590.0879895715268</v>
+        <v>590.0879895715267</v>
       </c>
       <c r="Q29" t="n">
-        <v>190.9577821610509</v>
+        <v>365.1297278134252</v>
       </c>
       <c r="R29" t="n">
-        <v>68.33563509373337</v>
+        <v>2.619215220750903</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487721</v>
       </c>
       <c r="K30" t="n">
-        <v>162.2805539498544</v>
+        <v>426.7457909624329</v>
       </c>
       <c r="L30" t="n">
-        <v>264.9966770610739</v>
+        <v>264.9966770610738</v>
       </c>
       <c r="M30" t="n">
-        <v>707.106692684697</v>
+        <v>328.7910151377041</v>
       </c>
       <c r="N30" t="n">
         <v>352.0473217437826</v>
       </c>
       <c r="O30" t="n">
-        <v>693.4726030708651</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P30" t="n">
-        <v>220.9353171133174</v>
+        <v>377.2417944317025</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.2659778238654</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>15.23795941650062</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879305</v>
       </c>
       <c r="K31" t="n">
-        <v>158.7629078427366</v>
+        <v>158.7629078427365</v>
       </c>
       <c r="L31" t="n">
-        <v>259.2491695623978</v>
+        <v>259.2491695623977</v>
       </c>
       <c r="M31" t="n">
-        <v>283.8359636195875</v>
+        <v>283.8359636195874</v>
       </c>
       <c r="N31" t="n">
         <v>282.5764903465113</v>
@@ -37010,7 +37010,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090761</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.8765822613213</v>
+        <v>113.7799670892475</v>
       </c>
       <c r="K32" t="n">
         <v>545.923117355464</v>
@@ -37080,19 +37080,19 @@
         <v>829.1184727939485</v>
       </c>
       <c r="N32" t="n">
-        <v>827.7546809996094</v>
+        <v>822.6793505193103</v>
       </c>
       <c r="O32" t="n">
-        <v>735.981194291836</v>
+        <v>735.9811942918359</v>
       </c>
       <c r="P32" t="n">
-        <v>415.9160439191528</v>
+        <v>590.0879895715267</v>
       </c>
       <c r="Q32" t="n">
         <v>365.1297278134252</v>
       </c>
       <c r="R32" t="n">
-        <v>68.33563509373337</v>
+        <v>68.33563509373334</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487721</v>
       </c>
       <c r="K33" t="n">
-        <v>426.745790962433</v>
+        <v>426.7457909624329</v>
       </c>
       <c r="L33" t="n">
-        <v>264.9966770610739</v>
+        <v>264.9966770610738</v>
       </c>
       <c r="M33" t="n">
-        <v>328.7910151377042</v>
+        <v>328.7910151377041</v>
       </c>
       <c r="N33" t="n">
         <v>352.0473217437826</v>
@@ -37165,13 +37165,13 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P33" t="n">
-        <v>539.3980857532545</v>
+        <v>377.2417944317025</v>
       </c>
       <c r="Q33" t="n">
-        <v>286.5159689950718</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>15.23795941650062</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879305</v>
       </c>
       <c r="K34" t="n">
-        <v>158.7629078427366</v>
+        <v>158.7629078427365</v>
       </c>
       <c r="L34" t="n">
-        <v>259.2491695623978</v>
+        <v>259.2491695623977</v>
       </c>
       <c r="M34" t="n">
-        <v>283.8359636195875</v>
+        <v>283.8359636195874</v>
       </c>
       <c r="N34" t="n">
         <v>282.5764903465113</v>
@@ -37247,7 +37247,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090761</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K35" t="n">
-        <v>221.7777047842993</v>
+        <v>336.9444806910961</v>
       </c>
       <c r="L35" t="n">
-        <v>374.3571365849651</v>
+        <v>312.4093606382718</v>
       </c>
       <c r="M35" t="n">
         <v>379.604939301116</v>
       </c>
       <c r="N35" t="n">
-        <v>390.4077565876252</v>
+        <v>390.4077565876251</v>
       </c>
       <c r="O35" t="n">
-        <v>643.2130480342502</v>
+        <v>355.1810130290905</v>
       </c>
       <c r="P35" t="n">
-        <v>268.2892814000441</v>
+        <v>268.289281400044</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.8147371535206</v>
+        <v>152.8147371535205</v>
       </c>
       <c r="R35" t="n">
-        <v>2.619215220750931</v>
+        <v>68.33563509373334</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>48.75864270836334</v>
+        <v>48.75864270836331</v>
       </c>
       <c r="K36" t="n">
-        <v>162.2805539498544</v>
+        <v>426.7457909624329</v>
       </c>
       <c r="L36" t="n">
-        <v>389.0519129318124</v>
+        <v>264.9966770610738</v>
       </c>
       <c r="M36" t="n">
-        <v>643.2130480342502</v>
+        <v>328.7910151377041</v>
       </c>
       <c r="N36" t="n">
         <v>352.0473217437826</v>
@@ -37405,10 +37405,10 @@
         <v>539.3980857532545</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.2659778238654</v>
+        <v>271.2780095785717</v>
       </c>
       <c r="R36" t="n">
-        <v>15.23795941650063</v>
+        <v>15.23795941650062</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879305</v>
       </c>
       <c r="K37" t="n">
-        <v>158.7629078427366</v>
+        <v>158.7629078427365</v>
       </c>
       <c r="L37" t="n">
-        <v>259.2491695623978</v>
+        <v>259.2491695623977</v>
       </c>
       <c r="M37" t="n">
-        <v>283.8359636195875</v>
+        <v>283.8359636195874</v>
       </c>
       <c r="N37" t="n">
         <v>282.5764903465113</v>
@@ -37484,7 +37484,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090761</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K38" t="n">
-        <v>221.7777047842993</v>
+        <v>336.9444806910961</v>
       </c>
       <c r="L38" t="n">
         <v>312.4093606382718</v>
       </c>
       <c r="M38" t="n">
-        <v>643.2130480342502</v>
+        <v>379.604939301116</v>
       </c>
       <c r="N38" t="n">
-        <v>476.7794588063439</v>
+        <v>390.4077565876251</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1810130290906</v>
+        <v>355.1810130290905</v>
       </c>
       <c r="P38" t="n">
-        <v>268.2892814000441</v>
+        <v>268.289281400044</v>
       </c>
       <c r="Q38" t="n">
-        <v>152.8147371535206</v>
+        <v>152.8147371535205</v>
       </c>
       <c r="R38" t="n">
-        <v>2.619215220750931</v>
+        <v>68.33563509373334</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487721</v>
       </c>
       <c r="K39" t="n">
-        <v>162.2805539498544</v>
+        <v>426.7457909624329</v>
       </c>
       <c r="L39" t="n">
-        <v>264.9966770610739</v>
+        <v>421.3031543794593</v>
       </c>
       <c r="M39" t="n">
-        <v>328.7910151377042</v>
+        <v>328.7910151377041</v>
       </c>
       <c r="N39" t="n">
-        <v>643.2130480342502</v>
+        <v>352.0473217437826</v>
       </c>
       <c r="O39" t="n">
-        <v>643.2130480342502</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P39" t="n">
         <v>220.9353171133174</v>
       </c>
       <c r="Q39" t="n">
-        <v>234.6754841170055</v>
+        <v>307.3432655597145</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>15.23795941650062</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879305</v>
       </c>
       <c r="K40" t="n">
-        <v>158.7629078427366</v>
+        <v>158.7629078427365</v>
       </c>
       <c r="L40" t="n">
-        <v>259.2491695623978</v>
+        <v>259.2491695623977</v>
       </c>
       <c r="M40" t="n">
-        <v>283.8359636195875</v>
+        <v>283.8359636195874</v>
       </c>
       <c r="N40" t="n">
         <v>282.5764903465113</v>
@@ -37721,7 +37721,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090761</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K41" t="n">
-        <v>221.7777047842993</v>
+        <v>336.9444806910961</v>
       </c>
       <c r="L41" t="n">
         <v>312.4093606382718</v>
       </c>
       <c r="M41" t="n">
-        <v>517.269759593064</v>
+        <v>379.604939301116</v>
       </c>
       <c r="N41" t="n">
-        <v>390.4077565876252</v>
+        <v>390.4077565876251</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1810130290906</v>
+        <v>355.1810130290905</v>
       </c>
       <c r="P41" t="n">
-        <v>268.2892814000441</v>
+        <v>268.289281400044</v>
       </c>
       <c r="Q41" t="n">
-        <v>365.1297278134252</v>
+        <v>152.8147371535205</v>
       </c>
       <c r="R41" t="n">
-        <v>2.619215220750931</v>
+        <v>68.33563509373334</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8496780487722</v>
+        <v>174.8496780487721</v>
       </c>
       <c r="K42" t="n">
-        <v>162.2805539498544</v>
+        <v>426.7457909624329</v>
       </c>
       <c r="L42" t="n">
-        <v>264.9966770610739</v>
+        <v>264.9966770610738</v>
       </c>
       <c r="M42" t="n">
-        <v>405.9599652285532</v>
+        <v>328.7910151377041</v>
       </c>
       <c r="N42" t="n">
         <v>352.0473217437826</v>
       </c>
       <c r="O42" t="n">
-        <v>643.2130480342502</v>
+        <v>299.6102837941356</v>
       </c>
       <c r="P42" t="n">
-        <v>220.9353171133174</v>
+        <v>377.2417944317025</v>
       </c>
       <c r="Q42" t="n">
         <v>307.3432655597145</v>
       </c>
       <c r="R42" t="n">
-        <v>15.23795941650063</v>
+        <v>15.23795941650062</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879305</v>
       </c>
       <c r="K43" t="n">
-        <v>158.7629078427366</v>
+        <v>158.7629078427365</v>
       </c>
       <c r="L43" t="n">
-        <v>259.2491695623978</v>
+        <v>259.2491695623977</v>
       </c>
       <c r="M43" t="n">
-        <v>283.8359636195875</v>
+        <v>283.8359636195874</v>
       </c>
       <c r="N43" t="n">
         <v>282.5764903465113</v>
@@ -37958,7 +37958,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090761</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>113.7799670892476</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K44" t="n">
-        <v>249.9588075646694</v>
+        <v>221.7777047842993</v>
       </c>
       <c r="L44" t="n">
         <v>312.4093606382718</v>
@@ -38028,19 +38028,19 @@
         <v>379.604939301116</v>
       </c>
       <c r="N44" t="n">
-        <v>390.4077565876252</v>
+        <v>390.4077565876251</v>
       </c>
       <c r="O44" t="n">
-        <v>355.1810130290906</v>
+        <v>355.1810130290905</v>
       </c>
       <c r="P44" t="n">
-        <v>590.0879895715268</v>
+        <v>268.289281400044</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.8147371535206</v>
+        <v>333.6979329332997</v>
       </c>
       <c r="R44" t="n">
-        <v>2.619215220750931</v>
+        <v>2.619215220750903</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>48.75864270836334</v>
+        <v>174.8496780487721</v>
       </c>
       <c r="K45" t="n">
-        <v>426.745790962433</v>
+        <v>426.7457909624329</v>
       </c>
       <c r="L45" t="n">
-        <v>264.9966770610739</v>
+        <v>312.9176734753713</v>
       </c>
       <c r="M45" t="n">
-        <v>328.7910151377042</v>
+        <v>328.7910151377041</v>
       </c>
       <c r="N45" t="n">
         <v>352.0473217437826</v>
@@ -38113,13 +38113,13 @@
         <v>299.6102837941356</v>
       </c>
       <c r="P45" t="n">
-        <v>518.5707891886118</v>
+        <v>539.3980857532545</v>
       </c>
       <c r="Q45" t="n">
-        <v>307.3432655597145</v>
+        <v>97.26597782386537</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>15.23795941650062</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.80427623879307</v>
+        <v>16.80427623879305</v>
       </c>
       <c r="K46" t="n">
-        <v>158.7629078427366</v>
+        <v>158.7629078427365</v>
       </c>
       <c r="L46" t="n">
-        <v>259.2491695623978</v>
+        <v>259.2491695623977</v>
       </c>
       <c r="M46" t="n">
-        <v>283.8359636195875</v>
+        <v>283.8359636195874</v>
       </c>
       <c r="N46" t="n">
         <v>282.5764903465113</v>
@@ -38195,7 +38195,7 @@
         <v>185.733570625716</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.31443823090764</v>
+        <v>44.31443823090761</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2051834.568814045</v>
+        <v>2071885.421063482</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4652905.835522321</v>
+        <v>4652905.83552232</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8552551.226751389</v>
+        <v>8552551.226751387</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>282.3748203753092</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>149.8604030773901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.4849242744168</v>
       </c>
       <c r="H12" t="n">
-        <v>94.28534975788284</v>
+        <v>94.28534975788318</v>
       </c>
       <c r="I12" t="n">
-        <v>25.40560575917296</v>
+        <v>25.40560575917306</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>91.35226042841491</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S13" t="n">
-        <v>174.8371603966348</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T13" t="n">
         <v>221.2879033684809</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>22.54128590669554</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V14" t="n">
-        <v>271.1592378008448</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I15" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917306</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.2879033684809</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>264.4984206465465</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>28.4031977500652</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>188.8210800356605</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.8290383841796</v>
       </c>
       <c r="H17" t="n">
-        <v>225.6933440374448</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>129.8631506395971</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I18" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917306</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>38.11128387286533</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>221.2879033684809</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>203.6850776989922</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>369.6834040542145</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>411.8290383841796</v>
       </c>
       <c r="H20" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>129.863150639597</v>
+        <v>129.8631506395971</v>
       </c>
       <c r="T20" t="n">
         <v>207.8897316183737</v>
@@ -2140,16 +2140,16 @@
         <v>251.0677569773601</v>
       </c>
       <c r="V20" t="n">
-        <v>15.78391223969306</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I21" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917306</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>192.6732950772712</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8191062330277</v>
+        <v>225.8191062330279</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>124.8463524259026</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>196.8617380866793</v>
       </c>
       <c r="T22" t="n">
-        <v>199.2633256784364</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2340376195573</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>129.863150639597</v>
+        <v>129.8631506395971</v>
       </c>
       <c r="T23" t="n">
-        <v>207.8897316183737</v>
+        <v>207.8897316183739</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0677569773602</v>
+        <v>251.0677569773593</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I24" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917306</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.0131831582916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>70.87203556024674</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2340376195573</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.8290383841796</v>
+        <v>411.8290383841785</v>
       </c>
       <c r="H26" t="n">
         <v>303.8997808908692</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>129.863150639597</v>
+        <v>129.8631506395971</v>
       </c>
       <c r="T26" t="n">
         <v>207.8897316183737</v>
@@ -2654,7 +2654,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I27" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917306</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>28.92493739480856</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>96.45320813410692</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U28" t="n">
         <v>286.2340376195573</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>129.863150639597</v>
+        <v>129.8631506395971</v>
       </c>
       <c r="T29" t="n">
-        <v>207.8897316183739</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U29" t="n">
         <v>251.0677569773602</v>
@@ -2891,7 +2891,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I30" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917306</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.40608748878819</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>174.8371603966348</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T31" t="n">
         <v>221.2879033684809</v>
@@ -3009,16 +3009,16 @@
         <v>286.2340376195573</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>129.863150639597</v>
+        <v>129.8631506395971</v>
       </c>
       <c r="T32" t="n">
         <v>207.8897316183739</v>
@@ -3128,7 +3128,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I33" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917306</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>174.8371603966344</v>
       </c>
       <c r="T34" t="n">
         <v>221.2879033684809</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>60.91345076587182</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3268,16 +3268,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>246.0328356748313</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>411.8290383841796</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>31.43791988302625</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I36" t="n">
-        <v>25.40560575917296</v>
+        <v>25.40560575917306</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>137.160623366813</v>
+        <v>137.1606233668129</v>
       </c>
       <c r="T36" t="n">
         <v>192.6732950772712</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U37" t="n">
         <v>286.2340376195573</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>11.5284122816882</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>160.5513770143814</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>102.415718930007</v>
       </c>
       <c r="G38" t="n">
-        <v>253.6871066507942</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H38" t="n">
         <v>303.8997808908692</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>129.863150639597</v>
+        <v>129.8631506395971</v>
       </c>
       <c r="T38" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I39" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917306</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>137.160623366813</v>
+        <v>137.1606233668133</v>
       </c>
       <c r="T39" t="n">
         <v>192.6732950772712</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.7782132155363</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>222.3993274292713</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>156.842861615162</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8290383841796</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>129.8631506395971</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>206.51161610588</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I42" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917306</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4327975146757</v>
@@ -3918,7 +3918,7 @@
         <v>148.3735193872588</v>
       </c>
       <c r="I43" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.25410903988991</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>40.28018891235157</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>129.8631506395971</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>201.823821020672</v>
       </c>
       <c r="W44" t="n">
-        <v>156.8428616151617</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498677</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4076,7 +4076,7 @@
         <v>94.28534975788284</v>
       </c>
       <c r="I45" t="n">
-        <v>25.40560575917304</v>
+        <v>25.40560575917306</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609195</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H46" t="n">
         <v>148.3735193872588</v>
       </c>
       <c r="I46" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>183.6302434286442</v>
+        <v>192.7924406795575</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>769.4124242796902</v>
+        <v>1502.420809459195</v>
       </c>
       <c r="C11" t="n">
-        <v>769.4124242796902</v>
+        <v>1133.458292518783</v>
       </c>
       <c r="D11" t="n">
-        <v>769.4124242796902</v>
+        <v>848.2312012305918</v>
       </c>
       <c r="E11" t="n">
-        <v>769.4124242796902</v>
+        <v>462.4429486323476</v>
       </c>
       <c r="F11" t="n">
-        <v>358.4265194900827</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="G11" t="n">
-        <v>358.4265194900827</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H11" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I11" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J11" t="n">
         <v>331.5048602814481</v>
@@ -5047,46 +5047,46 @@
         <v>551.0647880179043</v>
       </c>
       <c r="L11" t="n">
-        <v>860.3500550497935</v>
+        <v>860.3500550497934</v>
       </c>
       <c r="M11" t="n">
-        <v>1236.158944957898</v>
+        <v>1415.233308779881</v>
       </c>
       <c r="N11" t="n">
-        <v>1622.662623979647</v>
+        <v>1801.736987801629</v>
       </c>
       <c r="O11" t="n">
-        <v>1974.291826878447</v>
+        <v>2153.366190700429</v>
       </c>
       <c r="P11" t="n">
-        <v>2239.89821546449</v>
+        <v>2418.972579286472</v>
       </c>
       <c r="Q11" t="n">
-        <v>2505.199913394204</v>
+        <v>2570.259169068458</v>
       </c>
       <c r="R11" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S11" t="n">
-        <v>2441.677292501044</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="T11" t="n">
-        <v>2231.687664603697</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U11" t="n">
-        <v>1978.083869677071</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="V11" t="n">
-        <v>1647.0209823335</v>
+        <v>2241.78930479343</v>
       </c>
       <c r="W11" t="n">
-        <v>1294.252327063386</v>
+        <v>1889.020649523316</v>
       </c>
       <c r="X11" t="n">
-        <v>920.7865688023064</v>
+        <v>1889.020649523316</v>
       </c>
       <c r="Y11" t="n">
-        <v>769.4124242796902</v>
+        <v>1889.020649523316</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>938.3699096944692</v>
+        <v>938.3699096944697</v>
       </c>
       <c r="C12" t="n">
-        <v>763.9168804133423</v>
+        <v>763.9168804133427</v>
       </c>
       <c r="D12" t="n">
-        <v>614.982470752091</v>
+        <v>614.9824707520914</v>
       </c>
       <c r="E12" t="n">
-        <v>455.7450157466355</v>
+        <v>455.7450157466359</v>
       </c>
       <c r="F12" t="n">
-        <v>309.2104577735205</v>
+        <v>309.2104577735209</v>
       </c>
       <c r="G12" t="n">
-        <v>172.3569989104732</v>
+        <v>172.3569989104736</v>
       </c>
       <c r="H12" t="n">
-        <v>77.11927188230867</v>
+        <v>77.11927188230877</v>
       </c>
       <c r="I12" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J12" t="n">
-        <v>166.6886543532072</v>
+        <v>99.7281001240197</v>
       </c>
       <c r="K12" t="n">
-        <v>327.346402763563</v>
+        <v>522.2064331768283</v>
       </c>
       <c r="L12" t="n">
-        <v>956.8250549044506</v>
+        <v>1079.212260821834</v>
       </c>
       <c r="M12" t="n">
-        <v>1282.328159890778</v>
+        <v>1404.715365808161</v>
       </c>
       <c r="N12" t="n">
-        <v>1630.855008417122</v>
+        <v>1753.242214334506</v>
       </c>
       <c r="O12" t="n">
-        <v>1927.469189373317</v>
+        <v>2049.8563952907</v>
       </c>
       <c r="P12" t="n">
-        <v>2461.473294269038</v>
+        <v>2268.582359232884</v>
       </c>
       <c r="Q12" t="n">
-        <v>2557.766612314665</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="R12" t="n">
         <v>2572.852192137001</v>
@@ -5150,10 +5150,10 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T12" t="n">
-        <v>2239.686617951057</v>
+        <v>2239.686617951058</v>
       </c>
       <c r="U12" t="n">
-        <v>2011.586510644968</v>
+        <v>2011.586510644969</v>
       </c>
       <c r="V12" t="n">
         <v>1776.434402413226</v>
@@ -5162,10 +5162,10 @@
         <v>1522.197045685024</v>
       </c>
       <c r="X12" t="n">
-        <v>1314.345545479491</v>
+        <v>1314.345545479492</v>
       </c>
       <c r="Y12" t="n">
-        <v>1106.585246714537</v>
+        <v>1106.585246714538</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.45704384274001</v>
+        <v>572.47345984588</v>
       </c>
       <c r="C13" t="n">
-        <v>51.45704384274001</v>
+        <v>403.5372769179731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.45704384274001</v>
+        <v>253.4206375056374</v>
       </c>
       <c r="E13" t="n">
-        <v>51.45704384274001</v>
+        <v>253.4206375056374</v>
       </c>
       <c r="F13" t="n">
-        <v>51.45704384274001</v>
+        <v>253.4206375056374</v>
       </c>
       <c r="G13" t="n">
-        <v>51.45704384274001</v>
+        <v>161.145626971885</v>
       </c>
       <c r="H13" t="n">
-        <v>51.45704384274001</v>
+        <v>161.145626971885</v>
       </c>
       <c r="I13" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J13" t="n">
         <v>68.09327731914513</v>
@@ -5208,10 +5208,10 @@
         <v>481.9252339502279</v>
       </c>
       <c r="M13" t="n">
-        <v>762.9228379336195</v>
+        <v>762.9228379336193</v>
       </c>
       <c r="N13" t="n">
-        <v>1042.673563376666</v>
+        <v>1042.673563376665</v>
       </c>
       <c r="O13" t="n">
         <v>1285.052341775823</v>
@@ -5220,31 +5220,31 @@
         <v>1468.928576695282</v>
       </c>
       <c r="Q13" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="R13" t="n">
-        <v>1512.799870543881</v>
+        <v>1404.48485078137</v>
       </c>
       <c r="S13" t="n">
-        <v>1336.196678224047</v>
+        <v>1205.634610289774</v>
       </c>
       <c r="T13" t="n">
-        <v>1112.67354350841</v>
+        <v>982.1114755741371</v>
       </c>
       <c r="U13" t="n">
-        <v>823.5482529836048</v>
+        <v>982.1114755741371</v>
       </c>
       <c r="V13" t="n">
-        <v>568.863764777718</v>
+        <v>982.1114755741371</v>
       </c>
       <c r="W13" t="n">
-        <v>279.4465947407573</v>
+        <v>982.1114755741371</v>
       </c>
       <c r="X13" t="n">
-        <v>51.45704384274001</v>
+        <v>754.1219246761198</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.45704384274001</v>
+        <v>754.1219246761198</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1571.189604538722</v>
+        <v>485.2119242956764</v>
       </c>
       <c r="C14" t="n">
-        <v>1571.189604538722</v>
+        <v>462.4429486323476</v>
       </c>
       <c r="D14" t="n">
-        <v>1571.189604538722</v>
+        <v>462.4429486323476</v>
       </c>
       <c r="E14" t="n">
-        <v>1185.401351940478</v>
+        <v>462.4429486323476</v>
       </c>
       <c r="F14" t="n">
-        <v>774.4154471508701</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="G14" t="n">
-        <v>358.4265194900827</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H14" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I14" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J14" t="n">
         <v>164.0992112610951</v>
@@ -5284,13 +5284,13 @@
         <v>383.6591389975513</v>
       </c>
       <c r="L14" t="n">
-        <v>764.1733224442166</v>
+        <v>764.1733224442175</v>
       </c>
       <c r="M14" t="n">
         <v>1139.982212352322</v>
       </c>
       <c r="N14" t="n">
-        <v>1526.48589137407</v>
+        <v>1526.485891374071</v>
       </c>
       <c r="O14" t="n">
         <v>1878.11509427287</v>
@@ -5299,31 +5299,31 @@
         <v>2143.721482858914</v>
       </c>
       <c r="Q14" t="n">
-        <v>2505.199913394204</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R14" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S14" t="n">
-        <v>2441.677292501044</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="T14" t="n">
-        <v>2231.687664603697</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U14" t="n">
-        <v>2231.687664603697</v>
+        <v>2319.248397210375</v>
       </c>
       <c r="V14" t="n">
-        <v>1957.789444602844</v>
+        <v>1988.185509866804</v>
       </c>
       <c r="W14" t="n">
-        <v>1957.789444602844</v>
+        <v>1635.41685459669</v>
       </c>
       <c r="X14" t="n">
-        <v>1957.789444602844</v>
+        <v>1261.95109633561</v>
       </c>
       <c r="Y14" t="n">
-        <v>1957.789444602844</v>
+        <v>871.8117643597982</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>455.7450157466355</v>
       </c>
       <c r="F15" t="n">
-        <v>309.2104577735206</v>
+        <v>309.2104577735205</v>
       </c>
       <c r="G15" t="n">
         <v>172.3569989104732</v>
@@ -5354,31 +5354,31 @@
         <v>77.11927188230874</v>
       </c>
       <c r="I15" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J15" t="n">
-        <v>224.5582251110244</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K15" t="n">
         <v>647.036558163833</v>
       </c>
       <c r="L15" t="n">
-        <v>909.3832684542961</v>
+        <v>1064.126680999499</v>
       </c>
       <c r="M15" t="n">
-        <v>1234.886373440623</v>
+        <v>1389.629785985825</v>
       </c>
       <c r="N15" t="n">
-        <v>1583.413221966968</v>
+        <v>1738.15663451217</v>
       </c>
       <c r="O15" t="n">
-        <v>1880.027402923162</v>
+        <v>2034.770815468364</v>
       </c>
       <c r="P15" t="n">
         <v>2253.496779410548</v>
       </c>
       <c r="Q15" t="n">
-        <v>2557.766612314665</v>
+        <v>2557.766612314666</v>
       </c>
       <c r="R15" t="n">
         <v>2572.852192137001</v>
@@ -5387,7 +5387,7 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T15" t="n">
-        <v>2239.686617951057</v>
+        <v>2239.686617951058</v>
       </c>
       <c r="U15" t="n">
         <v>2011.586510644968</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.45704384274001</v>
+        <v>199.3701374251331</v>
       </c>
       <c r="C16" t="n">
-        <v>51.45704384274001</v>
+        <v>199.3701374251331</v>
       </c>
       <c r="D16" t="n">
-        <v>51.45704384274001</v>
+        <v>199.3701374251331</v>
       </c>
       <c r="E16" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="F16" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="G16" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H16" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I16" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J16" t="n">
         <v>68.09327731914513</v>
@@ -5445,10 +5445,10 @@
         <v>481.9252339502279</v>
       </c>
       <c r="M16" t="n">
-        <v>762.9228379336195</v>
+        <v>762.9228379336193</v>
       </c>
       <c r="N16" t="n">
-        <v>1042.673563376666</v>
+        <v>1042.673563376665</v>
       </c>
       <c r="O16" t="n">
         <v>1285.052341775823</v>
@@ -5457,31 +5457,31 @@
         <v>1468.928576695282</v>
       </c>
       <c r="Q16" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="R16" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.949630052285</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="T16" t="n">
-        <v>1090.426495336648</v>
+        <v>1289.276735828243</v>
       </c>
       <c r="U16" t="n">
-        <v>801.3012048118427</v>
+        <v>1000.151445303438</v>
       </c>
       <c r="V16" t="n">
-        <v>546.6167166059558</v>
+        <v>745.4669570975507</v>
       </c>
       <c r="W16" t="n">
-        <v>279.4465947407573</v>
+        <v>456.0497870605901</v>
       </c>
       <c r="X16" t="n">
-        <v>51.45704384274001</v>
+        <v>228.0602361625727</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.45704384274001</v>
+        <v>199.3701374251331</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1422.647261835987</v>
+        <v>1454.948492563764</v>
       </c>
       <c r="C17" t="n">
-        <v>1053.684744895576</v>
+        <v>1454.948492563764</v>
       </c>
       <c r="D17" t="n">
-        <v>695.4190462888253</v>
+        <v>1264.220128891379</v>
       </c>
       <c r="E17" t="n">
-        <v>695.4190462888253</v>
+        <v>878.431876293135</v>
       </c>
       <c r="F17" t="n">
-        <v>695.4190462888253</v>
+        <v>467.4459715035275</v>
       </c>
       <c r="G17" t="n">
-        <v>279.4301186280378</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H17" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I17" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J17" t="n">
         <v>331.5048602814481</v>
       </c>
       <c r="K17" t="n">
-        <v>665.0798961656333</v>
+        <v>551.0647880179043</v>
       </c>
       <c r="L17" t="n">
-        <v>974.3651631975224</v>
+        <v>860.3500550497934</v>
       </c>
       <c r="M17" t="n">
-        <v>1350.174053105627</v>
+        <v>1236.158944957898</v>
       </c>
       <c r="N17" t="n">
-        <v>1736.677732127376</v>
+        <v>1622.662623979647</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.306935026176</v>
+        <v>1974.291826878446</v>
       </c>
       <c r="P17" t="n">
-        <v>2353.913323612219</v>
+        <v>2239.89821546449</v>
       </c>
       <c r="Q17" t="n">
-        <v>2505.199913394204</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R17" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S17" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501045</v>
       </c>
       <c r="T17" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="U17" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="V17" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="W17" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="X17" t="n">
-        <v>2199.386433875921</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="Y17" t="n">
-        <v>1809.247101900109</v>
+        <v>1841.548332627885</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>938.3699096944694</v>
+        <v>938.3699096944692</v>
       </c>
       <c r="C18" t="n">
-        <v>763.9168804133424</v>
+        <v>763.9168804133423</v>
       </c>
       <c r="D18" t="n">
-        <v>614.9824707520911</v>
+        <v>614.9824707520909</v>
       </c>
       <c r="E18" t="n">
-        <v>455.7450157466357</v>
+        <v>455.7450157466353</v>
       </c>
       <c r="F18" t="n">
-        <v>309.2104577735206</v>
+        <v>309.2104577735204</v>
       </c>
       <c r="G18" t="n">
         <v>172.3569989104732</v>
       </c>
       <c r="H18" t="n">
-        <v>77.11927188230874</v>
+        <v>77.11927188230877</v>
       </c>
       <c r="I18" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J18" t="n">
-        <v>224.5582251110244</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K18" t="n">
         <v>647.036558163833</v>
       </c>
       <c r="L18" t="n">
-        <v>909.3832684542961</v>
+        <v>1272.103195857989</v>
       </c>
       <c r="M18" t="n">
-        <v>1234.886373440623</v>
+        <v>1597.606300844316</v>
       </c>
       <c r="N18" t="n">
-        <v>1583.413221966968</v>
+        <v>1946.133149370661</v>
       </c>
       <c r="O18" t="n">
-        <v>1880.027402923162</v>
+        <v>2242.747330326855</v>
       </c>
       <c r="P18" t="n">
-        <v>2253.496779410548</v>
+        <v>2461.473294269039</v>
       </c>
       <c r="Q18" t="n">
-        <v>2557.766612314665</v>
+        <v>2557.766612314666</v>
       </c>
       <c r="R18" t="n">
         <v>2572.852192137001</v>
@@ -5624,7 +5624,7 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T18" t="n">
-        <v>2239.686617951057</v>
+        <v>2239.686617951058</v>
       </c>
       <c r="U18" t="n">
         <v>2011.586510644968</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>386.9598770892137</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="C19" t="n">
-        <v>386.9598770892137</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="D19" t="n">
-        <v>236.843237676878</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="E19" t="n">
-        <v>236.843237676878</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="F19" t="n">
-        <v>89.95329017896762</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="G19" t="n">
-        <v>89.95329017896762</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H19" t="n">
-        <v>89.95329017896762</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I19" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J19" t="n">
         <v>68.09327731914513</v>
@@ -5682,10 +5682,10 @@
         <v>481.9252339502279</v>
       </c>
       <c r="M19" t="n">
-        <v>762.9228379336195</v>
+        <v>762.9228379336193</v>
       </c>
       <c r="N19" t="n">
-        <v>1042.673563376666</v>
+        <v>1042.673563376665</v>
       </c>
       <c r="O19" t="n">
         <v>1285.052341775823</v>
@@ -5694,10 +5694,10 @@
         <v>1468.928576695282</v>
       </c>
       <c r="Q19" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="R19" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="S19" t="n">
         <v>1313.949630052285</v>
@@ -5706,19 +5706,19 @@
         <v>1090.426495336648</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.426495336648</v>
+        <v>801.3012048118422</v>
       </c>
       <c r="V19" t="n">
-        <v>835.7420071307612</v>
+        <v>546.6167166059554</v>
       </c>
       <c r="W19" t="n">
-        <v>835.7420071307612</v>
+        <v>257.1995465689948</v>
       </c>
       <c r="X19" t="n">
-        <v>607.7524562327438</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="Y19" t="n">
-        <v>386.9598770892137</v>
+        <v>51.45704384274002</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1185.401351940478</v>
+        <v>878.431876293135</v>
       </c>
       <c r="C20" t="n">
-        <v>1185.401351940478</v>
+        <v>878.431876293135</v>
       </c>
       <c r="D20" t="n">
-        <v>1185.401351940478</v>
+        <v>878.431876293135</v>
       </c>
       <c r="E20" t="n">
-        <v>1185.401351940478</v>
+        <v>878.431876293135</v>
       </c>
       <c r="F20" t="n">
-        <v>774.4154471508701</v>
+        <v>467.4459715035275</v>
       </c>
       <c r="G20" t="n">
-        <v>358.4265194900827</v>
+        <v>51.45704384274001</v>
       </c>
       <c r="H20" t="n">
         <v>51.45704384274001</v>
@@ -5752,25 +5752,25 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J20" t="n">
-        <v>331.5048602814481</v>
+        <v>164.0992112610951</v>
       </c>
       <c r="K20" t="n">
-        <v>551.0647880179043</v>
+        <v>454.8880554123281</v>
       </c>
       <c r="L20" t="n">
-        <v>860.3500550497935</v>
+        <v>764.1733224442171</v>
       </c>
       <c r="M20" t="n">
-        <v>1236.158944957898</v>
+        <v>1139.982212352322</v>
       </c>
       <c r="N20" t="n">
-        <v>1622.662623979647</v>
+        <v>1526.48589137407</v>
       </c>
       <c r="O20" t="n">
-        <v>1974.291826878447</v>
+        <v>1878.11509427287</v>
       </c>
       <c r="P20" t="n">
-        <v>2239.89821546449</v>
+        <v>2143.721482858914</v>
       </c>
       <c r="Q20" t="n">
         <v>2505.199913394204</v>
@@ -5788,16 +5788,16 @@
         <v>1978.083869677071</v>
       </c>
       <c r="V20" t="n">
-        <v>1962.140523980411</v>
+        <v>1978.083869677071</v>
       </c>
       <c r="W20" t="n">
-        <v>1962.140523980411</v>
+        <v>1625.315214406957</v>
       </c>
       <c r="X20" t="n">
-        <v>1962.140523980411</v>
+        <v>1251.849456145877</v>
       </c>
       <c r="Y20" t="n">
-        <v>1572.001192004599</v>
+        <v>1251.849456145877</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>938.3699096944695</v>
+        <v>938.3699096944692</v>
       </c>
       <c r="C21" t="n">
-        <v>763.9168804133425</v>
+        <v>763.9168804133423</v>
       </c>
       <c r="D21" t="n">
-        <v>614.9824707520911</v>
+        <v>614.9824707520909</v>
       </c>
       <c r="E21" t="n">
-        <v>455.7450157466357</v>
+        <v>455.7450157466353</v>
       </c>
       <c r="F21" t="n">
-        <v>309.2104577735206</v>
+        <v>309.2104577735204</v>
       </c>
       <c r="G21" t="n">
-        <v>172.3569989104732</v>
+        <v>172.3569989104731</v>
       </c>
       <c r="H21" t="n">
-        <v>77.11927188230874</v>
+        <v>77.11927188230877</v>
       </c>
       <c r="I21" t="n">
         <v>51.45704384274001</v>
@@ -5837,28 +5837,28 @@
         <v>647.036558163833</v>
       </c>
       <c r="L21" t="n">
-        <v>1064.126680999498</v>
+        <v>1079.212260821834</v>
       </c>
       <c r="M21" t="n">
-        <v>1389.629785985825</v>
+        <v>1404.715365808161</v>
       </c>
       <c r="N21" t="n">
-        <v>1738.15663451217</v>
+        <v>1753.242214334505</v>
       </c>
       <c r="O21" t="n">
-        <v>2034.770815468364</v>
+        <v>2049.856395290699</v>
       </c>
       <c r="P21" t="n">
-        <v>2253.496779410548</v>
+        <v>2268.582359232883</v>
       </c>
       <c r="Q21" t="n">
-        <v>2557.766612314665</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="R21" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.306107928099</v>
+        <v>2434.306107928098</v>
       </c>
       <c r="T21" t="n">
         <v>2239.686617951057</v>
@@ -5876,7 +5876,7 @@
         <v>1314.345545479491</v>
       </c>
       <c r="Y21" t="n">
-        <v>1106.585246714538</v>
+        <v>1106.585246714537</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51.45704384274001</v>
+        <v>388.5071636541577</v>
       </c>
       <c r="C22" t="n">
-        <v>51.45704384274001</v>
+        <v>219.5709807262508</v>
       </c>
       <c r="D22" t="n">
-        <v>51.45704384274001</v>
+        <v>219.5709807262508</v>
       </c>
       <c r="E22" t="n">
-        <v>51.45704384274001</v>
+        <v>219.5709807262508</v>
       </c>
       <c r="F22" t="n">
-        <v>51.45704384274001</v>
+        <v>219.5709807262508</v>
       </c>
       <c r="G22" t="n">
         <v>51.45704384274001</v>
@@ -5910,7 +5910,7 @@
         <v>51.45704384274001</v>
       </c>
       <c r="J22" t="n">
-        <v>68.09327731914513</v>
+        <v>68.09327731914512</v>
       </c>
       <c r="K22" t="n">
         <v>225.2685560834543</v>
@@ -5919,10 +5919,10 @@
         <v>481.9252339502279</v>
       </c>
       <c r="M22" t="n">
-        <v>762.9228379336195</v>
+        <v>762.9228379336193</v>
       </c>
       <c r="N22" t="n">
-        <v>1042.673563376666</v>
+        <v>1042.673563376665</v>
       </c>
       <c r="O22" t="n">
         <v>1285.052341775823</v>
@@ -5931,31 +5931,31 @@
         <v>1468.928576695282</v>
       </c>
       <c r="Q22" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="R22" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="S22" t="n">
         <v>1313.949630052285</v>
       </c>
       <c r="T22" t="n">
-        <v>1112.67354350841</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="U22" t="n">
-        <v>823.5482529836048</v>
+        <v>1024.824339527479</v>
       </c>
       <c r="V22" t="n">
-        <v>568.863764777718</v>
+        <v>1024.824339527479</v>
       </c>
       <c r="W22" t="n">
-        <v>279.4465947407573</v>
+        <v>735.4071694905188</v>
       </c>
       <c r="X22" t="n">
-        <v>51.45704384274001</v>
+        <v>735.4071694905188</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.45704384274001</v>
+        <v>514.6145903469886</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2421.292112196841</v>
+        <v>2421.29211219684</v>
       </c>
       <c r="C23" t="n">
         <v>2052.329595256429</v>
@@ -5977,16 +5977,16 @@
         <v>1308.275644051434</v>
       </c>
       <c r="F23" t="n">
-        <v>897.2897392618264</v>
+        <v>897.2897392618265</v>
       </c>
       <c r="G23" t="n">
-        <v>481.300811601039</v>
+        <v>481.3008116010391</v>
       </c>
       <c r="H23" t="n">
         <v>174.3313359536963</v>
       </c>
       <c r="I23" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J23" t="n">
         <v>377.0497545901375</v>
@@ -5998,34 +5998,34 @@
         <v>1640.283510208882</v>
       </c>
       <c r="M23" t="n">
-        <v>2288.680572079041</v>
+        <v>2353.739827753293</v>
       </c>
       <c r="N23" t="n">
-        <v>3108.157706268654</v>
+        <v>3173.216961942906</v>
       </c>
       <c r="O23" t="n">
-        <v>3836.779088617572</v>
+        <v>3901.838344291823</v>
       </c>
       <c r="P23" t="n">
-        <v>4420.966198293383</v>
+        <v>4486.025453967634</v>
       </c>
       <c r="Q23" t="n">
-        <v>4782.444628828674</v>
+        <v>4847.503884502925</v>
       </c>
       <c r="R23" t="n">
-        <v>4850.096907571469</v>
+        <v>4850.096907571468</v>
       </c>
       <c r="S23" t="n">
-        <v>4718.922007935514</v>
+        <v>4718.922007935512</v>
       </c>
       <c r="T23" t="n">
-        <v>4508.932380038166</v>
+        <v>4508.932380038164</v>
       </c>
       <c r="U23" t="n">
-        <v>4255.32858511154</v>
+        <v>4255.328585111539</v>
       </c>
       <c r="V23" t="n">
-        <v>3924.265697767969</v>
+        <v>3924.265697767968</v>
       </c>
       <c r="W23" t="n">
         <v>3571.497042497854</v>
@@ -6034,7 +6034,7 @@
         <v>3198.031284236774</v>
       </c>
       <c r="Y23" t="n">
-        <v>2807.891952260963</v>
+        <v>2807.891952260962</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>122.6641661909981</v>
       </c>
       <c r="I24" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J24" t="n">
-        <v>145.2729944327091</v>
+        <v>270.1031194197138</v>
       </c>
       <c r="K24" t="n">
-        <v>567.7513274855177</v>
+        <v>692.5814524725224</v>
       </c>
       <c r="L24" t="n">
-        <v>830.0980377759807</v>
+        <v>954.9281627629855</v>
       </c>
       <c r="M24" t="n">
-        <v>1155.601142762308</v>
+        <v>1280.431267749313</v>
       </c>
       <c r="N24" t="n">
-        <v>1504.127991288653</v>
+        <v>1628.958116275657</v>
       </c>
       <c r="O24" t="n">
-        <v>1800.742172244847</v>
+        <v>1925.572297231851</v>
       </c>
       <c r="P24" t="n">
-        <v>2334.746277140569</v>
+        <v>2314.127253541573</v>
       </c>
       <c r="Q24" t="n">
         <v>2618.39708644569</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.9420054607574</v>
+        <v>315.4798003566597</v>
       </c>
       <c r="C25" t="n">
-        <v>412.0058225328505</v>
+        <v>315.4798003566597</v>
       </c>
       <c r="D25" t="n">
-        <v>412.0058225328505</v>
+        <v>315.4798003566597</v>
       </c>
       <c r="E25" t="n">
-        <v>412.0058225328505</v>
+        <v>243.8918856493397</v>
       </c>
       <c r="F25" t="n">
-        <v>265.1158750349401</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="G25" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="H25" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="I25" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J25" t="n">
         <v>113.6381716278345</v>
@@ -6156,43 +6156,43 @@
         <v>527.4701282589174</v>
       </c>
       <c r="M25" t="n">
-        <v>808.4677322423089</v>
+        <v>808.4677322423088</v>
       </c>
       <c r="N25" t="n">
         <v>1088.218457685355</v>
       </c>
       <c r="O25" t="n">
-        <v>1330.597236084513</v>
+        <v>1330.597236084512</v>
       </c>
       <c r="P25" t="n">
-        <v>1514.473471003972</v>
+        <v>1514.473471003971</v>
       </c>
       <c r="Q25" t="n">
         <v>1558.34476485257</v>
       </c>
       <c r="R25" t="n">
-        <v>1450.02974509006</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="S25" t="n">
-        <v>1251.179504598464</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="T25" t="n">
-        <v>1027.656369882827</v>
+        <v>1558.34476485257</v>
       </c>
       <c r="U25" t="n">
-        <v>738.5310793580217</v>
+        <v>1269.219474327764</v>
       </c>
       <c r="V25" t="n">
-        <v>738.5310793580217</v>
+        <v>1014.534986121877</v>
       </c>
       <c r="W25" t="n">
-        <v>738.5310793580217</v>
+        <v>725.1178160849167</v>
       </c>
       <c r="X25" t="n">
-        <v>738.5310793580217</v>
+        <v>497.1282651868994</v>
       </c>
       <c r="Y25" t="n">
-        <v>738.5310793580217</v>
+        <v>497.1282651868994</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2421.292112196841</v>
+        <v>2421.292112196839</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.329595256429</v>
+        <v>2052.329595256428</v>
       </c>
       <c r="D26" t="n">
-        <v>1694.063896649678</v>
+        <v>1694.063896649677</v>
       </c>
       <c r="E26" t="n">
-        <v>1308.275644051434</v>
+        <v>1308.275644051433</v>
       </c>
       <c r="F26" t="n">
-        <v>897.2897392618264</v>
+        <v>897.2897392618254</v>
       </c>
       <c r="G26" t="n">
         <v>481.300811601039</v>
@@ -6223,7 +6223,7 @@
         <v>174.3313359536963</v>
       </c>
       <c r="I26" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J26" t="n">
         <v>377.0497545901375</v>
@@ -6238,40 +6238,40 @@
         <v>2461.110798274891</v>
       </c>
       <c r="N26" t="n">
-        <v>3280.587932464504</v>
+        <v>3108.157706268653</v>
       </c>
       <c r="O26" t="n">
-        <v>3901.838344291824</v>
+        <v>3836.779088617571</v>
       </c>
       <c r="P26" t="n">
-        <v>4486.025453967635</v>
+        <v>4420.966198293382</v>
       </c>
       <c r="Q26" t="n">
-        <v>4847.503884502926</v>
+        <v>4782.444628828673</v>
       </c>
       <c r="R26" t="n">
-        <v>4850.096907571469</v>
+        <v>4850.096907571468</v>
       </c>
       <c r="S26" t="n">
-        <v>4718.922007935513</v>
+        <v>4718.922007935512</v>
       </c>
       <c r="T26" t="n">
-        <v>4508.932380038165</v>
+        <v>4508.932380038164</v>
       </c>
       <c r="U26" t="n">
-        <v>4255.328585111539</v>
+        <v>4255.328585111538</v>
       </c>
       <c r="V26" t="n">
-        <v>3924.265697767969</v>
+        <v>3924.265697767967</v>
       </c>
       <c r="W26" t="n">
-        <v>3571.497042497854</v>
+        <v>3571.497042497853</v>
       </c>
       <c r="X26" t="n">
-        <v>3198.031284236774</v>
+        <v>3198.031284236773</v>
       </c>
       <c r="Y26" t="n">
-        <v>2807.891952260963</v>
+        <v>2807.891952260961</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>122.6641661909981</v>
       </c>
       <c r="I27" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J27" t="n">
         <v>270.1031194197138</v>
       </c>
       <c r="K27" t="n">
-        <v>692.5814524725224</v>
+        <v>430.7608678300695</v>
       </c>
       <c r="L27" t="n">
-        <v>1109.671575308187</v>
+        <v>1060.239519970957</v>
       </c>
       <c r="M27" t="n">
-        <v>1435.174680294514</v>
+        <v>1450.26026011685</v>
       </c>
       <c r="N27" t="n">
-        <v>1783.701528820859</v>
+        <v>1798.787108643195</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.315709777053</v>
+        <v>2095.401289599389</v>
       </c>
       <c r="P27" t="n">
-        <v>2299.041673719237</v>
+        <v>2314.127253541573</v>
       </c>
       <c r="Q27" t="n">
-        <v>2603.311506623354</v>
+        <v>2618.39708644569</v>
       </c>
       <c r="R27" t="n">
         <v>2618.39708644569</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>276.3356860433697</v>
+        <v>194.4294211151737</v>
       </c>
       <c r="C28" t="n">
-        <v>276.3356860433697</v>
+        <v>194.4294211151737</v>
       </c>
       <c r="D28" t="n">
-        <v>126.219046631034</v>
+        <v>194.4294211151737</v>
       </c>
       <c r="E28" t="n">
-        <v>97.00193815142939</v>
+        <v>194.4294211151737</v>
       </c>
       <c r="F28" t="n">
-        <v>97.00193815142939</v>
+        <v>194.4294211151737</v>
       </c>
       <c r="G28" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="H28" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="I28" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J28" t="n">
         <v>113.6381716278345</v>
@@ -6393,43 +6393,43 @@
         <v>527.4701282589174</v>
       </c>
       <c r="M28" t="n">
-        <v>808.4677322423089</v>
+        <v>808.4677322423088</v>
       </c>
       <c r="N28" t="n">
         <v>1088.218457685355</v>
       </c>
       <c r="O28" t="n">
-        <v>1330.597236084513</v>
+        <v>1330.597236084512</v>
       </c>
       <c r="P28" t="n">
-        <v>1514.473471003972</v>
+        <v>1514.473471003971</v>
       </c>
       <c r="Q28" t="n">
         <v>1558.34476485257</v>
       </c>
       <c r="R28" t="n">
-        <v>1558.34476485257</v>
+        <v>1450.029745090059</v>
       </c>
       <c r="S28" t="n">
-        <v>1558.34476485257</v>
+        <v>1251.179504598464</v>
       </c>
       <c r="T28" t="n">
-        <v>1558.34476485257</v>
+        <v>1027.656369882827</v>
       </c>
       <c r="U28" t="n">
-        <v>1269.219474327765</v>
+        <v>738.5310793580212</v>
       </c>
       <c r="V28" t="n">
-        <v>1014.534986121878</v>
+        <v>483.8465911521344</v>
       </c>
       <c r="W28" t="n">
-        <v>725.1178160849172</v>
+        <v>194.4294211151737</v>
       </c>
       <c r="X28" t="n">
-        <v>497.1282651868999</v>
+        <v>194.4294211151737</v>
       </c>
       <c r="Y28" t="n">
-        <v>276.3356860433697</v>
+        <v>194.4294211151737</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2421.29211219684</v>
+        <v>2421.292112196839</v>
       </c>
       <c r="C29" t="n">
-        <v>2052.329595256429</v>
+        <v>2052.329595256428</v>
       </c>
       <c r="D29" t="n">
         <v>1694.063896649678</v>
@@ -6460,55 +6460,55 @@
         <v>174.3313359536963</v>
       </c>
       <c r="I29" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J29" t="n">
-        <v>269.6787840685399</v>
+        <v>377.0497545901375</v>
       </c>
       <c r="K29" t="n">
-        <v>810.1426702504493</v>
+        <v>917.5136407720469</v>
       </c>
       <c r="L29" t="n">
-        <v>1532.912539687284</v>
+        <v>1640.283510208882</v>
       </c>
       <c r="M29" t="n">
-        <v>2353.739827753293</v>
+        <v>2288.68057207904</v>
       </c>
       <c r="N29" t="n">
-        <v>3173.216961942906</v>
+        <v>3108.157706268653</v>
       </c>
       <c r="O29" t="n">
-        <v>3901.838344291824</v>
+        <v>3836.779088617571</v>
       </c>
       <c r="P29" t="n">
-        <v>4486.025453967635</v>
+        <v>4420.966198293382</v>
       </c>
       <c r="Q29" t="n">
-        <v>4847.503884502926</v>
+        <v>4782.444628828673</v>
       </c>
       <c r="R29" t="n">
-        <v>4850.096907571469</v>
+        <v>4850.096907571468</v>
       </c>
       <c r="S29" t="n">
-        <v>4718.922007935513</v>
+        <v>4718.922007935512</v>
       </c>
       <c r="T29" t="n">
-        <v>4508.932380038165</v>
+        <v>4508.932380038164</v>
       </c>
       <c r="U29" t="n">
-        <v>4255.328585111539</v>
+        <v>4255.328585111538</v>
       </c>
       <c r="V29" t="n">
-        <v>3924.265697767968</v>
+        <v>3924.265697767967</v>
       </c>
       <c r="W29" t="n">
-        <v>3571.497042497854</v>
+        <v>3571.497042497853</v>
       </c>
       <c r="X29" t="n">
-        <v>3198.031284236774</v>
+        <v>3198.031284236773</v>
       </c>
       <c r="Y29" t="n">
-        <v>2807.891952260962</v>
+        <v>2807.891952260961</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>122.6641661909981</v>
       </c>
       <c r="I30" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J30" t="n">
         <v>270.1031194197138</v>
@@ -6557,13 +6557,13 @@
         <v>1628.958116275657</v>
       </c>
       <c r="O30" t="n">
-        <v>1925.572297231852</v>
+        <v>1925.572297231851</v>
       </c>
       <c r="P30" t="n">
-        <v>2299.041673719237</v>
+        <v>2314.127253541573</v>
       </c>
       <c r="Q30" t="n">
-        <v>2603.311506623354</v>
+        <v>2618.39708644569</v>
       </c>
       <c r="R30" t="n">
         <v>2618.39708644569</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.00193815142939</v>
+        <v>154.9878851098013</v>
       </c>
       <c r="C31" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="D31" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="E31" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="F31" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="G31" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="H31" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="I31" t="n">
-        <v>97.00193815142939</v>
+        <v>97.00193815142937</v>
       </c>
       <c r="J31" t="n">
         <v>113.6381716278345</v>
@@ -6630,16 +6630,16 @@
         <v>527.4701282589174</v>
       </c>
       <c r="M31" t="n">
-        <v>808.4677322423089</v>
+        <v>808.4677322423088</v>
       </c>
       <c r="N31" t="n">
         <v>1088.218457685355</v>
       </c>
       <c r="O31" t="n">
-        <v>1330.597236084513</v>
+        <v>1330.597236084512</v>
       </c>
       <c r="P31" t="n">
-        <v>1514.473471003972</v>
+        <v>1514.473471003971</v>
       </c>
       <c r="Q31" t="n">
         <v>1558.34476485257</v>
@@ -6648,25 +6648,25 @@
         <v>1558.34476485257</v>
       </c>
       <c r="S31" t="n">
-        <v>1381.741572532737</v>
+        <v>1359.494524360974</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.2184378171</v>
+        <v>1135.971389645337</v>
       </c>
       <c r="U31" t="n">
-        <v>869.0931472922942</v>
+        <v>846.8460991205317</v>
       </c>
       <c r="V31" t="n">
-        <v>614.4086590864074</v>
+        <v>846.8460991205317</v>
       </c>
       <c r="W31" t="n">
-        <v>324.9914890494467</v>
+        <v>557.4289290835711</v>
       </c>
       <c r="X31" t="n">
-        <v>97.00193815142939</v>
+        <v>557.4289290835711</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.00193815142939</v>
+        <v>336.636349940041</v>
       </c>
     </row>
     <row r="32">
@@ -6697,46 +6697,46 @@
         <v>174.3313359536963</v>
       </c>
       <c r="I32" t="n">
-        <v>97.0019381514294</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="J32" t="n">
-        <v>209.6441055697844</v>
+        <v>377.0497545901375</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1079917516938</v>
+        <v>917.5136407720469</v>
       </c>
       <c r="L32" t="n">
-        <v>1472.877861188529</v>
+        <v>1640.283510208882</v>
       </c>
       <c r="M32" t="n">
-        <v>2293.705149254538</v>
+        <v>2461.110798274891</v>
       </c>
       <c r="N32" t="n">
-        <v>3108.157706268655</v>
+        <v>3280.587932464504</v>
       </c>
       <c r="O32" t="n">
-        <v>3836.779088617573</v>
+        <v>3901.838344291824</v>
       </c>
       <c r="P32" t="n">
-        <v>4420.966198293384</v>
+        <v>4486.025453967635</v>
       </c>
       <c r="Q32" t="n">
-        <v>4782.444628828674</v>
+        <v>4847.503884502926</v>
       </c>
       <c r="R32" t="n">
-        <v>4850.09690757147</v>
+        <v>4850.096907571469</v>
       </c>
       <c r="S32" t="n">
-        <v>4718.922007935514</v>
+        <v>4718.922007935513</v>
       </c>
       <c r="T32" t="n">
-        <v>4508.932380038166</v>
+        <v>4508.932380038165</v>
       </c>
       <c r="U32" t="n">
-        <v>4255.32858511154</v>
+        <v>4255.328585111539</v>
       </c>
       <c r="V32" t="n">
-        <v>3924.265697767969</v>
+        <v>3924.265697767968</v>
       </c>
       <c r="W32" t="n">
         <v>3571.497042497854</v>
@@ -6776,31 +6776,31 @@
         <v>122.6641661909981</v>
       </c>
       <c r="I33" t="n">
-        <v>97.0019381514294</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="J33" t="n">
-        <v>270.1031194197138</v>
+        <v>145.2729944327091</v>
       </c>
       <c r="K33" t="n">
-        <v>692.5814524725224</v>
+        <v>567.7513274855177</v>
       </c>
       <c r="L33" t="n">
-        <v>954.9281627629855</v>
+        <v>830.0980377759806</v>
       </c>
       <c r="M33" t="n">
-        <v>1280.431267749313</v>
+        <v>1155.601142762308</v>
       </c>
       <c r="N33" t="n">
-        <v>1628.958116275657</v>
+        <v>1504.127991288652</v>
       </c>
       <c r="O33" t="n">
-        <v>1925.572297231852</v>
+        <v>1800.742172244846</v>
       </c>
       <c r="P33" t="n">
-        <v>2299.041673719237</v>
+        <v>2334.746277140568</v>
       </c>
       <c r="Q33" t="n">
-        <v>2603.311506623354</v>
+        <v>2618.39708644569</v>
       </c>
       <c r="R33" t="n">
         <v>2618.39708644569</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>501.4935623608778</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="C34" t="n">
-        <v>501.4935623608778</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="D34" t="n">
-        <v>501.4935623608778</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="E34" t="n">
-        <v>353.5804687784847</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="F34" t="n">
-        <v>206.6905212805744</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="G34" t="n">
-        <v>206.6905212805744</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="H34" t="n">
-        <v>206.6905212805744</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="I34" t="n">
-        <v>97.0019381514294</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="J34" t="n">
         <v>113.6381716278345</v>
       </c>
       <c r="K34" t="n">
-        <v>270.8134503921437</v>
+        <v>270.8134503921436</v>
       </c>
       <c r="L34" t="n">
         <v>527.4701282589174</v>
       </c>
       <c r="M34" t="n">
-        <v>808.4677322423089</v>
+        <v>808.4677322423088</v>
       </c>
       <c r="N34" t="n">
         <v>1088.218457685355</v>
       </c>
       <c r="O34" t="n">
-        <v>1330.597236084513</v>
+        <v>1330.597236084512</v>
       </c>
       <c r="P34" t="n">
-        <v>1514.473471003972</v>
+        <v>1514.473471003971</v>
       </c>
       <c r="Q34" t="n">
         <v>1558.34476485257</v>
@@ -6885,25 +6885,25 @@
         <v>1558.34476485257</v>
       </c>
       <c r="S34" t="n">
-        <v>1558.34476485257</v>
+        <v>1381.741572532737</v>
       </c>
       <c r="T34" t="n">
-        <v>1334.821630136933</v>
+        <v>1158.2184378171</v>
       </c>
       <c r="U34" t="n">
-        <v>1045.696339612127</v>
+        <v>869.0931472922942</v>
       </c>
       <c r="V34" t="n">
-        <v>791.0118514062405</v>
+        <v>614.4086590864074</v>
       </c>
       <c r="W34" t="n">
-        <v>729.4831132588952</v>
+        <v>324.9914890494467</v>
       </c>
       <c r="X34" t="n">
-        <v>501.4935623608778</v>
+        <v>97.00193815142939</v>
       </c>
       <c r="Y34" t="n">
-        <v>501.4935623608778</v>
+        <v>97.00193815142939</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1633.182645831791</v>
+        <v>1460.017938541685</v>
       </c>
       <c r="C35" t="n">
-        <v>1264.220128891379</v>
+        <v>1211.499922708522</v>
       </c>
       <c r="D35" t="n">
-        <v>1264.220128891379</v>
+        <v>853.2342241017717</v>
       </c>
       <c r="E35" t="n">
-        <v>878.431876293135</v>
+        <v>467.4459715035275</v>
       </c>
       <c r="F35" t="n">
         <v>467.4459715035275</v>
       </c>
       <c r="G35" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H35" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I35" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J35" t="n">
         <v>331.5048602814481</v>
       </c>
       <c r="K35" t="n">
-        <v>665.0798961656333</v>
+        <v>665.0798961656343</v>
       </c>
       <c r="L35" t="n">
-        <v>974.3651631975224</v>
+        <v>974.3651631975233</v>
       </c>
       <c r="M35" t="n">
-        <v>1350.174053105627</v>
+        <v>1350.174053105628</v>
       </c>
       <c r="N35" t="n">
-        <v>1736.677732127376</v>
+        <v>1736.677732127377</v>
       </c>
       <c r="O35" t="n">
         <v>2088.306935026176</v>
       </c>
       <c r="P35" t="n">
-        <v>2353.913323612219</v>
+        <v>2353.91332361222</v>
       </c>
       <c r="Q35" t="n">
-        <v>2505.199913394204</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R35" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S35" t="n">
-        <v>2441.677292501044</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="T35" t="n">
-        <v>2441.677292501044</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="U35" t="n">
-        <v>2441.677292501044</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="V35" t="n">
-        <v>2441.677292501044</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="W35" t="n">
-        <v>2409.921817871725</v>
+        <v>2220.083536866887</v>
       </c>
       <c r="X35" t="n">
-        <v>2409.921817871725</v>
+        <v>1846.617778605807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2019.782485895913</v>
+        <v>1846.617778605807</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>938.3699096944692</v>
+        <v>938.3699096944697</v>
       </c>
       <c r="C36" t="n">
-        <v>763.9168804133423</v>
+        <v>763.9168804133426</v>
       </c>
       <c r="D36" t="n">
-        <v>614.982470752091</v>
+        <v>614.9824707520911</v>
       </c>
       <c r="E36" t="n">
-        <v>455.7450157466355</v>
+        <v>455.7450157466356</v>
       </c>
       <c r="F36" t="n">
-        <v>309.2104577735205</v>
+        <v>309.2104577735206</v>
       </c>
       <c r="G36" t="n">
         <v>172.3569989104732</v>
       </c>
       <c r="H36" t="n">
-        <v>77.11927188230867</v>
+        <v>77.11927188230877</v>
       </c>
       <c r="I36" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J36" t="n">
-        <v>99.72810012401969</v>
+        <v>99.7281001240197</v>
       </c>
       <c r="K36" t="n">
-        <v>522.2064331768282</v>
+        <v>522.2064331768283</v>
       </c>
       <c r="L36" t="n">
-        <v>784.5531434672913</v>
+        <v>784.5531434672914</v>
       </c>
       <c r="M36" t="n">
-        <v>1110.056248453618</v>
+        <v>1110.056248453619</v>
       </c>
       <c r="N36" t="n">
         <v>1458.583096979963</v>
@@ -7037,7 +7037,7 @@
         <v>2289.201382831879</v>
       </c>
       <c r="Q36" t="n">
-        <v>2557.766612314665</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="R36" t="n">
         <v>2572.852192137001</v>
@@ -7046,10 +7046,10 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T36" t="n">
-        <v>2239.686617951057</v>
+        <v>2239.686617951058</v>
       </c>
       <c r="U36" t="n">
-        <v>2011.586510644968</v>
+        <v>2011.586510644969</v>
       </c>
       <c r="V36" t="n">
         <v>1776.434402413226</v>
@@ -7058,10 +7058,10 @@
         <v>1522.197045685024</v>
       </c>
       <c r="X36" t="n">
-        <v>1314.345545479491</v>
+        <v>1314.345545479492</v>
       </c>
       <c r="Y36" t="n">
-        <v>1106.585246714537</v>
+        <v>1106.585246714538</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>517.399813680893</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="C37" t="n">
-        <v>348.4636307529861</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="D37" t="n">
-        <v>198.3469913406504</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="E37" t="n">
-        <v>198.3469913406504</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="F37" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="G37" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H37" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I37" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J37" t="n">
         <v>68.09327731914513</v>
@@ -7104,10 +7104,10 @@
         <v>481.9252339502279</v>
       </c>
       <c r="M37" t="n">
-        <v>762.9228379336195</v>
+        <v>762.9228379336193</v>
       </c>
       <c r="N37" t="n">
-        <v>1042.673563376666</v>
+        <v>1042.673563376665</v>
       </c>
       <c r="O37" t="n">
         <v>1285.052341775823</v>
@@ -7116,31 +7116,31 @@
         <v>1468.928576695282</v>
       </c>
       <c r="Q37" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="R37" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="S37" t="n">
-        <v>1512.799870543881</v>
+        <v>1313.949630052285</v>
       </c>
       <c r="T37" t="n">
-        <v>1512.799870543881</v>
+        <v>1090.426495336648</v>
       </c>
       <c r="U37" t="n">
-        <v>1223.674580019075</v>
+        <v>801.3012048118422</v>
       </c>
       <c r="V37" t="n">
-        <v>968.9900918131883</v>
+        <v>789.6563439212481</v>
       </c>
       <c r="W37" t="n">
-        <v>679.5729217762278</v>
+        <v>500.2391738842875</v>
       </c>
       <c r="X37" t="n">
-        <v>679.5729217762278</v>
+        <v>272.2496229862701</v>
       </c>
       <c r="Y37" t="n">
-        <v>517.399813680893</v>
+        <v>51.45704384274002</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1488.779677357771</v>
+        <v>2068.211534239965</v>
       </c>
       <c r="C38" t="n">
-        <v>1488.779677357771</v>
+        <v>1699.249017299553</v>
       </c>
       <c r="D38" t="n">
-        <v>1488.779677357771</v>
+        <v>1340.983318692803</v>
       </c>
       <c r="E38" t="n">
-        <v>1102.991424759527</v>
+        <v>955.1950660945583</v>
       </c>
       <c r="F38" t="n">
-        <v>692.0055199699195</v>
+        <v>851.7448449531371</v>
       </c>
       <c r="G38" t="n">
         <v>435.7559172923496</v>
       </c>
       <c r="H38" t="n">
-        <v>128.7864416450069</v>
+        <v>128.786441645007</v>
       </c>
       <c r="I38" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J38" t="n">
-        <v>331.5048602814481</v>
+        <v>164.0992112610951</v>
       </c>
       <c r="K38" t="n">
-        <v>665.0798961656333</v>
+        <v>454.8880554123285</v>
       </c>
       <c r="L38" t="n">
-        <v>974.3651631975224</v>
+        <v>764.1733224442175</v>
       </c>
       <c r="M38" t="n">
-        <v>1350.174053105627</v>
+        <v>1139.982212352322</v>
       </c>
       <c r="N38" t="n">
-        <v>1736.677732127376</v>
+        <v>1526.485891374071</v>
       </c>
       <c r="O38" t="n">
-        <v>2088.306935026176</v>
+        <v>1878.11509427287</v>
       </c>
       <c r="P38" t="n">
-        <v>2353.913323612219</v>
+        <v>2143.721482858914</v>
       </c>
       <c r="Q38" t="n">
-        <v>2505.199913394204</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R38" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S38" t="n">
-        <v>2441.677292501044</v>
+        <v>2441.677292501045</v>
       </c>
       <c r="T38" t="n">
-        <v>2231.687664603697</v>
+        <v>2441.677292501045</v>
       </c>
       <c r="U38" t="n">
-        <v>2231.687664603697</v>
+        <v>2441.677292501045</v>
       </c>
       <c r="V38" t="n">
-        <v>2231.687664603697</v>
+        <v>2441.677292501045</v>
       </c>
       <c r="W38" t="n">
-        <v>1878.919009333583</v>
+        <v>2441.677292501045</v>
       </c>
       <c r="X38" t="n">
-        <v>1878.919009333583</v>
+        <v>2068.211534239965</v>
       </c>
       <c r="Y38" t="n">
-        <v>1488.779677357771</v>
+        <v>2068.211534239965</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>938.3699096944692</v>
+        <v>938.3699096944694</v>
       </c>
       <c r="C39" t="n">
-        <v>763.9168804133423</v>
+        <v>763.9168804133424</v>
       </c>
       <c r="D39" t="n">
         <v>614.9824707520911</v>
       </c>
       <c r="E39" t="n">
-        <v>455.7450157466355</v>
+        <v>455.7450157466357</v>
       </c>
       <c r="F39" t="n">
         <v>309.2104577735206</v>
       </c>
       <c r="G39" t="n">
-        <v>172.3569989104735</v>
+        <v>172.3569989104732</v>
       </c>
       <c r="H39" t="n">
-        <v>77.11927188230874</v>
+        <v>77.11927188230877</v>
       </c>
       <c r="I39" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J39" t="n">
-        <v>224.5582251110244</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K39" t="n">
-        <v>647.036558163833</v>
+        <v>410.2246039723821</v>
       </c>
       <c r="L39" t="n">
-        <v>1064.126680999498</v>
+        <v>672.5713142628451</v>
       </c>
       <c r="M39" t="n">
-        <v>1389.629785985825</v>
+        <v>1309.352231816753</v>
       </c>
       <c r="N39" t="n">
-        <v>1738.15663451217</v>
+        <v>1946.133149370661</v>
       </c>
       <c r="O39" t="n">
-        <v>2034.770815468364</v>
+        <v>2242.747330326855</v>
       </c>
       <c r="P39" t="n">
-        <v>2253.496779410548</v>
+        <v>2461.473294269039</v>
       </c>
       <c r="Q39" t="n">
-        <v>2557.766612314665</v>
+        <v>2557.766612314666</v>
       </c>
       <c r="R39" t="n">
         <v>2572.852192137001</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>769.3016572536483</v>
+        <v>368.3063203530401</v>
       </c>
       <c r="C40" t="n">
-        <v>600.3654743257414</v>
+        <v>199.3701374251331</v>
       </c>
       <c r="D40" t="n">
-        <v>450.2488349134056</v>
+        <v>199.3701374251331</v>
       </c>
       <c r="E40" t="n">
-        <v>302.3357413310125</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="F40" t="n">
-        <v>302.3357413310125</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="G40" t="n">
-        <v>302.3357413310125</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H40" t="n">
-        <v>161.145626971885</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I40" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J40" t="n">
         <v>68.09327731914513</v>
@@ -7341,10 +7341,10 @@
         <v>481.9252339502279</v>
       </c>
       <c r="M40" t="n">
-        <v>762.9228379336195</v>
+        <v>762.9228379336193</v>
       </c>
       <c r="N40" t="n">
-        <v>1042.673563376666</v>
+        <v>1042.673563376665</v>
       </c>
       <c r="O40" t="n">
         <v>1285.052341775823</v>
@@ -7353,31 +7353,31 @@
         <v>1468.928576695282</v>
       </c>
       <c r="Q40" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="R40" t="n">
-        <v>1404.48485078137</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="S40" t="n">
-        <v>1205.634610289775</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="T40" t="n">
-        <v>1205.634610289775</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="U40" t="n">
-        <v>1205.634610289775</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="V40" t="n">
-        <v>950.950122083888</v>
+        <v>1288.154085261788</v>
       </c>
       <c r="W40" t="n">
-        <v>950.950122083888</v>
+        <v>998.7369152248273</v>
       </c>
       <c r="X40" t="n">
-        <v>950.950122083888</v>
+        <v>770.7473643268099</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.950122083888</v>
+        <v>549.9547851832798</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1422.647261835987</v>
+        <v>1085.654735037245</v>
       </c>
       <c r="C41" t="n">
-        <v>1422.647261835987</v>
+        <v>716.6922180968331</v>
       </c>
       <c r="D41" t="n">
-        <v>1264.220128891379</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="E41" t="n">
-        <v>878.431876293135</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="F41" t="n">
-        <v>467.4459715035275</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="G41" t="n">
-        <v>51.45704384274001</v>
+        <v>358.4265194900827</v>
       </c>
       <c r="H41" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I41" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J41" t="n">
         <v>331.5048602814481</v>
       </c>
       <c r="K41" t="n">
-        <v>665.0798961656333</v>
+        <v>665.0798961656343</v>
       </c>
       <c r="L41" t="n">
-        <v>974.3651631975224</v>
+        <v>974.3651631975233</v>
       </c>
       <c r="M41" t="n">
-        <v>1350.174053105627</v>
+        <v>1350.174053105628</v>
       </c>
       <c r="N41" t="n">
-        <v>1736.677732127376</v>
+        <v>1736.677732127377</v>
       </c>
       <c r="O41" t="n">
         <v>2088.306935026176</v>
       </c>
       <c r="P41" t="n">
-        <v>2353.913323612219</v>
+        <v>2353.91332361222</v>
       </c>
       <c r="Q41" t="n">
-        <v>2505.199913394204</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R41" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S41" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501045</v>
       </c>
       <c r="T41" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="U41" t="n">
-        <v>2572.852192137001</v>
+        <v>1978.083869677071</v>
       </c>
       <c r="V41" t="n">
-        <v>2572.852192137001</v>
+        <v>1647.0209823335</v>
       </c>
       <c r="W41" t="n">
-        <v>2572.852192137001</v>
+        <v>1294.252327063386</v>
       </c>
       <c r="X41" t="n">
-        <v>2199.386433875921</v>
+        <v>1085.654735037245</v>
       </c>
       <c r="Y41" t="n">
-        <v>1809.247101900109</v>
+        <v>1085.654735037245</v>
       </c>
     </row>
     <row r="42">
@@ -7484,13 +7484,13 @@
         <v>172.3569989104732</v>
       </c>
       <c r="H42" t="n">
-        <v>77.11927188230874</v>
+        <v>77.11927188230877</v>
       </c>
       <c r="I42" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J42" t="n">
-        <v>224.5582251110244</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K42" t="n">
         <v>647.036558163833</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>479.1318056607076</v>
+        <v>983.2990859521088</v>
       </c>
       <c r="C43" t="n">
-        <v>479.1318056607076</v>
+        <v>814.362903024202</v>
       </c>
       <c r="D43" t="n">
-        <v>479.1318056607076</v>
+        <v>664.2462636118662</v>
       </c>
       <c r="E43" t="n">
-        <v>479.1318056607076</v>
+        <v>516.3331700294731</v>
       </c>
       <c r="F43" t="n">
-        <v>479.1318056607076</v>
+        <v>369.4432225315627</v>
       </c>
       <c r="G43" t="n">
-        <v>311.0178687771969</v>
+        <v>201.329285648052</v>
       </c>
       <c r="H43" t="n">
-        <v>161.145626971885</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I43" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J43" t="n">
         <v>68.09327731914513</v>
@@ -7578,10 +7578,10 @@
         <v>481.9252339502279</v>
       </c>
       <c r="M43" t="n">
-        <v>762.9228379336195</v>
+        <v>762.9228379336193</v>
       </c>
       <c r="N43" t="n">
-        <v>1042.673563376666</v>
+        <v>1042.673563376665</v>
       </c>
       <c r="O43" t="n">
         <v>1285.052341775823</v>
@@ -7590,31 +7590,31 @@
         <v>1468.928576695282</v>
       </c>
       <c r="Q43" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="R43" t="n">
-        <v>1425.674507877325</v>
+        <v>1404.48485078137</v>
       </c>
       <c r="S43" t="n">
-        <v>1425.674507877325</v>
+        <v>1205.634610289774</v>
       </c>
       <c r="T43" t="n">
-        <v>1425.674507877325</v>
+        <v>1205.634610289774</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.674507877325</v>
+        <v>1205.634610289774</v>
       </c>
       <c r="V43" t="n">
-        <v>1170.990019671438</v>
+        <v>1205.634610289774</v>
       </c>
       <c r="W43" t="n">
-        <v>881.5728496344775</v>
+        <v>1205.634610289774</v>
       </c>
       <c r="X43" t="n">
-        <v>881.5728496344775</v>
+        <v>1164.947550782349</v>
       </c>
       <c r="Y43" t="n">
-        <v>660.7802704909474</v>
+        <v>1164.947550782349</v>
       </c>
     </row>
     <row r="44">
@@ -7639,13 +7639,13 @@
         <v>467.4459715035275</v>
       </c>
       <c r="G44" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="H44" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I44" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J44" t="n">
         <v>331.5048602814481</v>
@@ -7654,7 +7654,7 @@
         <v>551.0647880179043</v>
       </c>
       <c r="L44" t="n">
-        <v>860.3500550497935</v>
+        <v>860.3500550497934</v>
       </c>
       <c r="M44" t="n">
         <v>1236.158944957898</v>
@@ -7663,37 +7663,37 @@
         <v>1622.662623979647</v>
       </c>
       <c r="O44" t="n">
-        <v>1974.291826878447</v>
+        <v>1974.291826878446</v>
       </c>
       <c r="P44" t="n">
         <v>2239.89821546449</v>
       </c>
       <c r="Q44" t="n">
-        <v>2570.259169068457</v>
+        <v>2505.199913394205</v>
       </c>
       <c r="R44" t="n">
         <v>2572.852192137001</v>
       </c>
       <c r="S44" t="n">
-        <v>2572.852192137001</v>
+        <v>2441.677292501045</v>
       </c>
       <c r="T44" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="U44" t="n">
-        <v>2572.852192137001</v>
+        <v>2231.687664603697</v>
       </c>
       <c r="V44" t="n">
-        <v>2572.852192137001</v>
+        <v>2027.825219128271</v>
       </c>
       <c r="W44" t="n">
-        <v>2414.425059192393</v>
+        <v>2027.825219128271</v>
       </c>
       <c r="X44" t="n">
-        <v>2040.959300931313</v>
+        <v>1654.359460867191</v>
       </c>
       <c r="Y44" t="n">
-        <v>1650.819968955501</v>
+        <v>1264.220128891379</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>172.3569989104732</v>
       </c>
       <c r="H45" t="n">
-        <v>77.11927188230874</v>
+        <v>77.11927188230877</v>
       </c>
       <c r="I45" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J45" t="n">
-        <v>224.5582251110244</v>
+        <v>224.5582251110245</v>
       </c>
       <c r="K45" t="n">
-        <v>647.036558163833</v>
+        <v>421.3098554087607</v>
       </c>
       <c r="L45" t="n">
-        <v>956.8250549044506</v>
+        <v>683.6565656992237</v>
       </c>
       <c r="M45" t="n">
-        <v>1282.328159890778</v>
+        <v>1009.159670685551</v>
       </c>
       <c r="N45" t="n">
-        <v>1630.855008417122</v>
+        <v>1645.940588239459</v>
       </c>
       <c r="O45" t="n">
-        <v>1927.469189373317</v>
+        <v>1942.554769195653</v>
       </c>
       <c r="P45" t="n">
-        <v>2461.473294269038</v>
+        <v>2476.558874091374</v>
       </c>
       <c r="Q45" t="n">
-        <v>2557.766612314665</v>
+        <v>2572.852192137001</v>
       </c>
       <c r="R45" t="n">
         <v>2572.852192137001</v>
@@ -7757,10 +7757,10 @@
         <v>2434.306107928099</v>
       </c>
       <c r="T45" t="n">
-        <v>2239.686617951057</v>
+        <v>2239.686617951058</v>
       </c>
       <c r="U45" t="n">
-        <v>2011.586510644968</v>
+        <v>2011.586510644969</v>
       </c>
       <c r="V45" t="n">
         <v>1776.434402413226</v>
@@ -7769,10 +7769,10 @@
         <v>1522.197045685024</v>
       </c>
       <c r="X45" t="n">
-        <v>1314.345545479491</v>
+        <v>1314.345545479492</v>
       </c>
       <c r="Y45" t="n">
-        <v>1106.585246714537</v>
+        <v>1106.585246714538</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>924.873732197743</v>
+        <v>835.3859923697157</v>
       </c>
       <c r="C46" t="n">
-        <v>755.9375492698362</v>
+        <v>666.4498094418088</v>
       </c>
       <c r="D46" t="n">
-        <v>605.8209098575004</v>
+        <v>516.3331700294731</v>
       </c>
       <c r="E46" t="n">
-        <v>457.9078162751073</v>
+        <v>516.3331700294731</v>
       </c>
       <c r="F46" t="n">
-        <v>311.0178687771969</v>
+        <v>369.4432225315627</v>
       </c>
       <c r="G46" t="n">
-        <v>311.0178687771969</v>
+        <v>201.329285648052</v>
       </c>
       <c r="H46" t="n">
-        <v>161.145626971885</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="I46" t="n">
-        <v>51.45704384274001</v>
+        <v>51.45704384274002</v>
       </c>
       <c r="J46" t="n">
         <v>68.09327731914513</v>
@@ -7815,10 +7815,10 @@
         <v>481.9252339502279</v>
       </c>
       <c r="M46" t="n">
-        <v>762.9228379336195</v>
+        <v>762.9228379336193</v>
       </c>
       <c r="N46" t="n">
-        <v>1042.673563376666</v>
+        <v>1042.673563376665</v>
       </c>
       <c r="O46" t="n">
         <v>1285.052341775823</v>
@@ -7827,31 +7827,31 @@
         <v>1468.928576695282</v>
       </c>
       <c r="Q46" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="R46" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="S46" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="T46" t="n">
-        <v>1512.799870543881</v>
+        <v>1512.79987054388</v>
       </c>
       <c r="U46" t="n">
-        <v>1327.314776171513</v>
+        <v>1318.06003147362</v>
       </c>
       <c r="V46" t="n">
-        <v>1327.314776171513</v>
+        <v>1063.375543267733</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.314776171513</v>
+        <v>1063.375543267733</v>
       </c>
       <c r="X46" t="n">
-        <v>1327.314776171513</v>
+        <v>835.3859923697157</v>
       </c>
       <c r="Y46" t="n">
-        <v>1106.522197027983</v>
+        <v>835.3859923697157</v>
       </c>
     </row>
   </sheetData>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>180.8831957797804</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>115.1667759067967</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>67.6369234638258</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>297.6354720752958</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>30.28371039482022</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>71.94840041896583</v>
+        <v>71.94840041896691</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>156.3064773183865</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3064773183852</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>115.1667759067969</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>115.1667759067977</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>366.3837650542357</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>156.3064773183852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>71.94840041896646</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.1667759067967</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>156.3064773183855</v>
+        <v>171.5444367348866</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>30.28371039482022</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>275.3415878404589</v>
+        <v>341.0580077134404</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>171.5444367348863</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.2499911712069</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>30.2837103948202</v>
+        <v>30.28371039482022</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>263.1749787596098</v>
       </c>
       <c r="O26" t="n">
-        <v>272.3446554833539</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>156.3064773183855</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>65.16932844400594</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>30.28371039482022</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>60.64108939268232</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>275.3415878404584</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>156.3064773183852</v>
+        <v>171.5444367348863</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>30.28371039482022</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10360,10 +10360,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>432.2715939316852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>272.3446554833539</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>156.3064773183852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>189.2499911712075</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>30.28371039482022</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>115.1667759067969</v>
+        <v>115.166775906798</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>174.0120317547063</v>
+        <v>189.2499911712075</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>30.28371039482022</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>115.1667759067969</v>
+        <v>71.94840041896691</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>25.26124287979988</v>
       </c>
       <c r="L39" t="n">
-        <v>156.3064773183855</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>314.4220328965462</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>291.1657262904677</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>115.1667759067969</v>
+        <v>115.166775906798</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>156.3064773183852</v>
+        <v>156.3064773183857</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.8831957797792</v>
+        <v>115.1667759067977</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>36.45846655290958</v>
       </c>
       <c r="L45" t="n">
-        <v>47.92099641429752</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>291.1657262904677</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>30.28371039482022</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>72.30822124537377</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>411.8290383841796</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I11" t="n">
         <v>76.55610382424425</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>129.8631506395971</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0677569773601</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>236.3775355786635</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4327975146757</v>
+        <v>75.08053708626075</v>
       </c>
       <c r="H13" t="n">
         <v>148.3735193872588</v>
       </c>
       <c r="I13" t="n">
-        <v>108.5916972978535</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>22.02457769004451</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2340376195573</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>342.731605864312</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I14" t="n">
         <v>76.55610382424425</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>129.8631506395971</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>56.59302066929007</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,7 +23703,7 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>22.02457769004451</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>190.1814556020296</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>165.8619615850224</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>78.20643685342444</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I17" t="n">
         <v>76.55610382424425</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.0677569773601</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4327975146757</v>
@@ -23910,7 +23910,7 @@
         <v>148.3735193872588</v>
       </c>
       <c r="I19" t="n">
-        <v>70.48041342498817</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2340376195573</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>22.02457769004494</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>13.05043760926606</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>303.8997808908692</v>
       </c>
       <c r="I20" t="n">
         <v>76.55610382424425</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>311.9683462304419</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>54.98562775603469</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.3735193872588</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>22.02457769004451</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23.81879702364569</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>75.56192708632243</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4327975146757</v>
       </c>
       <c r="H25" t="n">
         <v>148.3735193872588</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.2879033684809</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>117.5090252517606</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4327975146757</v>
+        <v>69.97958938056874</v>
       </c>
       <c r="H28" t="n">
         <v>148.3735193872588</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>107.2318695648853</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520982</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>109.8407336098396</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24888,7 +24888,7 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S31" t="n">
-        <v>22.02457769004451</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4327975146757</v>
@@ -25095,7 +25095,7 @@
         <v>148.3735193872588</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S34" t="n">
-        <v>196.8617380866793</v>
+        <v>22.02457769004496</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>225.6095475707192</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>119.2400560961762</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>129.8631506395971</v>
       </c>
       <c r="T35" t="n">
         <v>207.8897316183737</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>317.8030488343867</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4327975146757</v>
@@ -25362,25 +25362,25 @@
         <v>107.2318695648853</v>
       </c>
       <c r="S37" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.2879033684809</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>240.6092310421398</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>58.03327633771337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>304.4603268117044</v>
       </c>
       <c r="G38" t="n">
-        <v>158.1419317333854</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>207.8897316183737</v>
       </c>
       <c r="U38" t="n">
         <v>251.0677569773601</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>166.4327975146757</v>
       </c>
       <c r="H40" t="n">
-        <v>8.595306171722569</v>
+        <v>148.3735193872588</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>107.2318695648853</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>196.8617380866793</v>
       </c>
       <c r="T40" t="n">
         <v>221.2879033684809</v>
@@ -25608,16 +25608,16 @@
         <v>286.2340376195573</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>29.73831589455671</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>197.840180005521</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.8290383841796</v>
       </c>
       <c r="H41" t="n">
-        <v>303.8997808908692</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>76.55610382424425</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0677569773601</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>163.219484572589</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.97776052499542</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>196.8617380866793</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.2879033684809</v>
@@ -25845,16 +25845,16 @@
         <v>286.2340376195573</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4294664766856</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>129.863150639597</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>207.8897316183737</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.0677569773601</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>125.9284374494629</v>
       </c>
       <c r="W44" t="n">
-        <v>192.3981071022513</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4327975146757</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>108.5916972978535</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>221.2879033684809</v>
       </c>
       <c r="U46" t="n">
-        <v>102.603794190913</v>
+        <v>93.44159693999976</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620750.5805522068</v>
+        <v>620750.5805522071</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620750.580552207</v>
+        <v>620750.5805522071</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620750.580552207</v>
+        <v>620750.5805522068</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>850538.0282795364</v>
+        <v>850538.0282795361</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620750.5805522067</v>
+        <v>620750.5805522071</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620750.5805522068</v>
+        <v>620750.5805522071</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>620750.5805522067</v>
+        <v>620750.580552207</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="C2" t="n">
         <v>634939.1625057049</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.1625057048</v>
       </c>
       <c r="E2" t="n">
-        <v>471017.0810634064</v>
+        <v>471017.0810634063</v>
       </c>
       <c r="F2" t="n">
+        <v>471017.0810634061</v>
+      </c>
+      <c r="G2" t="n">
         <v>471017.0810634062</v>
       </c>
-      <c r="G2" t="n">
-        <v>471017.0810634061</v>
-      </c>
       <c r="H2" t="n">
-        <v>471017.0810634062</v>
+        <v>471017.0810634063</v>
       </c>
       <c r="I2" t="n">
+        <v>607313.9074090029</v>
+      </c>
+      <c r="J2" t="n">
+        <v>607313.9074090029</v>
+      </c>
+      <c r="K2" t="n">
         <v>607313.9074090031</v>
       </c>
-      <c r="J2" t="n">
-        <v>607313.9074090025</v>
-      </c>
-      <c r="K2" t="n">
-        <v>607313.9074090028</v>
-      </c>
       <c r="L2" t="n">
-        <v>607313.9074090028</v>
+        <v>607313.9074090032</v>
       </c>
       <c r="M2" t="n">
         <v>471017.081063406</v>
       </c>
       <c r="N2" t="n">
+        <v>471017.0810634061</v>
+      </c>
+      <c r="O2" t="n">
         <v>471017.0810634063</v>
       </c>
-      <c r="O2" t="n">
-        <v>471017.0810634061</v>
-      </c>
       <c r="P2" t="n">
-        <v>471017.081063406</v>
+        <v>471017.0810634062</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18416.64140604439</v>
+        <v>18416.64140604451</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768279</v>
       </c>
       <c r="F4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768279</v>
       </c>
       <c r="G4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768278</v>
       </c>
       <c r="H4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768276</v>
       </c>
       <c r="I4" t="n">
-        <v>87286.32355249724</v>
+        <v>87286.32355249723</v>
       </c>
       <c r="J4" t="n">
         <v>87286.32355249723</v>
       </c>
       <c r="K4" t="n">
-        <v>87286.32355249723</v>
+        <v>87286.32355249724</v>
       </c>
       <c r="L4" t="n">
-        <v>87286.32355249726</v>
+        <v>87286.32355249724</v>
       </c>
       <c r="M4" t="n">
-        <v>28699.92018768275</v>
+        <v>28699.92018768278</v>
       </c>
       <c r="N4" t="n">
-        <v>28699.92018768275</v>
+        <v>28699.92018768278</v>
       </c>
       <c r="O4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768278</v>
       </c>
       <c r="P4" t="n">
-        <v>28699.92018768274</v>
+        <v>28699.92018768278</v>
       </c>
     </row>
     <row r="5">
@@ -26487,19 +26487,19 @@
         <v>57944.35528287131</v>
       </c>
       <c r="H5" t="n">
-        <v>57944.35528287131</v>
+        <v>57944.3552828713</v>
       </c>
       <c r="I5" t="n">
-        <v>92558.47495747523</v>
+        <v>92558.47495747521</v>
       </c>
       <c r="J5" t="n">
-        <v>92558.47495747523</v>
+        <v>92558.47495747521</v>
       </c>
       <c r="K5" t="n">
-        <v>92558.47495747523</v>
+        <v>92558.47495747521</v>
       </c>
       <c r="L5" t="n">
-        <v>92558.47495747523</v>
+        <v>92558.47495747522</v>
       </c>
       <c r="M5" t="n">
         <v>57944.35528287131</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186495.0281140648</v>
+        <v>186534.7503148779</v>
       </c>
       <c r="C6" t="n">
-        <v>186495.0281140648</v>
+        <v>186534.7503148778</v>
       </c>
       <c r="D6" t="n">
-        <v>186495.0281140649</v>
+        <v>186534.7503148778</v>
       </c>
       <c r="E6" t="n">
-        <v>-507215.0050687081</v>
+        <v>-502416.2546969898</v>
       </c>
       <c r="F6" t="n">
-        <v>379040.8607353873</v>
+        <v>383839.6111071056</v>
       </c>
       <c r="G6" t="n">
-        <v>379040.8607353871</v>
+        <v>383839.6111071056</v>
       </c>
       <c r="H6" t="n">
-        <v>379040.8607353873</v>
+        <v>383839.6111071057</v>
       </c>
       <c r="I6" t="n">
-        <v>275142.0378659032</v>
+        <v>275983.7836017817</v>
       </c>
       <c r="J6" t="n">
-        <v>426533.8358591651</v>
+        <v>427375.581595044</v>
       </c>
       <c r="K6" t="n">
-        <v>426533.8358591653</v>
+        <v>427375.5815950442</v>
       </c>
       <c r="L6" t="n">
-        <v>426533.8358591652</v>
+        <v>427375.5815950443</v>
       </c>
       <c r="M6" t="n">
-        <v>360624.2193293427</v>
+        <v>365422.969701061</v>
       </c>
       <c r="N6" t="n">
-        <v>379040.8607353873</v>
+        <v>383839.6111071054</v>
       </c>
       <c r="O6" t="n">
-        <v>379040.8607353872</v>
+        <v>383839.6111071057</v>
       </c>
       <c r="P6" t="n">
-        <v>379040.8607353871</v>
+        <v>383839.6111071056</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
       <c r="F3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
       <c r="G3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
       <c r="H3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
       <c r="I3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
       <c r="J3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
       <c r="K3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
       <c r="L3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
       <c r="M3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
       <c r="N3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
       <c r="O3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
       <c r="P3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="F4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="G4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="H4" t="n">
         <v>643.2130480342502</v>
@@ -26819,19 +26819,19 @@
         <v>1212.524226892867</v>
       </c>
       <c r="L4" t="n">
-        <v>1212.524226892868</v>
+        <v>1212.524226892867</v>
       </c>
       <c r="M4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="N4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="O4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="P4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>864.0826588251789</v>
+        <v>864.0826588251788</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>569.3111788586172</v>
+        <v>569.3111788586169</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>73.90186917563278</v>
+        <v>73.90186917563324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.2130480342502</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29501,7 +29501,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-3.393552105990239e-12</v>
       </c>
     </row>
     <row r="29">
@@ -31767,34 +31767,34 @@
         <v>441.8675558292798</v>
       </c>
       <c r="L11" t="n">
-        <v>548.1757756082591</v>
+        <v>548.175775608259</v>
       </c>
       <c r="M11" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283886</v>
       </c>
       <c r="N11" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842159</v>
       </c>
       <c r="O11" t="n">
         <v>585.2792244507773</v>
       </c>
       <c r="P11" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553135</v>
       </c>
       <c r="Q11" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279699</v>
       </c>
       <c r="R11" t="n">
         <v>218.204753034883</v>
       </c>
       <c r="S11" t="n">
-        <v>79.15691894664832</v>
+        <v>79.1569189466483</v>
       </c>
       <c r="T11" t="n">
-        <v>15.20611794575767</v>
+        <v>15.20611794575766</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2778959304764392</v>
+        <v>0.2778959304764391</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.858592888793781</v>
       </c>
       <c r="H12" t="n">
-        <v>17.95009447861363</v>
+        <v>17.95009447861362</v>
       </c>
       <c r="I12" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224202</v>
       </c>
       <c r="J12" t="n">
         <v>175.59626937503</v>
@@ -31846,19 +31846,19 @@
         <v>300.1219929242133</v>
       </c>
       <c r="L12" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409479</v>
       </c>
       <c r="M12" t="n">
         <v>470.9250490597224</v>
       </c>
       <c r="N12" t="n">
-        <v>483.3890338271159</v>
+        <v>483.3890338271158</v>
       </c>
       <c r="O12" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385799</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276475</v>
       </c>
       <c r="Q12" t="n">
         <v>237.2477519098869</v>
@@ -31867,10 +31867,10 @@
         <v>115.3957935691437</v>
       </c>
       <c r="S12" t="n">
-        <v>34.52254773702482</v>
+        <v>34.52254773702481</v>
       </c>
       <c r="T12" t="n">
-        <v>7.491433617550369</v>
+        <v>7.491433617550368</v>
       </c>
       <c r="U12" t="n">
         <v>0.1222758479469593</v>
@@ -31916,7 +31916,7 @@
         <v>13.85365312018074</v>
       </c>
       <c r="I13" t="n">
-        <v>46.85877762940479</v>
+        <v>46.85877762940478</v>
       </c>
       <c r="J13" t="n">
         <v>110.1634563554658</v>
@@ -31943,16 +31943,16 @@
         <v>130.476481482602</v>
       </c>
       <c r="R13" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228414</v>
       </c>
       <c r="S13" t="n">
-        <v>27.15485995029291</v>
+        <v>27.1548599502929</v>
       </c>
       <c r="T13" t="n">
         <v>6.657686059800556</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362423</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32004,34 +32004,34 @@
         <v>441.8675558292798</v>
       </c>
       <c r="L14" t="n">
-        <v>548.1757756082591</v>
+        <v>548.175775608259</v>
       </c>
       <c r="M14" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283886</v>
       </c>
       <c r="N14" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842159</v>
       </c>
       <c r="O14" t="n">
         <v>585.2792244507773</v>
       </c>
       <c r="P14" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553135</v>
       </c>
       <c r="Q14" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279699</v>
       </c>
       <c r="R14" t="n">
         <v>218.204753034883</v>
       </c>
       <c r="S14" t="n">
-        <v>79.15691894664832</v>
+        <v>79.1569189466483</v>
       </c>
       <c r="T14" t="n">
-        <v>15.20611794575767</v>
+        <v>15.20611794575766</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2778959304764392</v>
+        <v>0.2778959304764391</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.858592888793781</v>
       </c>
       <c r="H15" t="n">
-        <v>17.95009447861363</v>
+        <v>17.95009447861362</v>
       </c>
       <c r="I15" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224202</v>
       </c>
       <c r="J15" t="n">
         <v>175.59626937503</v>
@@ -32083,19 +32083,19 @@
         <v>300.1219929242133</v>
       </c>
       <c r="L15" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409479</v>
       </c>
       <c r="M15" t="n">
         <v>470.9250490597224</v>
       </c>
       <c r="N15" t="n">
-        <v>483.3890338271159</v>
+        <v>483.3890338271158</v>
       </c>
       <c r="O15" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385799</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276475</v>
       </c>
       <c r="Q15" t="n">
         <v>237.2477519098869</v>
@@ -32104,10 +32104,10 @@
         <v>115.3957935691437</v>
       </c>
       <c r="S15" t="n">
-        <v>34.52254773702482</v>
+        <v>34.52254773702481</v>
       </c>
       <c r="T15" t="n">
-        <v>7.491433617550369</v>
+        <v>7.491433617550368</v>
       </c>
       <c r="U15" t="n">
         <v>0.1222758479469593</v>
@@ -32153,7 +32153,7 @@
         <v>13.85365312018074</v>
       </c>
       <c r="I16" t="n">
-        <v>46.85877762940479</v>
+        <v>46.85877762940478</v>
       </c>
       <c r="J16" t="n">
         <v>110.1634563554658</v>
@@ -32180,16 +32180,16 @@
         <v>130.476481482602</v>
       </c>
       <c r="R16" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228414</v>
       </c>
       <c r="S16" t="n">
-        <v>27.15485995029291</v>
+        <v>27.1548599502929</v>
       </c>
       <c r="T16" t="n">
         <v>6.657686059800556</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362423</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32241,34 +32241,34 @@
         <v>441.8675558292798</v>
       </c>
       <c r="L17" t="n">
-        <v>548.1757756082591</v>
+        <v>548.175775608259</v>
       </c>
       <c r="M17" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283886</v>
       </c>
       <c r="N17" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842159</v>
       </c>
       <c r="O17" t="n">
         <v>585.2792244507773</v>
       </c>
       <c r="P17" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553135</v>
       </c>
       <c r="Q17" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279699</v>
       </c>
       <c r="R17" t="n">
         <v>218.204753034883</v>
       </c>
       <c r="S17" t="n">
-        <v>79.15691894664832</v>
+        <v>79.1569189466483</v>
       </c>
       <c r="T17" t="n">
-        <v>15.20611794575767</v>
+        <v>15.20611794575766</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2778959304764392</v>
+        <v>0.2778959304764391</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.858592888793781</v>
       </c>
       <c r="H18" t="n">
-        <v>17.95009447861363</v>
+        <v>17.95009447861362</v>
       </c>
       <c r="I18" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224202</v>
       </c>
       <c r="J18" t="n">
         <v>175.59626937503</v>
@@ -32320,19 +32320,19 @@
         <v>300.1219929242133</v>
       </c>
       <c r="L18" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409479</v>
       </c>
       <c r="M18" t="n">
         <v>470.9250490597224</v>
       </c>
       <c r="N18" t="n">
-        <v>483.3890338271159</v>
+        <v>483.3890338271158</v>
       </c>
       <c r="O18" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385799</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276475</v>
       </c>
       <c r="Q18" t="n">
         <v>237.2477519098869</v>
@@ -32341,10 +32341,10 @@
         <v>115.3957935691437</v>
       </c>
       <c r="S18" t="n">
-        <v>34.52254773702482</v>
+        <v>34.52254773702481</v>
       </c>
       <c r="T18" t="n">
-        <v>7.491433617550369</v>
+        <v>7.491433617550368</v>
       </c>
       <c r="U18" t="n">
         <v>0.1222758479469593</v>
@@ -32390,7 +32390,7 @@
         <v>13.85365312018074</v>
       </c>
       <c r="I19" t="n">
-        <v>46.85877762940479</v>
+        <v>46.85877762940478</v>
       </c>
       <c r="J19" t="n">
         <v>110.1634563554658</v>
@@ -32417,16 +32417,16 @@
         <v>130.476481482602</v>
       </c>
       <c r="R19" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228414</v>
       </c>
       <c r="S19" t="n">
-        <v>27.15485995029291</v>
+        <v>27.1548599502929</v>
       </c>
       <c r="T19" t="n">
         <v>6.657686059800556</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362423</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32478,34 +32478,34 @@
         <v>441.8675558292798</v>
       </c>
       <c r="L20" t="n">
-        <v>548.1757756082591</v>
+        <v>548.175775608259</v>
       </c>
       <c r="M20" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283886</v>
       </c>
       <c r="N20" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842159</v>
       </c>
       <c r="O20" t="n">
         <v>585.2792244507773</v>
       </c>
       <c r="P20" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553135</v>
       </c>
       <c r="Q20" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279699</v>
       </c>
       <c r="R20" t="n">
         <v>218.204753034883</v>
       </c>
       <c r="S20" t="n">
-        <v>79.15691894664832</v>
+        <v>79.1569189466483</v>
       </c>
       <c r="T20" t="n">
-        <v>15.20611794575767</v>
+        <v>15.20611794575766</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2778959304764392</v>
+        <v>0.2778959304764391</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.858592888793781</v>
       </c>
       <c r="H21" t="n">
-        <v>17.95009447861363</v>
+        <v>17.95009447861362</v>
       </c>
       <c r="I21" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224202</v>
       </c>
       <c r="J21" t="n">
         <v>175.59626937503</v>
@@ -32557,19 +32557,19 @@
         <v>300.1219929242133</v>
       </c>
       <c r="L21" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409479</v>
       </c>
       <c r="M21" t="n">
         <v>470.9250490597224</v>
       </c>
       <c r="N21" t="n">
-        <v>483.3890338271159</v>
+        <v>483.3890338271158</v>
       </c>
       <c r="O21" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385799</v>
       </c>
       <c r="P21" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276475</v>
       </c>
       <c r="Q21" t="n">
         <v>237.2477519098869</v>
@@ -32578,10 +32578,10 @@
         <v>115.3957935691437</v>
       </c>
       <c r="S21" t="n">
-        <v>34.52254773702482</v>
+        <v>34.52254773702481</v>
       </c>
       <c r="T21" t="n">
-        <v>7.491433617550369</v>
+        <v>7.491433617550368</v>
       </c>
       <c r="U21" t="n">
         <v>0.1222758479469593</v>
@@ -32627,7 +32627,7 @@
         <v>13.85365312018074</v>
       </c>
       <c r="I22" t="n">
-        <v>46.85877762940479</v>
+        <v>46.85877762940478</v>
       </c>
       <c r="J22" t="n">
         <v>110.1634563554658</v>
@@ -32654,16 +32654,16 @@
         <v>130.476481482602</v>
       </c>
       <c r="R22" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228414</v>
       </c>
       <c r="S22" t="n">
-        <v>27.15485995029291</v>
+        <v>27.1548599502929</v>
       </c>
       <c r="T22" t="n">
         <v>6.657686059800556</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362423</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32715,34 +32715,34 @@
         <v>441.8675558292798</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1757756082591</v>
+        <v>548.175775608259</v>
       </c>
       <c r="M23" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283886</v>
       </c>
       <c r="N23" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842159</v>
       </c>
       <c r="O23" t="n">
         <v>585.2792244507773</v>
       </c>
       <c r="P23" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553135</v>
       </c>
       <c r="Q23" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279699</v>
       </c>
       <c r="R23" t="n">
         <v>218.204753034883</v>
       </c>
       <c r="S23" t="n">
-        <v>79.15691894664832</v>
+        <v>79.1569189466483</v>
       </c>
       <c r="T23" t="n">
-        <v>15.20611794575767</v>
+        <v>15.20611794575766</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2778959304764392</v>
+        <v>0.2778959304764391</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.858592888793781</v>
       </c>
       <c r="H24" t="n">
-        <v>17.95009447861363</v>
+        <v>17.95009447861362</v>
       </c>
       <c r="I24" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224202</v>
       </c>
       <c r="J24" t="n">
         <v>175.59626937503</v>
@@ -32794,19 +32794,19 @@
         <v>300.1219929242133</v>
       </c>
       <c r="L24" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409479</v>
       </c>
       <c r="M24" t="n">
         <v>470.9250490597224</v>
       </c>
       <c r="N24" t="n">
-        <v>483.3890338271159</v>
+        <v>483.3890338271158</v>
       </c>
       <c r="O24" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385799</v>
       </c>
       <c r="P24" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276475</v>
       </c>
       <c r="Q24" t="n">
         <v>237.2477519098869</v>
@@ -32815,10 +32815,10 @@
         <v>115.3957935691437</v>
       </c>
       <c r="S24" t="n">
-        <v>34.52254773702482</v>
+        <v>34.52254773702481</v>
       </c>
       <c r="T24" t="n">
-        <v>7.491433617550369</v>
+        <v>7.491433617550368</v>
       </c>
       <c r="U24" t="n">
         <v>0.1222758479469593</v>
@@ -32864,7 +32864,7 @@
         <v>13.85365312018074</v>
       </c>
       <c r="I25" t="n">
-        <v>46.85877762940479</v>
+        <v>46.85877762940478</v>
       </c>
       <c r="J25" t="n">
         <v>110.1634563554658</v>
@@ -32891,16 +32891,16 @@
         <v>130.476481482602</v>
       </c>
       <c r="R25" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228414</v>
       </c>
       <c r="S25" t="n">
-        <v>27.15485995029291</v>
+        <v>27.1548599502929</v>
       </c>
       <c r="T25" t="n">
         <v>6.657686059800556</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362423</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32952,34 +32952,34 @@
         <v>441.8675558292798</v>
       </c>
       <c r="L26" t="n">
-        <v>548.1757756082591</v>
+        <v>548.175775608259</v>
       </c>
       <c r="M26" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283886</v>
       </c>
       <c r="N26" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842159</v>
       </c>
       <c r="O26" t="n">
         <v>585.2792244507773</v>
       </c>
       <c r="P26" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553135</v>
       </c>
       <c r="Q26" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279699</v>
       </c>
       <c r="R26" t="n">
         <v>218.204753034883</v>
       </c>
       <c r="S26" t="n">
-        <v>79.15691894664832</v>
+        <v>79.1569189466483</v>
       </c>
       <c r="T26" t="n">
-        <v>15.20611794575767</v>
+        <v>15.20611794575766</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2778959304764392</v>
+        <v>0.2778959304764391</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.858592888793781</v>
       </c>
       <c r="H27" t="n">
-        <v>17.95009447861363</v>
+        <v>17.95009447861362</v>
       </c>
       <c r="I27" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224202</v>
       </c>
       <c r="J27" t="n">
         <v>175.59626937503</v>
@@ -33031,19 +33031,19 @@
         <v>300.1219929242133</v>
       </c>
       <c r="L27" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409479</v>
       </c>
       <c r="M27" t="n">
         <v>470.9250490597224</v>
       </c>
       <c r="N27" t="n">
-        <v>483.3890338271159</v>
+        <v>483.3890338271158</v>
       </c>
       <c r="O27" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385799</v>
       </c>
       <c r="P27" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276475</v>
       </c>
       <c r="Q27" t="n">
         <v>237.2477519098869</v>
@@ -33052,10 +33052,10 @@
         <v>115.3957935691437</v>
       </c>
       <c r="S27" t="n">
-        <v>34.52254773702482</v>
+        <v>34.52254773702481</v>
       </c>
       <c r="T27" t="n">
-        <v>7.491433617550369</v>
+        <v>7.491433617550368</v>
       </c>
       <c r="U27" t="n">
         <v>0.1222758479469593</v>
@@ -33101,7 +33101,7 @@
         <v>13.85365312018074</v>
       </c>
       <c r="I28" t="n">
-        <v>46.85877762940479</v>
+        <v>46.85877762940478</v>
       </c>
       <c r="J28" t="n">
         <v>110.1634563554658</v>
@@ -33128,16 +33128,16 @@
         <v>130.476481482602</v>
       </c>
       <c r="R28" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228414</v>
       </c>
       <c r="S28" t="n">
-        <v>27.15485995029291</v>
+        <v>27.1548599502929</v>
       </c>
       <c r="T28" t="n">
         <v>6.657686059800556</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362423</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33189,34 +33189,34 @@
         <v>441.8675558292798</v>
       </c>
       <c r="L29" t="n">
-        <v>548.1757756082591</v>
+        <v>548.175775608259</v>
       </c>
       <c r="M29" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283886</v>
       </c>
       <c r="N29" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842159</v>
       </c>
       <c r="O29" t="n">
         <v>585.2792244507773</v>
       </c>
       <c r="P29" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553135</v>
       </c>
       <c r="Q29" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279699</v>
       </c>
       <c r="R29" t="n">
         <v>218.204753034883</v>
       </c>
       <c r="S29" t="n">
-        <v>79.15691894664832</v>
+        <v>79.1569189466483</v>
       </c>
       <c r="T29" t="n">
-        <v>15.20611794575767</v>
+        <v>15.20611794575766</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2778959304764392</v>
+        <v>0.2778959304764391</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.858592888793781</v>
       </c>
       <c r="H30" t="n">
-        <v>17.95009447861363</v>
+        <v>17.95009447861362</v>
       </c>
       <c r="I30" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224202</v>
       </c>
       <c r="J30" t="n">
         <v>175.59626937503</v>
@@ -33268,19 +33268,19 @@
         <v>300.1219929242133</v>
       </c>
       <c r="L30" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409479</v>
       </c>
       <c r="M30" t="n">
         <v>470.9250490597224</v>
       </c>
       <c r="N30" t="n">
-        <v>483.3890338271159</v>
+        <v>483.3890338271158</v>
       </c>
       <c r="O30" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385799</v>
       </c>
       <c r="P30" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276475</v>
       </c>
       <c r="Q30" t="n">
         <v>237.2477519098869</v>
@@ -33289,10 +33289,10 @@
         <v>115.3957935691437</v>
       </c>
       <c r="S30" t="n">
-        <v>34.52254773702482</v>
+        <v>34.52254773702481</v>
       </c>
       <c r="T30" t="n">
-        <v>7.491433617550369</v>
+        <v>7.491433617550368</v>
       </c>
       <c r="U30" t="n">
         <v>0.1222758479469593</v>
@@ -33338,7 +33338,7 @@
         <v>13.85365312018074</v>
       </c>
       <c r="I31" t="n">
-        <v>46.85877762940479</v>
+        <v>46.85877762940478</v>
       </c>
       <c r="J31" t="n">
         <v>110.1634563554658</v>
@@ -33365,16 +33365,16 @@
         <v>130.476481482602</v>
       </c>
       <c r="R31" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228414</v>
       </c>
       <c r="S31" t="n">
-        <v>27.15485995029291</v>
+        <v>27.1548599502929</v>
       </c>
       <c r="T31" t="n">
         <v>6.657686059800556</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362423</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33426,34 +33426,34 @@
         <v>441.8675558292798</v>
       </c>
       <c r="L32" t="n">
-        <v>548.1757756082591</v>
+        <v>548.175775608259</v>
       </c>
       <c r="M32" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283886</v>
       </c>
       <c r="N32" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842159</v>
       </c>
       <c r="O32" t="n">
         <v>585.2792244507773</v>
       </c>
       <c r="P32" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553135</v>
       </c>
       <c r="Q32" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279699</v>
       </c>
       <c r="R32" t="n">
         <v>218.204753034883</v>
       </c>
       <c r="S32" t="n">
-        <v>79.15691894664832</v>
+        <v>79.1569189466483</v>
       </c>
       <c r="T32" t="n">
-        <v>15.20611794575767</v>
+        <v>15.20611794575766</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2778959304764392</v>
+        <v>0.2778959304764391</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.858592888793781</v>
       </c>
       <c r="H33" t="n">
-        <v>17.95009447861363</v>
+        <v>17.95009447861362</v>
       </c>
       <c r="I33" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224202</v>
       </c>
       <c r="J33" t="n">
         <v>175.59626937503</v>
@@ -33505,19 +33505,19 @@
         <v>300.1219929242133</v>
       </c>
       <c r="L33" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409479</v>
       </c>
       <c r="M33" t="n">
         <v>470.9250490597224</v>
       </c>
       <c r="N33" t="n">
-        <v>483.3890338271159</v>
+        <v>483.3890338271158</v>
       </c>
       <c r="O33" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385799</v>
       </c>
       <c r="P33" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276475</v>
       </c>
       <c r="Q33" t="n">
         <v>237.2477519098869</v>
@@ -33526,10 +33526,10 @@
         <v>115.3957935691437</v>
       </c>
       <c r="S33" t="n">
-        <v>34.52254773702482</v>
+        <v>34.52254773702481</v>
       </c>
       <c r="T33" t="n">
-        <v>7.491433617550369</v>
+        <v>7.491433617550368</v>
       </c>
       <c r="U33" t="n">
         <v>0.1222758479469593</v>
@@ -33575,7 +33575,7 @@
         <v>13.85365312018074</v>
       </c>
       <c r="I34" t="n">
-        <v>46.85877762940479</v>
+        <v>46.85877762940478</v>
       </c>
       <c r="J34" t="n">
         <v>110.1634563554658</v>
@@ -33602,16 +33602,16 @@
         <v>130.476481482602</v>
       </c>
       <c r="R34" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228414</v>
       </c>
       <c r="S34" t="n">
-        <v>27.15485995029291</v>
+        <v>27.1548599502929</v>
       </c>
       <c r="T34" t="n">
         <v>6.657686059800556</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362423</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33663,34 +33663,34 @@
         <v>441.8675558292798</v>
       </c>
       <c r="L35" t="n">
-        <v>548.1757756082591</v>
+        <v>548.175775608259</v>
       </c>
       <c r="M35" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283886</v>
       </c>
       <c r="N35" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842159</v>
       </c>
       <c r="O35" t="n">
         <v>585.2792244507773</v>
       </c>
       <c r="P35" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553135</v>
       </c>
       <c r="Q35" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279699</v>
       </c>
       <c r="R35" t="n">
         <v>218.204753034883</v>
       </c>
       <c r="S35" t="n">
-        <v>79.15691894664832</v>
+        <v>79.1569189466483</v>
       </c>
       <c r="T35" t="n">
-        <v>15.20611794575767</v>
+        <v>15.20611794575766</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2778959304764392</v>
+        <v>0.2778959304764391</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.858592888793781</v>
       </c>
       <c r="H36" t="n">
-        <v>17.95009447861363</v>
+        <v>17.95009447861362</v>
       </c>
       <c r="I36" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224202</v>
       </c>
       <c r="J36" t="n">
         <v>175.59626937503</v>
@@ -33742,19 +33742,19 @@
         <v>300.1219929242133</v>
       </c>
       <c r="L36" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409479</v>
       </c>
       <c r="M36" t="n">
         <v>470.9250490597224</v>
       </c>
       <c r="N36" t="n">
-        <v>483.3890338271159</v>
+        <v>483.3890338271158</v>
       </c>
       <c r="O36" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385799</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276475</v>
       </c>
       <c r="Q36" t="n">
         <v>237.2477519098869</v>
@@ -33763,10 +33763,10 @@
         <v>115.3957935691437</v>
       </c>
       <c r="S36" t="n">
-        <v>34.52254773702482</v>
+        <v>34.52254773702481</v>
       </c>
       <c r="T36" t="n">
-        <v>7.491433617550369</v>
+        <v>7.491433617550368</v>
       </c>
       <c r="U36" t="n">
         <v>0.1222758479469593</v>
@@ -33812,7 +33812,7 @@
         <v>13.85365312018074</v>
       </c>
       <c r="I37" t="n">
-        <v>46.85877762940479</v>
+        <v>46.85877762940478</v>
       </c>
       <c r="J37" t="n">
         <v>110.1634563554658</v>
@@ -33839,16 +33839,16 @@
         <v>130.476481482602</v>
       </c>
       <c r="R37" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228414</v>
       </c>
       <c r="S37" t="n">
-        <v>27.15485995029291</v>
+        <v>27.1548599502929</v>
       </c>
       <c r="T37" t="n">
         <v>6.657686059800556</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362423</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33900,34 +33900,34 @@
         <v>441.8675558292798</v>
       </c>
       <c r="L38" t="n">
-        <v>548.1757756082591</v>
+        <v>548.175775608259</v>
       </c>
       <c r="M38" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283886</v>
       </c>
       <c r="N38" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842159</v>
       </c>
       <c r="O38" t="n">
         <v>585.2792244507773</v>
       </c>
       <c r="P38" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553135</v>
       </c>
       <c r="Q38" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279699</v>
       </c>
       <c r="R38" t="n">
         <v>218.204753034883</v>
       </c>
       <c r="S38" t="n">
-        <v>79.15691894664832</v>
+        <v>79.1569189466483</v>
       </c>
       <c r="T38" t="n">
-        <v>15.20611794575767</v>
+        <v>15.20611794575766</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2778959304764392</v>
+        <v>0.2778959304764391</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.858592888793781</v>
       </c>
       <c r="H39" t="n">
-        <v>17.95009447861363</v>
+        <v>17.95009447861362</v>
       </c>
       <c r="I39" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224202</v>
       </c>
       <c r="J39" t="n">
         <v>175.59626937503</v>
@@ -33979,19 +33979,19 @@
         <v>300.1219929242133</v>
       </c>
       <c r="L39" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409479</v>
       </c>
       <c r="M39" t="n">
         <v>470.9250490597224</v>
       </c>
       <c r="N39" t="n">
-        <v>483.3890338271159</v>
+        <v>483.3890338271158</v>
       </c>
       <c r="O39" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385799</v>
       </c>
       <c r="P39" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276475</v>
       </c>
       <c r="Q39" t="n">
         <v>237.2477519098869</v>
@@ -34000,10 +34000,10 @@
         <v>115.3957935691437</v>
       </c>
       <c r="S39" t="n">
-        <v>34.52254773702482</v>
+        <v>34.52254773702481</v>
       </c>
       <c r="T39" t="n">
-        <v>7.491433617550369</v>
+        <v>7.491433617550368</v>
       </c>
       <c r="U39" t="n">
         <v>0.1222758479469593</v>
@@ -34049,7 +34049,7 @@
         <v>13.85365312018074</v>
       </c>
       <c r="I40" t="n">
-        <v>46.85877762940479</v>
+        <v>46.85877762940478</v>
       </c>
       <c r="J40" t="n">
         <v>110.1634563554658</v>
@@ -34076,16 +34076,16 @@
         <v>130.476481482602</v>
       </c>
       <c r="R40" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228414</v>
       </c>
       <c r="S40" t="n">
-        <v>27.15485995029291</v>
+        <v>27.1548599502929</v>
       </c>
       <c r="T40" t="n">
         <v>6.657686059800556</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362423</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34137,34 +34137,34 @@
         <v>441.8675558292798</v>
       </c>
       <c r="L41" t="n">
-        <v>548.1757756082591</v>
+        <v>548.175775608259</v>
       </c>
       <c r="M41" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283886</v>
       </c>
       <c r="N41" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842159</v>
       </c>
       <c r="O41" t="n">
         <v>585.2792244507773</v>
       </c>
       <c r="P41" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553135</v>
       </c>
       <c r="Q41" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279699</v>
       </c>
       <c r="R41" t="n">
         <v>218.204753034883</v>
       </c>
       <c r="S41" t="n">
-        <v>79.15691894664832</v>
+        <v>79.1569189466483</v>
       </c>
       <c r="T41" t="n">
-        <v>15.20611794575767</v>
+        <v>15.20611794575766</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2778959304764392</v>
+        <v>0.2778959304764391</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.858592888793781</v>
       </c>
       <c r="H42" t="n">
-        <v>17.95009447861363</v>
+        <v>17.95009447861362</v>
       </c>
       <c r="I42" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224202</v>
       </c>
       <c r="J42" t="n">
         <v>175.59626937503</v>
@@ -34216,19 +34216,19 @@
         <v>300.1219929242133</v>
       </c>
       <c r="L42" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409479</v>
       </c>
       <c r="M42" t="n">
         <v>470.9250490597224</v>
       </c>
       <c r="N42" t="n">
-        <v>483.3890338271159</v>
+        <v>483.3890338271158</v>
       </c>
       <c r="O42" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385799</v>
       </c>
       <c r="P42" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276475</v>
       </c>
       <c r="Q42" t="n">
         <v>237.2477519098869</v>
@@ -34237,10 +34237,10 @@
         <v>115.3957935691437</v>
       </c>
       <c r="S42" t="n">
-        <v>34.52254773702482</v>
+        <v>34.52254773702481</v>
       </c>
       <c r="T42" t="n">
-        <v>7.491433617550369</v>
+        <v>7.491433617550368</v>
       </c>
       <c r="U42" t="n">
         <v>0.1222758479469593</v>
@@ -34286,7 +34286,7 @@
         <v>13.85365312018074</v>
       </c>
       <c r="I43" t="n">
-        <v>46.85877762940479</v>
+        <v>46.85877762940478</v>
       </c>
       <c r="J43" t="n">
         <v>110.1634563554658</v>
@@ -34313,16 +34313,16 @@
         <v>130.476481482602</v>
       </c>
       <c r="R43" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228414</v>
       </c>
       <c r="S43" t="n">
-        <v>27.15485995029291</v>
+        <v>27.1548599502929</v>
       </c>
       <c r="T43" t="n">
         <v>6.657686059800556</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362423</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34374,34 +34374,34 @@
         <v>441.8675558292798</v>
       </c>
       <c r="L44" t="n">
-        <v>548.1757756082591</v>
+        <v>548.175775608259</v>
       </c>
       <c r="M44" t="n">
-        <v>609.9511725283887</v>
+        <v>609.9511725283886</v>
       </c>
       <c r="N44" t="n">
-        <v>619.820820184216</v>
+        <v>619.8208201842159</v>
       </c>
       <c r="O44" t="n">
         <v>585.2792244507773</v>
       </c>
       <c r="P44" t="n">
-        <v>499.5222771553136</v>
+        <v>499.5222771553135</v>
       </c>
       <c r="Q44" t="n">
-        <v>375.12042702797</v>
+        <v>375.1204270279699</v>
       </c>
       <c r="R44" t="n">
         <v>218.204753034883</v>
       </c>
       <c r="S44" t="n">
-        <v>79.15691894664832</v>
+        <v>79.1569189466483</v>
       </c>
       <c r="T44" t="n">
-        <v>15.20611794575767</v>
+        <v>15.20611794575766</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2778959304764392</v>
+        <v>0.2778959304764391</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.858592888793781</v>
       </c>
       <c r="H45" t="n">
-        <v>17.95009447861363</v>
+        <v>17.95009447861362</v>
       </c>
       <c r="I45" t="n">
-        <v>63.99102709224204</v>
+        <v>63.99102709224202</v>
       </c>
       <c r="J45" t="n">
         <v>175.59626937503</v>
@@ -34453,19 +34453,19 @@
         <v>300.1219929242133</v>
       </c>
       <c r="L45" t="n">
-        <v>403.551056840948</v>
+        <v>403.5510568409479</v>
       </c>
       <c r="M45" t="n">
         <v>470.9250490597224</v>
       </c>
       <c r="N45" t="n">
-        <v>483.3890338271159</v>
+        <v>483.3890338271158</v>
       </c>
       <c r="O45" t="n">
-        <v>442.20652823858</v>
+        <v>442.2065282385799</v>
       </c>
       <c r="P45" t="n">
-        <v>354.9097245276476</v>
+        <v>354.9097245276475</v>
       </c>
       <c r="Q45" t="n">
         <v>237.2477519098869</v>
@@ -34474,10 +34474,10 @@
         <v>115.3957935691437</v>
       </c>
       <c r="S45" t="n">
-        <v>34.52254773702482</v>
+        <v>34.52254773702481</v>
       </c>
       <c r="T45" t="n">
-        <v>7.491433617550369</v>
+        <v>7.491433617550368</v>
       </c>
       <c r="U45" t="n">
         <v>0.1222758479469593</v>
@@ -34523,7 +34523,7 @@
         <v>13.85365312018074</v>
       </c>
       <c r="I46" t="n">
-        <v>46.85877762940479</v>
+        <v>46.85877762940478</v>
       </c>
       <c r="J46" t="n">
         <v>110.1634563554658</v>
@@ -34550,16 +34550,16 @@
         <v>130.476481482602</v>
       </c>
       <c r="R46" t="n">
-        <v>70.06152181228416</v>
+        <v>70.06152181228414</v>
       </c>
       <c r="S46" t="n">
-        <v>27.15485995029291</v>
+        <v>27.1548599502929</v>
       </c>
       <c r="T46" t="n">
         <v>6.657686059800556</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08499173693362425</v>
+        <v>0.08499173693362423</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>282.8765822613213</v>
       </c>
       <c r="K11" t="n">
-        <v>221.7777047842993</v>
+        <v>221.7777047842992</v>
       </c>
       <c r="L11" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382717</v>
       </c>
       <c r="M11" t="n">
-        <v>379.604939301116</v>
+        <v>560.4881350808963</v>
       </c>
       <c r="N11" t="n">
-        <v>390.4077565876251</v>
+        <v>390.407756587625</v>
       </c>
       <c r="O11" t="n">
         <v>355.1810130290905</v>
@@ -35430,10 +35430,10 @@
         <v>268.289281400044</v>
       </c>
       <c r="Q11" t="n">
-        <v>267.9815130603172</v>
+        <v>152.8147371535204</v>
       </c>
       <c r="R11" t="n">
-        <v>68.33563509373334</v>
+        <v>2.619215220750874</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>116.3955661721891</v>
+        <v>48.75864270836331</v>
       </c>
       <c r="K12" t="n">
-        <v>162.2805539498543</v>
+        <v>426.7457909624329</v>
       </c>
       <c r="L12" t="n">
-        <v>635.8370223645329</v>
+        <v>562.6321491363695</v>
       </c>
       <c r="M12" t="n">
         <v>328.7910151377041</v>
       </c>
       <c r="N12" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437825</v>
       </c>
       <c r="O12" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941355</v>
       </c>
       <c r="P12" t="n">
-        <v>539.3980857532545</v>
+        <v>220.9353171133173</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.26597782386537</v>
+        <v>307.3432655597144</v>
       </c>
       <c r="R12" t="n">
-        <v>15.23795941650062</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879304</v>
       </c>
       <c r="K13" t="n">
         <v>158.7629078427365</v>
@@ -35576,7 +35576,7 @@
         <v>259.2491695623977</v>
       </c>
       <c r="M13" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195873</v>
       </c>
       <c r="N13" t="n">
         <v>282.5764903465113</v>
@@ -35649,16 +35649,16 @@
         <v>113.7799670892475</v>
       </c>
       <c r="K14" t="n">
-        <v>221.7777047842993</v>
+        <v>221.7777047842992</v>
       </c>
       <c r="L14" t="n">
-        <v>384.3577610572377</v>
+        <v>384.3577610572386</v>
       </c>
       <c r="M14" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011159</v>
       </c>
       <c r="N14" t="n">
-        <v>390.4077565876251</v>
+        <v>390.407756587625</v>
       </c>
       <c r="O14" t="n">
         <v>355.1810130290905</v>
@@ -35667,10 +35667,10 @@
         <v>268.289281400044</v>
       </c>
       <c r="Q14" t="n">
-        <v>365.1297278134252</v>
+        <v>365.1297278134251</v>
       </c>
       <c r="R14" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373332</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>426.7457909624329</v>
       </c>
       <c r="L15" t="n">
-        <v>264.9966770610738</v>
+        <v>421.3031543794602</v>
       </c>
       <c r="M15" t="n">
         <v>328.7910151377041</v>
       </c>
       <c r="N15" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437825</v>
       </c>
       <c r="O15" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941355</v>
       </c>
       <c r="P15" t="n">
-        <v>377.2417944317025</v>
+        <v>220.9353171133173</v>
       </c>
       <c r="Q15" t="n">
-        <v>307.3432655597145</v>
+        <v>307.3432655597144</v>
       </c>
       <c r="R15" t="n">
-        <v>15.23795941650062</v>
+        <v>15.2379594165006</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879304</v>
       </c>
       <c r="K16" t="n">
         <v>158.7629078427365</v>
@@ -35813,7 +35813,7 @@
         <v>259.2491695623977</v>
       </c>
       <c r="M16" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195873</v>
       </c>
       <c r="N16" t="n">
         <v>282.5764903465113</v>
@@ -35886,16 +35886,16 @@
         <v>282.8765822613213</v>
       </c>
       <c r="K17" t="n">
-        <v>336.9444806910961</v>
+        <v>221.7777047842992</v>
       </c>
       <c r="L17" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382717</v>
       </c>
       <c r="M17" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011159</v>
       </c>
       <c r="N17" t="n">
-        <v>390.4077565876251</v>
+        <v>390.407756587625</v>
       </c>
       <c r="O17" t="n">
         <v>355.1810130290905</v>
@@ -35904,10 +35904,10 @@
         <v>268.289281400044</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.8147371535205</v>
+        <v>267.9815130603181</v>
       </c>
       <c r="R17" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373332</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>426.7457909624329</v>
       </c>
       <c r="L18" t="n">
-        <v>264.9966770610738</v>
+        <v>631.3804421153094</v>
       </c>
       <c r="M18" t="n">
         <v>328.7910151377041</v>
       </c>
       <c r="N18" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437825</v>
       </c>
       <c r="O18" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941355</v>
       </c>
       <c r="P18" t="n">
-        <v>377.2417944317025</v>
+        <v>220.9353171133173</v>
       </c>
       <c r="Q18" t="n">
-        <v>307.3432655597145</v>
+        <v>97.26597782386534</v>
       </c>
       <c r="R18" t="n">
-        <v>15.23795941650062</v>
+        <v>15.2379594165006</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879304</v>
       </c>
       <c r="K19" t="n">
         <v>158.7629078427365</v>
@@ -36050,7 +36050,7 @@
         <v>259.2491695623977</v>
       </c>
       <c r="M19" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195873</v>
       </c>
       <c r="N19" t="n">
         <v>282.5764903465113</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.8765822613213</v>
+        <v>113.7799670892475</v>
       </c>
       <c r="K20" t="n">
-        <v>221.7777047842993</v>
+        <v>293.7261052032657</v>
       </c>
       <c r="L20" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382717</v>
       </c>
       <c r="M20" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011159</v>
       </c>
       <c r="N20" t="n">
-        <v>390.4077565876251</v>
+        <v>390.407756587625</v>
       </c>
       <c r="O20" t="n">
         <v>355.1810130290905</v>
@@ -36141,10 +36141,10 @@
         <v>268.289281400044</v>
       </c>
       <c r="Q20" t="n">
-        <v>267.9815130603172</v>
+        <v>365.1297278134251</v>
       </c>
       <c r="R20" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373332</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>426.7457909624329</v>
       </c>
       <c r="L21" t="n">
-        <v>421.3031543794593</v>
+        <v>436.5411137959604</v>
       </c>
       <c r="M21" t="n">
         <v>328.7910151377041</v>
       </c>
       <c r="N21" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437825</v>
       </c>
       <c r="O21" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941355</v>
       </c>
       <c r="P21" t="n">
-        <v>220.9353171133174</v>
+        <v>220.9353171133173</v>
       </c>
       <c r="Q21" t="n">
-        <v>307.3432655597145</v>
+        <v>307.3432655597144</v>
       </c>
       <c r="R21" t="n">
-        <v>15.23795941650062</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879304</v>
       </c>
       <c r="K22" t="n">
         <v>158.7629078427365</v>
@@ -36287,7 +36287,7 @@
         <v>259.2491695623977</v>
       </c>
       <c r="M22" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195873</v>
       </c>
       <c r="N22" t="n">
         <v>282.5764903465113</v>
@@ -36363,25 +36363,25 @@
         <v>545.923117355464</v>
       </c>
       <c r="L23" t="n">
-        <v>730.0705751887223</v>
+        <v>730.0705751887222</v>
       </c>
       <c r="M23" t="n">
-        <v>654.946527141575</v>
+        <v>720.6629470145563</v>
       </c>
       <c r="N23" t="n">
-        <v>827.7546809996093</v>
+        <v>827.7546809996091</v>
       </c>
       <c r="O23" t="n">
         <v>735.9811942918359</v>
       </c>
       <c r="P23" t="n">
-        <v>590.0879895715267</v>
+        <v>590.0879895715266</v>
       </c>
       <c r="Q23" t="n">
-        <v>365.1297278134252</v>
+        <v>365.1297278134251</v>
       </c>
       <c r="R23" t="n">
-        <v>68.33563509373334</v>
+        <v>2.619215220750874</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>48.75864270836331</v>
+        <v>174.8496780487721</v>
       </c>
       <c r="K24" t="n">
         <v>426.7457909624329</v>
       </c>
       <c r="L24" t="n">
-        <v>264.9966770610738</v>
+        <v>264.9966770610737</v>
       </c>
       <c r="M24" t="n">
         <v>328.7910151377041</v>
       </c>
       <c r="N24" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437825</v>
       </c>
       <c r="O24" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941355</v>
       </c>
       <c r="P24" t="n">
-        <v>539.3980857532545</v>
+        <v>392.4797538482036</v>
       </c>
       <c r="Q24" t="n">
-        <v>286.5159689950723</v>
+        <v>307.3432655597144</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879304</v>
       </c>
       <c r="K25" t="n">
         <v>158.7629078427365</v>
@@ -36524,7 +36524,7 @@
         <v>259.2491695623977</v>
       </c>
       <c r="M25" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195873</v>
       </c>
       <c r="N25" t="n">
         <v>282.5764903465113</v>
@@ -36600,25 +36600,25 @@
         <v>545.923117355464</v>
       </c>
       <c r="L26" t="n">
-        <v>730.0705751887223</v>
+        <v>730.0705751887222</v>
       </c>
       <c r="M26" t="n">
-        <v>829.1184727939485</v>
+        <v>829.1184727939484</v>
       </c>
       <c r="N26" t="n">
-        <v>827.7546809996093</v>
+        <v>653.5827353472348</v>
       </c>
       <c r="O26" t="n">
-        <v>627.5256685124444</v>
+        <v>735.9811942918359</v>
       </c>
       <c r="P26" t="n">
-        <v>590.0879895715267</v>
+        <v>590.0879895715266</v>
       </c>
       <c r="Q26" t="n">
-        <v>365.1297278134252</v>
+        <v>365.1297278134251</v>
       </c>
       <c r="R26" t="n">
-        <v>2.619215220750903</v>
+        <v>68.33563509373332</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>174.8496780487721</v>
       </c>
       <c r="K27" t="n">
-        <v>426.7457909624329</v>
+        <v>162.2805539498543</v>
       </c>
       <c r="L27" t="n">
-        <v>421.3031543794593</v>
+        <v>635.8370223645329</v>
       </c>
       <c r="M27" t="n">
-        <v>328.7910151377041</v>
+        <v>393.96034358171</v>
       </c>
       <c r="N27" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437825</v>
       </c>
       <c r="O27" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941355</v>
       </c>
       <c r="P27" t="n">
-        <v>220.9353171133174</v>
+        <v>220.9353171133173</v>
       </c>
       <c r="Q27" t="n">
-        <v>307.3432655597145</v>
+        <v>307.3432655597144</v>
       </c>
       <c r="R27" t="n">
-        <v>15.23795941650062</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879304</v>
       </c>
       <c r="K28" t="n">
         <v>158.7629078427365</v>
@@ -36761,7 +36761,7 @@
         <v>259.2491695623977</v>
       </c>
       <c r="M28" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195873</v>
       </c>
       <c r="N28" t="n">
         <v>282.5764903465113</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>174.4210564819298</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K29" t="n">
         <v>545.923117355464</v>
       </c>
       <c r="L29" t="n">
-        <v>730.0705751887223</v>
+        <v>730.0705751887222</v>
       </c>
       <c r="M29" t="n">
-        <v>829.1184727939485</v>
+        <v>654.9465271415743</v>
       </c>
       <c r="N29" t="n">
-        <v>827.7546809996093</v>
+        <v>827.7546809996091</v>
       </c>
       <c r="O29" t="n">
         <v>735.9811942918359</v>
       </c>
       <c r="P29" t="n">
-        <v>590.0879895715267</v>
+        <v>590.0879895715266</v>
       </c>
       <c r="Q29" t="n">
-        <v>365.1297278134252</v>
+        <v>365.1297278134251</v>
       </c>
       <c r="R29" t="n">
-        <v>2.619215220750903</v>
+        <v>68.33563509373332</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>426.7457909624329</v>
       </c>
       <c r="L30" t="n">
-        <v>264.9966770610738</v>
+        <v>264.9966770610737</v>
       </c>
       <c r="M30" t="n">
         <v>328.7910151377041</v>
       </c>
       <c r="N30" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437825</v>
       </c>
       <c r="O30" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941355</v>
       </c>
       <c r="P30" t="n">
-        <v>377.2417944317025</v>
+        <v>392.4797538482036</v>
       </c>
       <c r="Q30" t="n">
-        <v>307.3432655597145</v>
+        <v>307.3432655597144</v>
       </c>
       <c r="R30" t="n">
-        <v>15.23795941650062</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879304</v>
       </c>
       <c r="K31" t="n">
         <v>158.7629078427365</v>
@@ -36998,7 +36998,7 @@
         <v>259.2491695623977</v>
       </c>
       <c r="M31" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195873</v>
       </c>
       <c r="N31" t="n">
         <v>282.5764903465113</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>113.7799670892475</v>
+        <v>282.8765822613213</v>
       </c>
       <c r="K32" t="n">
         <v>545.923117355464</v>
       </c>
       <c r="L32" t="n">
-        <v>730.0705751887223</v>
+        <v>730.0705751887222</v>
       </c>
       <c r="M32" t="n">
-        <v>829.1184727939485</v>
+        <v>829.1184727939484</v>
       </c>
       <c r="N32" t="n">
-        <v>822.6793505193103</v>
+        <v>827.7546809996091</v>
       </c>
       <c r="O32" t="n">
-        <v>735.9811942918359</v>
+        <v>627.5256685124444</v>
       </c>
       <c r="P32" t="n">
-        <v>590.0879895715267</v>
+        <v>590.0879895715266</v>
       </c>
       <c r="Q32" t="n">
-        <v>365.1297278134252</v>
+        <v>365.1297278134251</v>
       </c>
       <c r="R32" t="n">
-        <v>68.33563509373334</v>
+        <v>2.619215220750874</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8496780487721</v>
+        <v>48.75864270836331</v>
       </c>
       <c r="K33" t="n">
         <v>426.7457909624329</v>
       </c>
       <c r="L33" t="n">
-        <v>264.9966770610738</v>
+        <v>264.9966770610737</v>
       </c>
       <c r="M33" t="n">
         <v>328.7910151377041</v>
       </c>
       <c r="N33" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437825</v>
       </c>
       <c r="O33" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941355</v>
       </c>
       <c r="P33" t="n">
-        <v>377.2417944317025</v>
+        <v>539.3980857532545</v>
       </c>
       <c r="Q33" t="n">
-        <v>307.3432655597145</v>
+        <v>286.5159689950728</v>
       </c>
       <c r="R33" t="n">
-        <v>15.23795941650062</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879304</v>
       </c>
       <c r="K34" t="n">
         <v>158.7629078427365</v>
@@ -37235,7 +37235,7 @@
         <v>259.2491695623977</v>
       </c>
       <c r="M34" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195873</v>
       </c>
       <c r="N34" t="n">
         <v>282.5764903465113</v>
@@ -37308,16 +37308,16 @@
         <v>282.8765822613213</v>
       </c>
       <c r="K35" t="n">
-        <v>336.9444806910961</v>
+        <v>336.9444806910972</v>
       </c>
       <c r="L35" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382717</v>
       </c>
       <c r="M35" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011159</v>
       </c>
       <c r="N35" t="n">
-        <v>390.4077565876251</v>
+        <v>390.407756587625</v>
       </c>
       <c r="O35" t="n">
         <v>355.1810130290905</v>
@@ -37326,10 +37326,10 @@
         <v>268.289281400044</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.8147371535205</v>
+        <v>152.8147371535204</v>
       </c>
       <c r="R35" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373332</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>426.7457909624329</v>
       </c>
       <c r="L36" t="n">
-        <v>264.9966770610738</v>
+        <v>264.9966770610737</v>
       </c>
       <c r="M36" t="n">
         <v>328.7910151377041</v>
       </c>
       <c r="N36" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437825</v>
       </c>
       <c r="O36" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941355</v>
       </c>
       <c r="P36" t="n">
         <v>539.3980857532545</v>
       </c>
       <c r="Q36" t="n">
-        <v>271.2780095785717</v>
+        <v>286.5159689950728</v>
       </c>
       <c r="R36" t="n">
-        <v>15.23795941650062</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879304</v>
       </c>
       <c r="K37" t="n">
         <v>158.7629078427365</v>
@@ -37472,7 +37472,7 @@
         <v>259.2491695623977</v>
       </c>
       <c r="M37" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195873</v>
       </c>
       <c r="N37" t="n">
         <v>282.5764903465113</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.8765822613213</v>
+        <v>113.7799670892475</v>
       </c>
       <c r="K38" t="n">
-        <v>336.9444806910961</v>
+        <v>293.7261052032661</v>
       </c>
       <c r="L38" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382717</v>
       </c>
       <c r="M38" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011159</v>
       </c>
       <c r="N38" t="n">
-        <v>390.4077565876251</v>
+        <v>390.407756587625</v>
       </c>
       <c r="O38" t="n">
         <v>355.1810130290905</v>
@@ -37563,10 +37563,10 @@
         <v>268.289281400044</v>
       </c>
       <c r="Q38" t="n">
-        <v>152.8147371535205</v>
+        <v>365.1297278134251</v>
       </c>
       <c r="R38" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373332</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>174.8496780487721</v>
       </c>
       <c r="K39" t="n">
-        <v>426.7457909624329</v>
+        <v>187.5417968296542</v>
       </c>
       <c r="L39" t="n">
-        <v>421.3031543794593</v>
+        <v>264.9966770610737</v>
       </c>
       <c r="M39" t="n">
-        <v>328.7910151377041</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="N39" t="n">
-        <v>352.0473217437826</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="O39" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941355</v>
       </c>
       <c r="P39" t="n">
-        <v>220.9353171133174</v>
+        <v>220.9353171133173</v>
       </c>
       <c r="Q39" t="n">
-        <v>307.3432655597145</v>
+        <v>97.26597782386534</v>
       </c>
       <c r="R39" t="n">
-        <v>15.23795941650062</v>
+        <v>15.2379594165006</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879304</v>
       </c>
       <c r="K40" t="n">
         <v>158.7629078427365</v>
@@ -37709,7 +37709,7 @@
         <v>259.2491695623977</v>
       </c>
       <c r="M40" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195873</v>
       </c>
       <c r="N40" t="n">
         <v>282.5764903465113</v>
@@ -37782,16 +37782,16 @@
         <v>282.8765822613213</v>
       </c>
       <c r="K41" t="n">
-        <v>336.9444806910961</v>
+        <v>336.9444806910972</v>
       </c>
       <c r="L41" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382717</v>
       </c>
       <c r="M41" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011159</v>
       </c>
       <c r="N41" t="n">
-        <v>390.4077565876251</v>
+        <v>390.407756587625</v>
       </c>
       <c r="O41" t="n">
         <v>355.1810130290905</v>
@@ -37800,10 +37800,10 @@
         <v>268.289281400044</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.8147371535205</v>
+        <v>152.8147371535204</v>
       </c>
       <c r="R41" t="n">
-        <v>68.33563509373334</v>
+        <v>68.33563509373332</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>426.7457909624329</v>
       </c>
       <c r="L42" t="n">
-        <v>264.9966770610738</v>
+        <v>264.9966770610737</v>
       </c>
       <c r="M42" t="n">
         <v>328.7910151377041</v>
       </c>
       <c r="N42" t="n">
-        <v>352.0473217437826</v>
+        <v>352.0473217437825</v>
       </c>
       <c r="O42" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941355</v>
       </c>
       <c r="P42" t="n">
-        <v>377.2417944317025</v>
+        <v>377.241794431703</v>
       </c>
       <c r="Q42" t="n">
-        <v>307.3432655597145</v>
+        <v>307.3432655597144</v>
       </c>
       <c r="R42" t="n">
-        <v>15.23795941650062</v>
+        <v>15.2379594165006</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879304</v>
       </c>
       <c r="K43" t="n">
         <v>158.7629078427365</v>
@@ -37946,7 +37946,7 @@
         <v>259.2491695623977</v>
       </c>
       <c r="M43" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195873</v>
       </c>
       <c r="N43" t="n">
         <v>282.5764903465113</v>
@@ -38019,16 +38019,16 @@
         <v>282.8765822613213</v>
       </c>
       <c r="K44" t="n">
-        <v>221.7777047842993</v>
+        <v>221.7777047842992</v>
       </c>
       <c r="L44" t="n">
-        <v>312.4093606382718</v>
+        <v>312.4093606382717</v>
       </c>
       <c r="M44" t="n">
-        <v>379.604939301116</v>
+        <v>379.6049393011159</v>
       </c>
       <c r="N44" t="n">
-        <v>390.4077565876251</v>
+        <v>390.407756587625</v>
       </c>
       <c r="O44" t="n">
         <v>355.1810130290905</v>
@@ -38037,10 +38037,10 @@
         <v>268.289281400044</v>
       </c>
       <c r="Q44" t="n">
-        <v>333.6979329332997</v>
+        <v>267.9815130603181</v>
       </c>
       <c r="R44" t="n">
-        <v>2.619215220750903</v>
+        <v>68.33563509373332</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>174.8496780487721</v>
       </c>
       <c r="K45" t="n">
-        <v>426.7457909624329</v>
+        <v>198.7390205027639</v>
       </c>
       <c r="L45" t="n">
-        <v>312.9176734753713</v>
+        <v>264.9966770610737</v>
       </c>
       <c r="M45" t="n">
         <v>328.7910151377041</v>
       </c>
       <c r="N45" t="n">
-        <v>352.0473217437826</v>
+        <v>643.2130480342503</v>
       </c>
       <c r="O45" t="n">
-        <v>299.6102837941356</v>
+        <v>299.6102837941355</v>
       </c>
       <c r="P45" t="n">
         <v>539.3980857532545</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.26597782386537</v>
+        <v>97.26597782386534</v>
       </c>
       <c r="R45" t="n">
-        <v>15.23795941650062</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.80427623879305</v>
+        <v>16.80427623879304</v>
       </c>
       <c r="K46" t="n">
         <v>158.7629078427365</v>
@@ -38183,7 +38183,7 @@
         <v>259.2491695623977</v>
       </c>
       <c r="M46" t="n">
-        <v>283.8359636195874</v>
+        <v>283.8359636195873</v>
       </c>
       <c r="N46" t="n">
         <v>282.5764903465113</v>
